--- a/sms_result.xlsx
+++ b/sms_result.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,9 @@
       <c r="B1" t="str">
         <v>尊敬的移动老用户！根据你的消费情况，我司免费赠送你一部智能手机，无需换号，办理地址：新度桥头远大电讯连锁卖场，详询入店咨询0594-7969998。退订回TD</v>
       </c>
+      <c r="C1" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -407,6 +410,9 @@
       <c r="B2" t="str">
         <v>.*你好，你于.*参加.*线的第.*期分期付款.*元，请于1月8日前转账支付宝wfbl42@163.com北京一人一熊文化传播有限公司，请备注姓名和参加第几期付款。如已缴费请忽略退订回TD</v>
       </c>
+      <c r="C2" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,6 +421,12 @@
       <c r="B3" t="str">
         <v>2017年中国国际纺织面料及辅料（春夏）博览会3月15--17日国家会展中心（上海）摊位申请：刘安邦 13916189823回复退订td</v>
       </c>
+      <c r="C3" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D3" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -423,6 +435,12 @@
       <c r="B4" t="str">
         <v>您好,你找回密码的验证码是:\d*</v>
       </c>
+      <c r="C4" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D4" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -431,6 +449,12 @@
       <c r="B5" t="str">
         <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全.+</v>
       </c>
+      <c r="C5" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D5" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -439,6 +463,12 @@
       <c r="B6" t="str">
         <v>.*各位教职工.*为确保.*顺利进行，保障活动区域人员安全，经研究决定.*届时过往车辆请由爱生广场绕行.*因此给您带来不便敬请谅解.*</v>
       </c>
+      <c r="C6" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D6" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -447,6 +477,12 @@
       <c r="B7" t="str">
         <v>您已暂未上报数据定位信息，请打开外勤365，并保持在后台运行！</v>
       </c>
+      <c r="C7" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D7" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -455,6 +491,12 @@
       <c r="B8" t="str">
         <v>您有新的费用申请需要审批.*</v>
       </c>
+      <c r="C8" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D8" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -463,6 +505,12 @@
       <c r="B9" t="str">
         <v>你的销单已经被打回</v>
       </c>
+      <c r="C9" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D9" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -471,6 +519,9 @@
       <c r="B10" t="str">
         <v>2017年1月5日-1月10日，您的号码.*话费，河东紫竹美庭移动营业厅，询\d*！退订回TD</v>
       </c>
+      <c r="C10" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -479,6 +530,12 @@
       <c r="B11" t="str">
         <v>项目还款通知：您投资的.{0,18}项目，成功回款利息.{0,18}元，已结算到您的账户余额，请登录秒钱查看http://t.cn/\w+</v>
       </c>
+      <c r="C11" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D11" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -487,6 +544,12 @@
       <c r="B12" t="str">
         <v>尊敬的客户，您于\d+年\d+月\d+日\d+时\d+分已成功充值\d+\.?\d*元。更多优惠活动详见js.10086.cn办理\“永不停机”\交费业务，轻松赚\d+元话费。</v>
       </c>
+      <c r="C12" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D12" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -495,6 +558,12 @@
       <c r="B13" t="str">
         <v>您好，您的验证码为.{0,10}</v>
       </c>
+      <c r="C13" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D13" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -503,6 +572,9 @@
       <c r="B14" t="str">
         <v>尊敬的用户，您好，测试退订回复TD</v>
       </c>
+      <c r="C14" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -511,6 +583,12 @@
       <c r="B15" t="str">
         <v>您的，您的订单号为3255565的订单已支付成功！</v>
       </c>
+      <c r="C15" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D15" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -527,6 +605,9 @@
       <c r="B17" t="str">
         <v>你好，我是.*我一直在用婚礼咖app筹备婚礼、预约婚礼服务，方便快捷，国内最好的婚礼人展示平台。让新人与婚礼人成为朋友吧！婚礼咖app下载链接.*a.app.qq.com.*退订回复TD</v>
       </c>
+      <c r="C17" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -535,6 +616,12 @@
       <c r="B18" t="str">
         <v>.*(member verification).*(for 10 mins.)</v>
       </c>
+      <c r="C18" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D18" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -543,6 +630,12 @@
       <c r="B19" t="str">
         <v>亲爱的用户，您的验证码是：.*</v>
       </c>
+      <c r="C19" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D19" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -551,6 +644,12 @@
       <c r="B20" t="str">
         <v>.*会员.*新礼包.*山东省分公司</v>
       </c>
+      <c r="C20" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D20" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -559,6 +658,12 @@
       <c r="B21" t="str">
         <v>您的操作码是.*</v>
       </c>
+      <c r="C21" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D21" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -567,6 +672,12 @@
       <c r="B22" t="str">
         <v>这是大衣的时代，抛掉臃肿冬装，让林更新带你玩转有型时尚风，买大衣另有精美胸针搭配，戳.*退订回TD</v>
       </c>
+      <c r="C22" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D22" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -575,6 +686,9 @@
       <c r="B23" t="str">
         <v>10月31日前但凡在本公司选购家具、窗帘、墙纸、灯饰等软装产品的佳兆业城市广场的业主即可享受边套户型小房间改造加封阳台最低6000元特惠价！详情请移步佳兆业广场西侧一帘阳光家装体验馆店内咨询或拨打免费咨询热线：400-680-7372。退订回TD</v>
       </c>
+      <c r="C23" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -583,6 +697,12 @@
       <c r="B24" t="str">
         <v>.{0,15}尊敬的刷刷用户.*您提交的轮滑.*请点击.*编辑店铺</v>
       </c>
+      <c r="C24" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D24" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -591,6 +711,12 @@
       <c r="B25" t="str">
         <v>您的验证码为：.*，欢迎注册微菜单！</v>
       </c>
+      <c r="C25" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D25" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -599,6 +725,12 @@
       <c r="B26" t="str">
         <v>亲爱的XXX，今天是您入职满1周年的日子。365个日日夜夜里，是您始终陪伴着公司一路前行。感谢您的忠心跟随和执着守候、感激您的无私奉献与热情坚守，愿在接下来的日子里，能与您继续奋勇拼搏，共创美好明天！金茂广州，感谢有您。XX年XX月XX日</v>
       </c>
+      <c r="C26" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D26" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -607,6 +739,12 @@
       <c r="B27" t="str">
         <v>尊敬的用户，您好！您在恒晟金服的手机绑定验证码为：\d*，请确认。</v>
       </c>
+      <c r="C27" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D27" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -615,6 +753,9 @@
       <c r="B28" t="str">
         <v>你好，今天是程序员日，程序员是不是出来表示一下呢，非程序员祝你们以后的日子技术屌炸天。退订回TD</v>
       </c>
+      <c r="C28" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -623,6 +764,9 @@
       <c r="B29" t="str">
         <v>尊敬的业主，请.*如有疑问请拨打热线电话：\d+。退订回T</v>
       </c>
+      <c r="C29" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -631,6 +775,12 @@
       <c r="B30" t="str">
         <v>.*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
       </c>
+      <c r="C30" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D30" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -639,6 +789,12 @@
       <c r="B31" t="str">
         <v>您的验证码是：.*</v>
       </c>
+      <c r="C31" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D31" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -647,6 +803,12 @@
       <c r="B32" t="str">
         <v>亲爱的用户，您的验证码是\w*，5分钟内有效。</v>
       </c>
+      <c r="C32" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D32" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -655,6 +817,12 @@
       <c r="B33" t="str">
         <v>\w*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
       </c>
+      <c r="C33" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D33" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -663,6 +831,12 @@
       <c r="B34" t="str">
         <v>您的验证码为：\w* ，5分钟内有效。海不会不蓝，海浪不会不在，欢迎您加入海浪大家庭！</v>
       </c>
+      <c r="C34" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D34" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -671,6 +845,12 @@
       <c r="B35" t="str">
         <v>您好，您的验证码是你的手机号为.{0,15}验证码为.{0,10}</v>
       </c>
+      <c r="C35" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D35" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -679,6 +859,12 @@
       <c r="B36" t="str">
         <v>(您的提款交易码)\w*(已经于)\w*(成功办理)</v>
       </c>
+      <c r="C36" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D36" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -687,6 +873,12 @@
       <c r="B37" t="str">
         <v>您已付款，订单号为：12</v>
       </c>
+      <c r="C37" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D37" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -695,6 +887,12 @@
       <c r="B38" t="str">
         <v>.{2,15}您的短信验证码为.{0,8}</v>
       </c>
+      <c r="C38" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D38" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -703,6 +901,12 @@
       <c r="B39" t="str">
         <v>无签名的审核通过模板</v>
       </c>
+      <c r="C39" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D39" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -719,6 +923,12 @@
       <c r="B41" t="str">
         <v>.{0,12}您好，您的验证码是.{0,8}请在.{0,4}分钟之内输入。</v>
       </c>
+      <c r="C41" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D41" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -727,6 +937,9 @@
       <c r="B42" t="str">
         <v>双11预售提前抢，全网买1送1，秋冬新品3折起，限量抢购 t.cn.+退订回TD</v>
       </c>
+      <c r="C42" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -735,6 +948,9 @@
       <c r="B43" t="str">
         <v>亲，您好，感谢您对我们一直以来的支持和眷顾.*详细可咨询\d*或联系24小时服务QQ\d*在线咨询。回复TD退订。</v>
       </c>
+      <c r="C43" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -743,6 +959,9 @@
       <c r="B44" t="str">
         <v>IT运维众包伙伴们，请完善您的个人信息，开启抢单模式，向自由职业发起挑战。 iOS：http://dwz.cn.*Android： http://dwz.cn.*退订回TD</v>
       </c>
+      <c r="C44" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -751,6 +970,12 @@
       <c r="B45" t="str">
         <v>本次修改提现银行账户的验证码是:\d+</v>
       </c>
+      <c r="C45" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D45" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -759,6 +984,12 @@
       <c r="B46" t="str">
         <v>您提交的退货申请已成功处理，退回款项：12元，当前余额：12元。如有疑问，请联系商城客服。</v>
       </c>
+      <c r="C46" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D46" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -767,6 +998,12 @@
       <c r="B47" t="str">
         <v>您的验证码是.{0,12}</v>
       </c>
+      <c r="C47" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D47" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -775,6 +1012,12 @@
       <c r="B48" t="str">
         <v>您收到的短信验证码为：8888，请勿告知他人，5分钟内有效！</v>
       </c>
+      <c r="C48" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D48" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -783,6 +1026,12 @@
       <c r="B49" t="str">
         <v>您的验证码是：\w*，五分钟之内有效。</v>
       </c>
+      <c r="C49" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D49" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -791,6 +1040,12 @@
       <c r="B50" t="str">
         <v>您的验证码是\w*。请勿将验证码泄露给他人。如非本人操作，请忽略。</v>
       </c>
+      <c r="C50" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D50" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -799,6 +1054,12 @@
       <c r="B51" t="str">
         <v>您的注册验证码：\w*，5分钟内有效！如非本人操作请忽略。</v>
       </c>
+      <c r="C51" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D51" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -807,6 +1068,12 @@
       <c r="B52" t="str">
         <v>你的注册申请已经通过</v>
       </c>
+      <c r="C52" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D52" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -815,6 +1082,12 @@
       <c r="B53" t="str">
         <v>您好,您的验证码是:\w*</v>
       </c>
+      <c r="C53" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D53" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -823,6 +1096,12 @@
       <c r="B54" t="str">
         <v>验证码:\w*公司动漫专区。</v>
       </c>
+      <c r="C54" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D54" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -831,6 +1110,12 @@
       <c r="B55" t="str">
         <v>尊敬的用户您已经注册成功，用户名.{0,8}感谢您的注册！</v>
       </c>
+      <c r="C55" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D55" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -839,6 +1124,12 @@
       <c r="B56" t="str">
         <v>您的验证码是\w*http://www.sina.com.cn/</v>
       </c>
+      <c r="C56" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D56" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -847,6 +1138,12 @@
       <c r="B57" t="str">
         <v>在韩宝典：您的验证码是.{0,8}秒内使用有效。</v>
       </c>
+      <c r="C57" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D57" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -855,6 +1152,12 @@
       <c r="B58" t="str">
         <v>恭喜您注册激活成功,您的用户名.{0,25}密码.{0,25}网站地址为www.hkelt.com</v>
       </c>
+      <c r="C58" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D58" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -863,6 +1166,12 @@
       <c r="B59" t="str">
         <v>恭喜您注册激活成功,您的用户名.*密码.*网站地址为www.hkelt.com</v>
       </c>
+      <c r="C59" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D59" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -871,6 +1180,12 @@
       <c r="B60" t="str">
         <v>您充值.+元,请登录平台查看，祝生意兴隆</v>
       </c>
+      <c r="C60" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D60" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -879,6 +1194,12 @@
       <c r="B61" t="str">
         <v>验证码是.{0,10}</v>
       </c>
+      <c r="C61" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D61" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -887,6 +1208,9 @@
       <c r="B62" t="str">
         <v>亲，您已经成功充值.{0,10}元，投标即可获得收益。退订回复TD退订回TD</v>
       </c>
+      <c r="C62" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -895,6 +1219,9 @@
       <c r="B63" t="str">
         <v>你喜欢的&lt;蒙牛纯甄酸牛奶&gt;.+今日下单仅需14.9元／4盒！t.cn/RMAVadQ退订回TD</v>
       </c>
+      <c r="C63" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -903,6 +1230,12 @@
       <c r="B64" t="str">
         <v>.{0,15}memberverification.{0,8}for10mins.{2}</v>
       </c>
+      <c r="C64" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D64" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -911,6 +1244,12 @@
       <c r="B65" t="str">
         <v>您的验证码为：\w*，欢迎注册微菜单！</v>
       </c>
+      <c r="C65" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D65" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -919,6 +1258,12 @@
       <c r="B66" t="str">
         <v>重要提示：本市交警已开展交通违法大整治，严处重罚各类违章行为。望大家遵纪守法谨慎驾驶！</v>
       </c>
+      <c r="C66" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D66" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -927,6 +1272,12 @@
       <c r="B67" t="str">
         <v>验证码如下： \w* 有效期为10分钟</v>
       </c>
+      <c r="C67" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D67" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -935,6 +1286,12 @@
       <c r="B68" t="str">
         <v xml:space="preserve">感谢您注册，您的验证码是： \w* </v>
       </c>
+      <c r="C68" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D68" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -943,6 +1300,12 @@
       <c r="B69" t="str">
         <v>您\w*</v>
       </c>
+      <c r="C69" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D69" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -951,6 +1314,12 @@
       <c r="B70" t="str">
         <v xml:space="preserve">你的验证码是 \w* </v>
       </c>
+      <c r="C70" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D70" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -959,6 +1328,12 @@
       <c r="B71" t="str">
         <v>您好！您的验证码是：</v>
       </c>
+      <c r="C71" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D71" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -967,6 +1342,12 @@
       <c r="B72" t="str">
         <v>外勤365下载地址：http://m.waiqin365.com。如非本人操作，请忽略此短信。客服电话4001-025-365</v>
       </c>
+      <c r="C72" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D72" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -975,6 +1356,12 @@
       <c r="B73" t="str">
         <v>您好.+已经将您的.+纠纷设置进入诉前调解程序，调解案号为.+您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
       </c>
+      <c r="C73" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D73" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -983,6 +1370,12 @@
       <c r="B74" t="str">
         <v>您好.+已经受理您参与调解的.+一案的司法确认申请,立案案号为.+请您登录在线法院平台调解员客户端查看进展.+</v>
       </c>
+      <c r="C74" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D74" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -991,6 +1384,12 @@
       <c r="B75" t="str">
         <v>您好.+的诉中调解程序，法院已经委托调解员.+为您调解，您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
       </c>
+      <c r="C75" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D75" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -999,6 +1398,12 @@
       <c r="B76" t="str">
         <v>您好.+已经确认您对.+一案的司法确认申请有效,您可登录在线法院平台当事人客户端查看和下载司法确认裁定书。</v>
       </c>
+      <c r="C76" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D76" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1007,6 +1412,12 @@
       <c r="B77" t="str">
         <v>.{0,10}您的验证码是.{0,10}</v>
       </c>
+      <c r="C77" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D77" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1015,6 +1426,12 @@
       <c r="B78" t="str">
         <v>.+先生您好！我是皇家移民的.+请您对我的服务进行评价！请您回复相应的序号：1、非常满意；2、基本满意；3、不满意。退订回TD</v>
       </c>
+      <c r="C78" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D78" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1023,6 +1440,12 @@
       <c r="B79" t="str">
         <v>欢迎注册卡尤迪，验证码为\w+，请尽快使用，完成注册。</v>
       </c>
+      <c r="C79" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D79" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1031,6 +1454,12 @@
       <c r="B80" t="str">
         <v>.{0,10}您关注的商品.*已经降价，您可点击下面链接直接进入商品页面浏览或购买.*</v>
       </c>
+      <c r="C80" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D80" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1039,6 +1468,12 @@
       <c r="B81" t="str">
         <v>当前矿机已为你挖掘.*当前挖矿难度.*当前剩余时间.*退订回TD</v>
       </c>
+      <c r="C81" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D81" t="str">
+        <v>类别：1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1047,6 +1482,12 @@
       <c r="B82" t="str">
         <v>.{0,10}您正在申请短信安全验证，验证码为.{0,10}有效期为.*请勿泄露他人以防账号被盗。如有疑问，请致电.*</v>
       </c>
+      <c r="C82" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D82" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1055,6 +1496,9 @@
       <c r="B83" t="str">
         <v>双十一全民狂欢节又来了！别人买买买，我来赚赚赚！即日起.*登录“富航微盘”交易，您亏损多少我们补偿等额现金券，http://fuhang.zc-fund.com.*详情敬请关注“富航微盘”公众号！退订回TD</v>
       </c>
+      <c r="C83" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1063,6 +1507,12 @@
       <c r="B84" t="str">
         <v>亲爱的会员，世界制造网上有您一封来自海外的询盘，请登录您的后台查收，咨询热线：13356700231</v>
       </c>
+      <c r="C84" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D84" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1071,6 +1521,12 @@
       <c r="B85" t="str">
         <v>请在2017年1月5日周四晚上7点，在鸿德堂参加“初信栽培”。地址：上海市虹口区多伦路59号近四川北路横浜桥。</v>
       </c>
+      <c r="C85" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D85" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1079,6 +1535,9 @@
       <c r="B86" t="str">
         <v>打10分送话费啦，如您接到外省固定电话，请对移动的服务、网络等多个多问题全部打10分，两个月内就可获赠100元话费噢。详询各移动网点。退订回复TD</v>
       </c>
+      <c r="C86" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1087,6 +1546,9 @@
       <c r="B87" t="str">
         <v>打10分送话费啦！如您接到外省固定电话，请对移动的服务、网络等多个问题全部打10分，核实后就可获赠100元话费噢。退订回TD</v>
       </c>
+      <c r="C87" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1095,6 +1557,12 @@
       <c r="B88" t="str">
         <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
       </c>
+      <c r="C88" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D88" t="str">
+        <v>类别：24</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1103,6 +1571,9 @@
       <c r="B89" t="str">
         <v>双十一零点，1.1元抢购新疆阿克苏冰糖心苹果，猛撮壹农壹果VIP会场.*http://980.*退订回TD</v>
       </c>
+      <c r="C89" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1119,6 +1590,12 @@
       <c r="B91" t="str">
         <v>定时任务发送失败：{12}，请到系统中手动进行发布。若有疑问请联系管理员。</v>
       </c>
+      <c r="C91" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D91" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1127,6 +1604,9 @@
       <c r="B92" t="str">
         <v>官网狂欢庆典\d+/\d+-\d+明星爆款低至\d+折，直降\d+元，\d+重礼遇→ www.ernolaszlo.com.cn退订回TD</v>
       </c>
+      <c r="C92" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1135,6 +1615,12 @@
       <c r="B93" t="str">
         <v>.*点评了您办理的任务“@”</v>
       </c>
+      <c r="C93" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D93" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1143,6 +1629,12 @@
       <c r="B94" t="str">
         <v>.{0,10}尊敬的.*本店装修，现将剩余网费转至.*地址.*新会员.*TD.*</v>
       </c>
+      <c r="C94" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D94" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1151,6 +1643,12 @@
       <c r="B95" t="str">
         <v>蓝队网络提醒您:您的弹性云已开通了！用户名.{0,20}IP.{0,20}到期时间是.{0,30}</v>
       </c>
+      <c r="C95" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D95" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1159,6 +1657,12 @@
       <c r="B96" t="str">
         <v>.+您的验证码是：\d+。请不要把验证码泄露给其他人。</v>
       </c>
+      <c r="C96" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D96" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1167,6 +1671,12 @@
       <c r="B97" t="str">
         <v>尊敬的客户你好.{2,4}我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.{2,4}元，请你尽快还款！</v>
       </c>
+      <c r="C97" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D97" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1175,6 +1685,12 @@
       <c r="B98" t="str">
         <v>亲爱的，您的神秘大礼包还未领取.*宝宝们快快戳进小白直播.*属于你们的大礼吧～http://www.xiaobaizhibo.com.*</v>
       </c>
+      <c r="C98" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D98" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1183,6 +1699,12 @@
       <c r="B99" t="str">
         <v>菜无忧-系统已经为您重置密码，您的新密码为：\w+，您可以登录后修改密码！</v>
       </c>
+      <c r="C99" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D99" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1191,6 +1713,9 @@
       <c r="B100" t="str">
         <v>尊敬的.{0,10}会员，您好！今天是个特殊而美好的的日子，我们衷心祝您生日快乐.*赶快登陆账户看看吧！退订回TD</v>
       </c>
+      <c r="C100" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1199,6 +1724,9 @@
       <c r="B101" t="str">
         <v>.{0,8}，您好！登陆标天下商标注册网biaotianxia.com或微信关注\(标天下商标注册\)凭本短信或回复客服.*详情：400-118-2323退订回TD</v>
       </c>
+      <c r="C101" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1207,6 +1735,12 @@
       <c r="B102" t="str">
         <v>验证码：.{0,8}，仅用于注册和找回密码，请勿泄露。电竞福利等你来拿！:http://www.dodovip.com</v>
       </c>
+      <c r="C102" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D102" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1215,6 +1749,9 @@
       <c r="B103" t="str">
         <v>如何成为上市公司创始人或股东，如何三年打造一家主板上市公司，如何让企业轻松的融到更多的资金，2017年让公司不仅赚钱，还能变成一家值钱的企业？1月9—11号深圳《产业资本孵化流水线》让您有获得资本时代的红利，报名13922891115退订回TD</v>
       </c>
+      <c r="C103" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1223,6 +1760,12 @@
       <c r="B104" t="str">
         <v>您好，您正在进行找回密码，您的验证码：\d+</v>
       </c>
+      <c r="C104" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D104" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1231,6 +1774,12 @@
       <c r="B105" t="str">
         <v>验证码：.{0,8}（30分钟内有效）欢迎加入「鲸灵社」。完成注册可收获礼盒，微鲸电视、格瓦拉电影兑换券等你拿。</v>
       </c>
+      <c r="C105" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D105" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1239,6 +1788,12 @@
       <c r="B106" t="str">
         <v>您的验证码是\d+</v>
       </c>
+      <c r="C106" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D106" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1247,6 +1802,9 @@
       <c r="B107" t="str">
         <v>您好，由母婴行业观察主办的.*召开，欢迎您参加。报名地址.{0,10}http://dwz.cn/4CYI6h.{0,10}退订回TD</v>
       </c>
+      <c r="C107" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1263,6 +1821,12 @@
       <c r="B109" t="str">
         <v>注册短信校验码：\d+，请勿向任何人提供此验证码，谨防风险。</v>
       </c>
+      <c r="C109" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D109" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1271,6 +1835,12 @@
       <c r="B110" t="str">
         <v>\w+月\w+日至\w+月\w+日！周年庆第二波，凭会员卡购物双倍积分！圆粉丝\w+.\w+元！干香菇\w+.\w+元！退订回TD</v>
       </c>
+      <c r="C110" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D110" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1279,6 +1849,12 @@
       <c r="B111" t="str">
         <v>提醒：您的注册码是：\w+，有效期30分钟。请勿将验证码泄露给任何人！</v>
       </c>
+      <c r="C111" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D111" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1287,6 +1863,12 @@
       <c r="B112" t="str">
         <v>有新的取款信息等您处理，请登录后台处理问题。</v>
       </c>
+      <c r="C112" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D112" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1295,6 +1877,9 @@
       <c r="B113" t="str">
         <v>亲爱的“吾麦道面馆”会员们，感谢您在本店消费并成为会员.*加微信\d*可以咨询哦！退订回TD</v>
       </c>
+      <c r="C113" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1303,6 +1888,12 @@
       <c r="B114" t="str">
         <v>.{0,10}您好,您的样品.*公司已经收到。河北思科立珂石油科技有限责任公司.*www.scoilmic.net</v>
       </c>
+      <c r="C114" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D114" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1311,6 +1902,12 @@
       <c r="B115" t="str">
         <v>您预订了.+的课程，请准时上课！</v>
       </c>
+      <c r="C115" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D115" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -1319,6 +1916,12 @@
       <c r="B116" t="str">
         <v>你的验证码.{0,15}请妥善保管，合理使用。来自华南创投媒体“闹客邦”。</v>
       </c>
+      <c r="C116" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D116" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -1327,6 +1930,12 @@
       <c r="B117" t="str">
         <v>尊敬的会员：您好!您正在圆美梦商城进行积分兑换活动,该次验证码为:\d+,有效时间五分钟.+如非本人操作,请忽略此短信,请勿泄露验证码!]</v>
       </c>
+      <c r="C117" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D117" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -1335,6 +1944,9 @@
       <c r="B118" t="str">
         <v>总理点赞的橙子。现摘现发顺丰包邮。送领导送客户。如果您在等橙子最好吃的时候，那这月一定要来尝尝!加葳薪Rox105退订回TD</v>
       </c>
+      <c r="C118" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -1343,6 +1955,12 @@
       <c r="B119" t="str">
         <v>投资人您好：新安左右贷.*同步上线，登录官网：www.xamoney.com，扫描首页右上方“手机APP”二维码下载吧！.{0,10}</v>
       </c>
+      <c r="C119" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D119" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -1351,6 +1969,12 @@
       <c r="B120" t="str">
         <v>验证码:\d+,仅用于注册和找回密码,请勿泄露。</v>
       </c>
+      <c r="C120" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D120" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -1359,6 +1983,12 @@
       <c r="B121" t="str">
         <v>您在.*店铺的会员帐户,正在激活并绑定微信,验证码:\d+。</v>
       </c>
+      <c r="C121" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D121" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -1367,6 +1997,9 @@
       <c r="B122" t="str">
         <v>尊敬的.{0,10}您好，济南金百合医疗器械有限公司.*地址：山东省济南市历下区泺源大街53号.*时间.+退订回TD</v>
       </c>
+      <c r="C122" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -1375,6 +2008,12 @@
       <c r="B123" t="str">
         <v>你好,你的注册验证码是:.{2,8}</v>
       </c>
+      <c r="C123" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D123" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -1383,6 +2022,9 @@
       <c r="B124" t="str">
         <v>眉山移动温馨提示.*数量不多，先到先得。退订回TD</v>
       </c>
+      <c r="C124" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -1399,6 +2041,12 @@
       <c r="B126" t="str">
         <v>您的订单已经提交成功，请等待收货。</v>
       </c>
+      <c r="C126" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D126" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -1407,6 +2055,12 @@
       <c r="B127" t="str">
         <v>客服中心有一份新订单，请及时推送。</v>
       </c>
+      <c r="C127" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D127" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -1415,6 +2069,12 @@
       <c r="B128" t="str">
         <v>您好：.{0,20}您正在操作修改云主机密码，验证码为.{0,10}有效期5分钟。（蓝队客服绝不会索取此验证码，切勿告知他人）</v>
       </c>
+      <c r="C128" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D128" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -1423,6 +2083,9 @@
       <c r="B129" t="str">
         <v>你离理想生活只缺一步，颐景园.{0,18}样板房筹备进行时，窗帘、墙纸、灯饰、定制家具、成品家具效果眼见为实，我们期待与您的见面！退订回TD.{0,2}</v>
       </c>
+      <c r="C129" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -1431,6 +2094,12 @@
       <c r="B130" t="str">
         <v>.{2,20}预约挂号中心提示：您的专家门诊预约号已取消，原预约号保留一周，一周内仍可凭此号空腹到院进行就诊！如有疑问随时拨打0551-63653558咨询！近期注意饮食及作息时间，祝您早日康复！</v>
       </c>
+      <c r="C130" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D130" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -1439,6 +2108,12 @@
       <c r="B131" t="str">
         <v>你的验证码.{0,10}利安人寿祝你家庭生活幸福美满！</v>
       </c>
+      <c r="C131" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D131" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -1447,6 +2122,9 @@
       <c r="B132" t="str">
         <v>尊敬的.*您在合肥新安小额贷款股份有限公司的借款.*请及时还款。退订回TD</v>
       </c>
+      <c r="C132" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -1455,6 +2133,9 @@
       <c r="B133" t="str">
         <v>尊敬的会员你好科隆健身定于本月.{0,12}举行圣诞狂欢晚会诚邀您及家人朋友前来参加咨询电话.{0,12}退订回复TD.{0,2}</v>
       </c>
+      <c r="C133" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -1463,6 +2144,12 @@
       <c r="B134" t="str">
         <v>您好，您的订单已派送给修车工人.*，他将尽快到达。如有疑问，请拨打8208820与客服中心联系。</v>
       </c>
+      <c r="C134" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D134" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -1471,6 +2158,9 @@
       <c r="B135" t="str">
         <v>江阴华夏海马汽车特别提醒12月份汽车保养用户：请您根据爱车的行使里程，合理安排保养时间.*华夏汽车】退订回TD</v>
       </c>
+      <c r="C135" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -1479,6 +2169,12 @@
       <c r="B136" t="str">
         <v>您已成功预约.+时间的号，请于就诊当天带上身份证和卡号为\d*就诊卡到.+窗口办理实名认证后缴费就诊。</v>
       </c>
+      <c r="C136" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D136" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -1487,6 +2183,9 @@
       <c r="B137" t="str">
         <v>温馨提醒：尊敬的业主，寒冬已到来，近日还会有雪天，请注意安全驾驶，温州城地下车库优惠促销，机会有限，先到先得。白雪皑皑，快给爱车选个家吧！退订回TD</v>
       </c>
+      <c r="C137" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -1495,6 +2194,12 @@
       <c r="B138" t="str">
         <v>已缴费人民币\d*元，成功预约吉林省中医院.*请准时到医院凭就诊卡\（卡号信息\d*\）在预约专用窗口打印挂号票据。</v>
       </c>
+      <c r="C138" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D138" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -1503,6 +2208,12 @@
       <c r="B139" t="str">
         <v>.*您好！您已经成功取消了到诊日期为.+门诊号</v>
       </c>
+      <c r="C139" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D139" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -1511,6 +2222,12 @@
       <c r="B140" t="str">
         <v>您的订单号.*已成功申请退费。退费金额将从支付方原路退回，请注意查看。</v>
       </c>
+      <c r="C140" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D140" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -1519,6 +2236,12 @@
       <c r="B141" t="str">
         <v>12.*贡桔.*元。退订回TD</v>
       </c>
+      <c r="C141" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D141" t="str">
+        <v>类别：63</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -1527,6 +2250,9 @@
       <c r="B142" t="str">
         <v>.*岗位你来不？包吃包住不加班，工作轻松工资高，立戳开撩 http://dwz.cn.*退订回TD</v>
       </c>
+      <c r="C142" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -1535,6 +2261,12 @@
       <c r="B143" t="str">
         <v>您本次验证码:\w+,10分钟内有效</v>
       </c>
+      <c r="C143" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D143" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -1543,6 +2275,12 @@
       <c r="B144" t="str">
         <v>此验证码只用于注册你的账号，验证码提供给他人将导致募才账号被盗。.{2,25}再次提醒，请勿转发</v>
       </c>
+      <c r="C144" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D144" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -1551,6 +2289,12 @@
       <c r="B145" t="str">
         <v>您的验证码是：\d*。请不要把验证码泄露给其他人。</v>
       </c>
+      <c r="C145" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D145" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -1559,6 +2303,12 @@
       <c r="B146" t="str">
         <v>尊敬的用户，您的验证码为.{0,10}为了您的账户安全请务必保存好您的验证码，勿向任何人透漏!</v>
       </c>
+      <c r="C146" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D146" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -1567,6 +2317,12 @@
       <c r="B147" t="str">
         <v>预订编号.+</v>
       </c>
+      <c r="C147" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D147" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -1575,6 +2331,12 @@
       <c r="B148" t="str">
         <v>尊敬.+火车.+</v>
       </c>
+      <c r="C148" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D148" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -1583,6 +2345,12 @@
       <c r="B149" t="str">
         <v>您有.+新的会议要参加，会议名称.+，请登录网址http://t.cn/RViEMlt查看.+</v>
       </c>
+      <c r="C149" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D149" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -1591,6 +2359,12 @@
       <c r="B150" t="str">
         <v>订单.+请及时关注！</v>
       </c>
+      <c r="C150" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D150" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -1599,6 +2373,9 @@
       <c r="B151" t="str">
         <v>原二人转大舞台搬迁至七经街文化宫.*抢票2221116退订回TD</v>
       </c>
+      <c r="C151" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -1607,6 +2384,12 @@
       <c r="B152" t="str">
         <v>尊敬的.{0,10}您好，近期有不法分子冒充任达养老工作人员邀约您参加两天一夜游及外出购物活动，为了保证您的权益和安全.*任达养老集团\d*年\d*月\d*日</v>
       </c>
+      <c r="C152" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D152" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -1615,6 +2398,12 @@
       <c r="B153" t="str">
         <v>.*项目，订单编号.{0,10}卖家已发货，请注意签收。</v>
       </c>
+      <c r="C153" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D153" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -1623,6 +2412,12 @@
       <c r="B154" t="str">
         <v>.*您有新的询价单需要报价.*项目，询价编号.*截至日期.*登录网站或APP即可报价。</v>
       </c>
+      <c r="C154" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D154" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -1631,6 +2426,12 @@
       <c r="B155" t="str">
         <v>.+项目，订单编号.+由于信息错误被撤回，很抱歉给您带来不便，敬请谅解！</v>
       </c>
+      <c r="C155" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D155" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -1639,6 +2440,12 @@
       <c r="B156" t="str">
         <v>尊敬的.{0,10}，您好!您的宽带账号.*因到期未续费,已停用。重新开通需缴纳.*感谢对我们工作的支持与配合</v>
       </c>
+      <c r="C156" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D156" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -1647,6 +2454,12 @@
       <c r="B157" t="str">
         <v>.{0,8}注册验证码.{0,10}五分钟内有效</v>
       </c>
+      <c r="C157" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D157" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -1655,6 +2468,9 @@
       <c r="B158" t="str">
         <v>好消息！一公里给您送钱啦，下载APP送15元，首单满.*快来下单吧！http://s881.com.*回TD退订</v>
       </c>
+      <c r="C158" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -1663,6 +2479,12 @@
       <c r="B159" t="str">
         <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*</v>
       </c>
+      <c r="C159" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D159" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -1671,6 +2493,9 @@
       <c r="B160" t="str">
         <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*。回复TD退订</v>
       </c>
+      <c r="C160" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -1679,6 +2504,12 @@
       <c r="B161" t="str">
         <v>恭喜贵公司申请的.+\([a-zA-Z]+\)品牌审核通过，即可发布该品牌相关商品，祝贵公司财源广进，日进斗金！</v>
       </c>
+      <c r="C161" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D161" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -1687,6 +2518,12 @@
       <c r="B162" t="str">
         <v>各位采购商您好，我市场从\d+年\d+月\d+日\d+时\d+分起对.*的交易补贴标准调整为\d+元/吨，其他品种补贴标准不变，敬请知悉。</v>
       </c>
+      <c r="C162" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D162" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -1703,6 +2540,9 @@
       <c r="B164" t="str">
         <v>.+目前正在同步区块连接中,请等待.*当前时间.+退订回TD</v>
       </c>
+      <c r="C164" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -1711,6 +2551,12 @@
       <c r="B165" t="str">
         <v>您好，您的验证码是.{2,10}</v>
       </c>
+      <c r="C165" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D165" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -1719,6 +2565,12 @@
       <c r="B166" t="str">
         <v>.*项目，订单编号.*交易成功，感谢您对我们平台的支持，本次交易获得.*详情请登录查看。</v>
       </c>
+      <c r="C166" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D166" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -1727,6 +2579,12 @@
       <c r="B167" t="str">
         <v>.+项目采购商已付款，订单编号.+根据协议内容距离到货日期还有7天，请尽快准备好货准时发货。如已准备好，请忽略！</v>
       </c>
+      <c r="C167" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D167" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -1735,6 +2593,12 @@
       <c r="B168" t="str">
         <v>您好，您的验证码是.{0,10}</v>
       </c>
+      <c r="C168" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D168" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -1743,6 +2607,12 @@
       <c r="B169" t="str">
         <v>顾客您好，您的手机动态验证码为：\d*。该码\d*分钟内有效且只能输入\d*次，若\d*分钟内未输入，需重新获取。</v>
       </c>
+      <c r="C169" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D169" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -1751,6 +2621,9 @@
       <c r="B170" t="str">
         <v>2017年1月1日起，高收益两年期产品火爆开抢！开抢倒计时12天，额度有限，速来网点预约。详询当地邮政或拨打65248637回复TD退订</v>
       </c>
+      <c r="C170" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -1759,6 +2632,9 @@
       <c r="B171" t="str">
         <v>12.20号-22号促销商品：西兰花3.48元，药芹1.99元，生菜1.38元，鲜蘑菇5.98元，白虾19.9元，白鲢2.58元，冷冻扇子骨9.9元，油炸花生米6.58元，熟鹌鹑蛋5.58元，黑木耳中片35.8元。退订回TD</v>
       </c>
+      <c r="C171" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -1767,6 +2643,12 @@
       <c r="B172" t="str">
         <v>瓜牛统招保险代理人，高收入、免垫资、强强联合，实力打造，瓜牛保险期待您的加入。退订回TD</v>
       </c>
+      <c r="C172" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D172" t="str">
+        <v>类别：1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -1775,6 +2657,9 @@
       <c r="B173" t="str">
         <v>尊敬的沃去用户，为避免造成误扣费用，请更新沃去到最新版本.+请仔细阅读并遵守协议运行程序。最新版下载地址:http://www.wetripay.com.+回TD退订</v>
       </c>
+      <c r="C173" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -1783,6 +2668,12 @@
       <c r="B174" t="str">
         <v>各位蔬菜经营户，您好，为保障城市蔬菜供应、响应政府号召、维护菜价基本稳定，我市场决定从\d+年\d+月\d+日\d+时起对蔬菜送货车辆免收进场费，市场方经与蔬菜协会沟通，决定所有经营商户同步免收采购商力资费，如有违反市场方将联合协会严正处理，敬请配合，电话88105983，敬请知悉！</v>
       </c>
+      <c r="C174" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D174" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -1791,6 +2682,12 @@
       <c r="B175" t="str">
         <v>恭喜您成功报名“首都市民音乐厅——2017新年音乐会”。请于.*至首都图书馆B座2层剧场入口领取演出票。领票时请携带注册身份证件及报名成功短信进行兑换。每个身份证兑换一张演出票。首都图书馆地址.*温馨提示.*</v>
       </c>
+      <c r="C175" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D175" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -1799,6 +2696,12 @@
       <c r="B176" t="str">
         <v>恭喜您成功报名.*温馨提示：由于北京电视台将对本场演出进行现场直播，请您提前15分钟进场参与活动，并遵守专业剧场的相关规定，配合工作人员保证现场秩序。请勿携带茶水、咖啡等有色饮品及任何食品入场。感谢您的理解与配合。</v>
       </c>
+      <c r="C176" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D176" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -1807,6 +2710,12 @@
       <c r="B177" t="str">
         <v>您好，您的验证码是.{0,15}</v>
       </c>
+      <c r="C177" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D177" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -1815,6 +2724,12 @@
       <c r="B178" t="str">
         <v>您好！欢迎注册平江社会扶贫平台，你的验证码是.{0,12}请注意保存，不要透露给任何人.{0,12}钟内有效。</v>
       </c>
+      <c r="C178" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D178" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -1823,6 +2738,9 @@
       <c r="B179" t="str">
         <v>上海回力鞋业，三塘专卖店，年货大备战，年底大清仓。全场出厂价6.8折，前一百名送拖鞋一双，或袜子一双，先到先得，活动时间12月21日至12月31日。退订回复TD</v>
       </c>
+      <c r="C179" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -1831,6 +2749,12 @@
       <c r="B180" t="str">
         <v>你正在申请重置密码，验证码为.{0,15}有效期为2小时，宁夏耀顺资产员工不会以任何形式索要验证码，请勿泄露他人以防账号被盗。</v>
       </c>
+      <c r="C180" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D180" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -1839,6 +2763,12 @@
       <c r="B181" t="str">
         <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
       </c>
+      <c r="C181" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D181" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -1847,6 +2777,12 @@
       <c r="B182" t="str">
         <v>尊敬的用户，您好！您正在注册博慈尚爱。验证码是：\d*。请于\d*分钟内输入。工作人员不会向您索取验证码，请勿泄露。</v>
       </c>
+      <c r="C182" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D182" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -1855,6 +2791,12 @@
       <c r="B183" t="str">
         <v>尊敬的用户！您于.+成功充值话费\d*元。感谢您的使用！</v>
       </c>
+      <c r="C183" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D183" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -1863,6 +2805,12 @@
       <c r="B184" t="str">
         <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全，请勿将验证码短信转发给他人。</v>
       </c>
+      <c r="C184" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D184" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -1871,6 +2819,12 @@
       <c r="B185" t="str">
         <v>尊敬的.{2,5}我司已为您安排进行打款，请您留意收款银行卡的余额变动。预计2小时内到账，具体到账时间请以银行为准</v>
       </c>
+      <c r="C185" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D185" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -1879,6 +2833,12 @@
       <c r="B186" t="str">
         <v>.*于2016年.*月总共消费.{0,8}元，余额.{0,8}元。</v>
       </c>
+      <c r="C186" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D186" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -1887,6 +2847,12 @@
       <c r="B187" t="str">
         <v>宁夏耀顺资产管理员,您好.*已满标,请进行审核放款.</v>
       </c>
+      <c r="C187" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D187" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -1895,6 +2861,12 @@
       <c r="B188" t="str">
         <v>尊敬的宁夏耀顺资产客户，您的.*查收，如有疑问，请致电086-0755-26909876.</v>
       </c>
+      <c r="C188" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D188" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -1903,6 +2875,12 @@
       <c r="B189" t="str">
         <v>恭喜您获得微鲸官网满3000减200元购物券\（有效期至2017年2月10日\），兑换码.+</v>
       </c>
+      <c r="C189" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D189" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -1911,6 +2889,12 @@
       <c r="B190" t="str">
         <v>验证码\d*,您正在申请注册中票云账户.{0,30}</v>
       </c>
+      <c r="C190" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D190" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -1919,6 +2903,12 @@
       <c r="B191" t="str">
         <v>验证码.{0,10},您正在确认付款信息,需要进行校验,请核实付款金额并确认交易信息无误,如非您本人操作.{0,40}</v>
       </c>
+      <c r="C191" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D191" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -1927,6 +2917,9 @@
       <c r="B192" t="str">
         <v>尊敬的朋友！最后1天提醒：换季出清，6折包邮，活动今晚结束！换季收纳6折、床品6折、保温壶6折…全场低至9元还包邮。回TD退订退订回TD</v>
       </c>
+      <c r="C192" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -1935,6 +2928,12 @@
       <c r="B193" t="str">
         <v>尊敬的中票云用户：您的订单.*确认接收超时，如您未接收到背书，我们将退款给您；如有疑问，请致电.{0,20}</v>
       </c>
+      <c r="C193" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D193" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -1943,6 +2942,12 @@
       <c r="B194" t="str">
         <v>.{0,10}你有一个待完成的巡检单。所属月份.*机电运维平台]</v>
       </c>
+      <c r="C194" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D194" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -1951,6 +2956,12 @@
       <c r="B195" t="str">
         <v>2017年凯仕餐厅自助餐礼券5折起开始预售.*适用于周六至周日自助午餐，周一至周日自助晚餐。预售有效期至.*法定节假日与特殊推广期除外。预售热线.*</v>
       </c>
+      <c r="C195" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D195" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -1959,6 +2970,9 @@
       <c r="B196" t="str">
         <v>男装新春特惠专埸，37元起惊暴全场，免费赠送蚕丝被（毎人限l条）。地址新华书店旁，电话0435-4251555退订回TD</v>
       </c>
+      <c r="C196" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -1967,6 +2981,12 @@
       <c r="B197" t="str">
         <v>尊敬的客户您好，如您已忘记支付密码，请编辑短信.*感谢您对普惠无忧的关注与支持！.{2,6}</v>
       </c>
+      <c r="C197" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D197" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -1975,6 +2995,12 @@
       <c r="B198" t="str">
         <v>尊敬的客户您好，您的预约已受理，预约时间.*预约地点.*您需要携带以下资料原件.*如需帮助请致电400-893-9819，祝您一切顺利，生活愉快！.{2,10}</v>
       </c>
+      <c r="C198" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D198" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -1983,6 +3009,12 @@
       <c r="B199" t="str">
         <v>南极企鹅登陆海口啦！活的真企鹅哦！搜“HNJRSJ”微信号\(金融仕家小秘书\)加好友，一家三口全免单！抢票66189222退订回TD</v>
       </c>
+      <c r="C199" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D199" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -1991,6 +3023,12 @@
       <c r="B200" t="str">
         <v>.{0,10}尊敬的路怒宝用户,您的设备.*安装不规范,请立即调整,否则会影响您的圈发广告接收及收益.*</v>
       </c>
+      <c r="C200" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D200" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -1999,6 +3037,12 @@
       <c r="B201" t="str">
         <v>您有新的批发订单：.+门店申请爸妈在这平台代付，详情请点击查看。</v>
       </c>
+      <c r="C201" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D201" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -2007,6 +3051,12 @@
       <c r="B202" t="str">
         <v>尊敬的客户您好！上海富友金账户官方网址：jzh.fuiou.com，富友服务热线：95138。期待再次为您服务！.{2,6}</v>
       </c>
+      <c r="C202" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D202" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -2015,6 +3065,12 @@
       <c r="B203" t="str">
         <v>您好，您的验证码是\w+,10分钟后过期，请您及时验证!</v>
       </c>
+      <c r="C203" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D203" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -2023,6 +3079,9 @@
       <c r="B204" t="str">
         <v>12.26-12.30大年糕1.99，有机花菜2.98，火锅料7.98，鲜蘑菇8.58，黑鱼5.99，扇子骨9.98，草鸡6.98，翅中16.99，琵琶腿5.99，咸腿肉10.9，核桃果10.9，25KG苏北米105，5L福临门调和油49.9退订回TD</v>
       </c>
+      <c r="C204" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -2031,6 +3090,12 @@
       <c r="B205" t="str">
         <v>您好，感谢您使用星邦重工机器。您的.{0,22}需求已受理.{0,12}工程师.{0,22}将会在半小时内与您联络，请您保持电话畅通。</v>
       </c>
+      <c r="C205" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D205" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -2039,6 +3104,12 @@
       <c r="B206" t="str">
         <v>.+您于.+充值成功，金额.+充值后余额为.+祝您投资愉快！</v>
       </c>
+      <c r="C206" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D206" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -2047,6 +3118,12 @@
       <c r="B207" t="str">
         <v>.+您投资的.+利息已到账，金额.+快回旺财小强投资新项目，获取更多收益吧！</v>
       </c>
+      <c r="C207" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D207" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -2055,6 +3132,12 @@
       <c r="B208" t="str">
         <v>.{0,10}尊敬的.*您好,中介.*房客.*申请看.*房源,请您登陆系统,尽快确认,避免资源流失</v>
       </c>
+      <c r="C208" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D208" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -2063,6 +3146,12 @@
       <c r="B209" t="str">
         <v>恭喜您下单成功：订单房间.+房间密码是：\d+。提醒：您的密码非常的重要，请您一定要保管好，密码当日有效</v>
       </c>
+      <c r="C209" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D209" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -2071,6 +3160,9 @@
       <c r="B210" t="str">
         <v>12.28-12.30号，大青菜0.49，花鲢5.58，美芹1.98，扇子骨12.19，香蕉2.58，草鱼7.28，糯玉米1.5，鸡边腿4.99，鲜蘑菇8.98，香梨5.99，西葫芦1.99，活杀鲜鸡7.9，带皮后腿肉12.99，退订回TD</v>
       </c>
+      <c r="C210" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -2079,6 +3171,12 @@
       <c r="B211" t="str">
         <v>.{0,50}尊敬的会员卡测试:您在缪斯苏格.*卡余额.*元</v>
       </c>
+      <c r="C211" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D211" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -2087,6 +3185,12 @@
       <c r="B212" t="str">
         <v>验证码：\d*。商家钱包忘记提现密码手机验证，\d*分钟内有效。如非本人操作，可不用理会。</v>
       </c>
+      <c r="C212" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D212" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -2095,6 +3199,12 @@
       <c r="B213" t="str">
         <v>尊敬的客户，您的VIP专属会员卡.*请勿将此短信泄露给他人！</v>
       </c>
+      <c r="C213" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D213" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -2103,6 +3213,12 @@
       <c r="B214" t="str">
         <v>尊敬的用户，您正在注册会员，验证码.{0,10}</v>
       </c>
+      <c r="C214" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D214" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -2111,6 +3227,12 @@
       <c r="B215" t="str">
         <v>尊敬的.{0,10}，您申请的提款已被受理，详情请登陆网站个人中心查看。</v>
       </c>
+      <c r="C215" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D215" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -2119,6 +3241,12 @@
       <c r="B216" t="str">
         <v>用户您好，您已绑卡成功，您在信用钱包申请的白条订单已生效，登录APP t.cn/Rf882N8 极速贷款，快速还款</v>
       </c>
+      <c r="C216" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D216" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -2127,6 +3255,12 @@
       <c r="B217" t="str">
         <v>用户您好，您账户.*信用钱包还款支付扣款人民.*如有疑问，请致电400-002-0061</v>
       </c>
+      <c r="C217" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D217" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -2135,6 +3269,12 @@
       <c r="B218" t="str">
         <v>用户您好，您的借款申请已经通过审核，请在24小时内访问卡牛APP，选择‘信用钱包’，补充账户信息以便收款</v>
       </c>
+      <c r="C218" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D218" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -2143,6 +3283,12 @@
       <c r="B219" t="str">
         <v>您的银行卡.*余额不足导致还款失败。请确保您的卡内有足够的资金，或更换使用金额充足的银行卡进行还款</v>
       </c>
+      <c r="C219" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D219" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -2151,6 +3297,12 @@
       <c r="B220" t="str">
         <v>12月27日至12月30日！花鲢.*咸鸡11.9，退订回TD</v>
       </c>
+      <c r="C220" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D220" t="str">
+        <v>类别：18</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -2159,6 +3311,12 @@
       <c r="B221" t="str">
         <v>免费通知.*银行账户发起一笔金额.*的转账，请检查是否到账，此短信不作为入账凭证！</v>
       </c>
+      <c r="C221" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D221" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -2167,6 +3325,12 @@
       <c r="B222" t="str">
         <v>您的验证码.{2,8}，仅用于新手机绑定，请及时完成绑定。如非本人操作，请忽略本短信。</v>
       </c>
+      <c r="C222" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D222" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -2175,6 +3339,12 @@
       <c r="B223" t="str">
         <v>尊敬的用户,感谢您使用，您所申请的手机验证码为.{0,10}，祝您使用愉快。</v>
       </c>
+      <c r="C223" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D223" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -2183,6 +3353,12 @@
       <c r="B224" t="str">
         <v>尊敬的.*贵宾您好，为感谢贵宾客户对广发银行的支持，我行将在众多贵宾客户中随机抽选部分客户，免费赠送高端体检－基因检测，基因检测是我行为回馈贵宾客户，私人定制的高端服务。通过高科技医疗手段帮您全方位检测自己的身体，作到有备无患，健康一生。这是我行重磅推出的贵宾专属服务，名额稀缺，数量有限，并且现场还有贵宾专享利益回馈。祝您好运！收到请回复，谢谢！-广发银行.*</v>
       </c>
+      <c r="C224" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D224" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -2191,6 +3367,9 @@
       <c r="B225" t="str">
         <v>你好，我们是成都零点三四有限公司感谢您对于我们元旦活动的支持记得涂色过后一定要上传到我们公众号上哦！退订回TD</v>
       </c>
+      <c r="C225" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -2199,6 +3378,12 @@
       <c r="B226" t="str">
         <v>您寄往.*的物品已被拒收，请尽快凭取回码.*取回物品。详询快递员.*</v>
       </c>
+      <c r="C226" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D226" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -2207,6 +3392,12 @@
       <c r="B227" t="str">
         <v>尊敬的耀顺金融用户，您好！您的VIP会员资格将于.+到期，请及时续费。感谢您对耀顺金融的支持！如有疑问，请致电.</v>
       </c>
+      <c r="C227" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D227" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -2215,6 +3406,12 @@
       <c r="B228" t="str">
         <v>您的订单已发货，订单号为{0,25}收货人为{0,10}收货地址为{0,25}请注意查收</v>
       </c>
+      <c r="C228" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D228" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -2223,6 +3420,12 @@
       <c r="B229" t="str">
         <v>您的验证码是.{0,10}，10分钟内有效。</v>
       </c>
+      <c r="C229" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D229" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -2231,6 +3434,12 @@
       <c r="B230" t="str">
         <v>您于.*存入的待寄出包裹，已被快递员.{0,10}接单，预计每日16:30点前入柜的快件当日可寄出。</v>
       </c>
+      <c r="C230" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D230" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -2239,6 +3448,12 @@
       <c r="B231" t="str">
         <v>亲，你寄往.*的包裹已经寄出。请通过易泊APP或微信“易泊时代”抽空完成支付。</v>
       </c>
+      <c r="C231" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D231" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -2247,6 +3462,9 @@
       <c r="B232" t="str">
         <v>尊敬的大众车主，年终4S店保养8折优惠仅限4天http://t.cn/RI8LrAs登录京东页面选购。退订回TD</v>
       </c>
+      <c r="C232" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -2255,6 +3473,12 @@
       <c r="B233" t="str">
         <v>尊敬的会员，我要我要APP己在12月26日全新改版上线，欢迎您点击下载新版本，下载地址：http://a.app.qq.com/o/simple.jsp?pkgname=com.zjtd.iwant#opened，客服电话：4000415151</v>
       </c>
+      <c r="C233" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D233" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -2263,6 +3487,12 @@
       <c r="B234" t="str">
         <v>火锅季·买肉免费赠送多款配菜，即日起至31日购买元旦火锅套餐，丰盛菜品人均消费低至21元，暖心火锅套餐，限量抢购！</v>
       </c>
+      <c r="C234" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D234" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -2271,6 +3501,12 @@
       <c r="B235" t="str">
         <v>亲爱的小玩家，您参加的.*通知：请于.{0,10}在.{0,20}集合签到，活动将于.{0,20}正式开始。联系电话.{0,20}</v>
       </c>
+      <c r="C235" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D235" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -2279,6 +3515,12 @@
       <c r="B236" t="str">
         <v>亲爱的小玩家，您于.{0,30}购买的.*已过期无效，特价商品恕不接受退款申请哦。立即添加微信号.{0,30}即可免费获取私人专享客户服务。</v>
       </c>
+      <c r="C236" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D236" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -2287,6 +3529,12 @@
       <c r="B237" t="str">
         <v>肛肠分会通知：2017年学术年会定于2017年10月20-22日在杭州召开。现面向全国肛肠领域广泛征稿并受理医博杯各奖项申请，敬请关注</v>
       </c>
+      <c r="C237" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D237" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -2295,6 +3543,12 @@
       <c r="B238" t="str">
         <v>尊敬的园长您好：现邀请您参加由萌爱教育主办的幼儿体适能优质课观摩及体验交流会。时间：2017年1月5日8：30—16：30.地点：大坪白云宾馆会议中心。活动内容：幼儿足球，篮球，跳绳等户外体育课程的观摩及体验。每所幼儿园限2个免费名额。联系人：18696798785（李）</v>
       </c>
+      <c r="C238" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D238" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -2303,6 +3557,12 @@
       <c r="B239" t="str">
         <v>.+你名下的\d+.\d+元借款,已逾期\d+天,请尽快登录APP还款,良好的还款习惯有助于提高信用记录</v>
       </c>
+      <c r="C239" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D239" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -2311,6 +3571,12 @@
       <c r="B240" t="str">
         <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
       </c>
+      <c r="C240" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D240" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -2319,6 +3585,9 @@
       <c r="B241" t="str">
         <v>测试模板是否有效，\d+退订回TD</v>
       </c>
+      <c r="C241" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -2327,6 +3596,12 @@
       <c r="B242" t="str">
         <v>亲爱的小玩家，您已取消参加.*退款审核后，款项将于3-5个工作日内退回至原支付账户。立即添加微信号.{0,20}即可免费获取私人专享客户服务。</v>
       </c>
+      <c r="C242" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D242" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -2335,6 +3610,12 @@
       <c r="B243" t="str">
         <v>亲爱的小玩家，您参加的.*通知：集合时间为.{0,32}提前10分钟签到，请在.*找遛娃师集合签到，遛娃师电话.{0,16}</v>
       </c>
+      <c r="C243" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D243" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -2343,6 +3624,9 @@
       <c r="B244" t="str">
         <v>测试模板是否有效，日期.{0,12}退订回TD</v>
       </c>
+      <c r="C244" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -2351,6 +3635,12 @@
       <c r="B245" t="str">
         <v>尊敬的用户，您的短信验证码为：\d{2,8}，请在30分钟内填写。</v>
       </c>
+      <c r="C245" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D245" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -2359,6 +3649,12 @@
       <c r="B246" t="str">
         <v>您好，您的验证码是：\d+</v>
       </c>
+      <c r="C246" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D246" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -2367,6 +3663,12 @@
       <c r="B247" t="str">
         <v>您好，爆竹声中送旧，花开灿烂迎新，16年落下了帷幕，很高兴这一年内能与贵司结缘。或交流，或合作，或结识云云，在您身上学到很多为商为人之本，实属荣幸，希望未来的一年里，能与贵司同进共退，在您需要我们的地方永远的支持着您。祝公司如日方升，祝您一帆风顺。</v>
       </c>
+      <c r="C247" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D247" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -2375,6 +3677,9 @@
       <c r="B248" t="str">
         <v>.{0,10}寄件礼包已入账，关注微信公众号.*用易泊快递柜寄件.*退订.{0,10}</v>
       </c>
+      <c r="C248" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -2383,6 +3688,9 @@
       <c r="B249" t="str">
         <v>亲，Johnny}加了5人在Comehttp://dwz.cn/3xAR2K回复T退订退订回TD</v>
       </c>
+      <c r="C249" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -2391,6 +3699,9 @@
       <c r="B250" t="str">
         <v>你的2016是不是还有个关于“吃好”的心愿没完成.+再忙也要吃顿好的～退订回TD</v>
       </c>
+      <c r="C250" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -2399,6 +3710,9 @@
       <c r="B251" t="str">
         <v>.{0,10}尊敬的客户，您在.*出现异常，我方.{0,10}公司委托将在.*邮寄相关文书至您户籍所在地，请尽快处理.*退订.{0,10}</v>
       </c>
+      <c r="C251" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -2407,6 +3721,12 @@
       <c r="B252" t="str">
         <v>尊敬的会员，您订单尾号.*的退货申请已经收到，我们将会在1个工作日内进行审核，请保持手机畅通，耐心等待。</v>
       </c>
+      <c r="C252" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D252" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -2415,6 +3735,9 @@
       <c r="B253" t="str">
         <v>WiFi用户微信充值年底大促,最高返.*元,更有.*重大礼,活动最后.*天!关注公众号.*发现更多惊喜！退订回复TD</v>
       </c>
+      <c r="C253" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
@@ -2423,6 +3746,12 @@
       <c r="B254" t="str">
         <v>您好，您的验证码是.{0,10}验证码在.*分钟内有效，如不是本人操作，请忽略。</v>
       </c>
+      <c r="C254" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D254" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -2431,6 +3760,12 @@
       <c r="B255" t="str">
         <v>您好，您的注册验证码是.{0,10}</v>
       </c>
+      <c r="C255" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D255" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -2439,6 +3774,12 @@
       <c r="B256" t="str">
         <v>亲爱的付晓志，沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn/RIEYr2K退订回TD</v>
       </c>
+      <c r="C256" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D256" t="str">
+        <v>类别：73</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -2447,6 +3788,12 @@
       <c r="B257" t="str">
         <v>尊敬的会员，您尾号为.*的订单已生成，系统暂为您保留商品，请您在30分钟内完成支付，避免与您喜爱的商品擦肩而过喔。</v>
       </c>
+      <c r="C257" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D257" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -2455,6 +3802,9 @@
       <c r="B258" t="str">
         <v>亲爱的.+沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn.+退订回TD</v>
       </c>
+      <c r="C258" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -2463,6 +3813,9 @@
       <c r="B259" t="str">
         <v>降价啦！你爱吃的&lt;越南黑美人西瓜&gt;降价啦！肉质细嫩、味甜多汁，直降10元！今日仅19.9元t.cn/RIEFVaJ退订回TD</v>
       </c>
+      <c r="C259" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -2471,6 +3824,12 @@
       <c r="B260" t="str">
         <v>您好，配送中心有新的.+订单了，订单生成时间：.+</v>
       </c>
+      <c r="C260" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D260" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -2479,6 +3838,9 @@
       <c r="B261" t="str">
         <v>降价啦！你爱吃的.+降价啦！果径.+的南美甜心汁多味甜！今日仅.+元！t.cn/RIuYyni退订回TD</v>
       </c>
+      <c r="C261" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -2487,6 +3849,12 @@
       <c r="B262" t="str">
         <v>欢迎您成为胜益日用品初恋妮系列的成员（您的会员号为.*于最真诚的服务为你效劳，让初恋妮系列陪伴您、我、他幸富一生。</v>
       </c>
+      <c r="C262" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D262" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -2495,6 +3863,12 @@
       <c r="B263" t="str">
         <v>恭喜您获得信用钱包\d+\.?\d*元白条额度，绑定银行卡后就可以买买买啦，手机、无人机、平衡车，先消费后付款t.cn/Rf882N8</v>
       </c>
+      <c r="C263" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D263" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
@@ -2503,6 +3877,12 @@
       <c r="B264" t="str">
         <v>亲爱的.+家长，请带您的宝宝于.+接种.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
       </c>
+      <c r="C264" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D264" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
@@ -2511,6 +3891,12 @@
       <c r="B265" t="str">
         <v>亲爱的.+家长，您的小孩有.+漏种，请于.+到.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
       </c>
+      <c r="C265" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D265" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -2519,6 +3905,12 @@
       <c r="B266" t="str">
         <v>尊敬的嘉宾您好，感谢您报名参加我们农特微商年度大会，大会将于.*请提前查询确定抵达的交通方式。真诚期待您的到来！</v>
       </c>
+      <c r="C266" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D266" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
@@ -2527,6 +3919,9 @@
       <c r="B267" t="str">
         <v>微信任务上线啦！欢迎各位赚客来赚零花钱，微信公众号：zhoumo_la退订回TD</v>
       </c>
+      <c r="C267" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
@@ -2535,6 +3930,9 @@
       <c r="B268" t="str">
         <v>元旦大抽奖.投资活期理财可获抽奖机会,100%中奖哦~退订回TD</v>
       </c>
+      <c r="C268" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
@@ -2543,6 +3941,12 @@
       <c r="B269" t="str">
         <v>.{0,10}验证码.{0,10}您正在创建互惠中国账户，需要进行校验。验证码对账户和资金安全非常重要，切勿告知他人！</v>
       </c>
+      <c r="C269" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D269" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
@@ -2551,6 +3955,12 @@
       <c r="B270" t="str">
         <v>.{0,10}晨报.*昨日你的主营小区.*新增买家.*房东.3*赶紧打开兔博士，开始战斗吧！退订回复TD。</v>
       </c>
+      <c r="C270" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D270" t="str">
+        <v>类别：27</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
@@ -2559,6 +3969,12 @@
       <c r="B271" t="str">
         <v>用户.{0,15}，您已成功注册去买油APP，账号.+密码：.+</v>
       </c>
+      <c r="C271" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D271" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
@@ -2567,6 +3983,12 @@
       <c r="B272" t="str">
         <v>尊敬的店长,恭喜您于.*消费一笔.{0,10}元的订单,获得利润.{0,10}元。</v>
       </c>
+      <c r="C272" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D272" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
@@ -2575,6 +3997,12 @@
       <c r="B273" t="str">
         <v>亲，您于.*在进行实名认证的绑定，验证码是.{0,15}为了您的账号安全请勿泄漏！</v>
       </c>
+      <c r="C273" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D273" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
@@ -2583,6 +4011,9 @@
       <c r="B274" t="str">
         <v>尊敬的会员：跨年夜营业至零点，越夜越嗨！动物城萌势回归，消费满百得券抽钢琴.*退订回TD</v>
       </c>
+      <c r="C274" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
@@ -2591,6 +4022,12 @@
       <c r="B275" t="str">
         <v>元旦到了，淮南博士医院祝您：健康“胃”口好，心情“肠”愉快。事业“健”步飞，家庭“康”福绕。</v>
       </c>
+      <c r="C275" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D275" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
@@ -2599,6 +4036,12 @@
       <c r="B276" t="str">
         <v>跨年壕送，买两年会员就送1588元高级拉杆箱或1280元原汁机，壕送到1月2日哦http://dwz.cn/4WS6aq，退订回复TD退订回TD</v>
       </c>
+      <c r="C276" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D276" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
@@ -2607,6 +4050,9 @@
       <c r="B277" t="str">
         <v>辞旧迎新，钱袋金服红包加息产品好礼大派送！活动时间.{0,15}详见www.qiandai-china.com.*退订回TD</v>
       </c>
+      <c r="C277" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
@@ -2615,6 +4061,9 @@
       <c r="B278" t="str">
         <v>.*新年快乐.*疯狂抢购.*新品低至.*购物刮奖赢.*等新年好礼。退订回TD</v>
       </c>
+      <c r="C278" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
@@ -2623,6 +4072,12 @@
       <c r="B279" t="str">
         <v>亲，恭喜您于.*成功获得了花啦授信，额度为.{0,15}元，快去愉快的购物吧！</v>
       </c>
+      <c r="C279" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D279" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
@@ -2631,6 +4086,12 @@
       <c r="B280" t="str">
         <v>.{0,15}.{0,20}工作人员不会向您索要,请勿向任何人泄露</v>
       </c>
+      <c r="C280" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D280" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
@@ -2639,6 +4100,12 @@
       <c r="B281" t="str">
         <v>.{0,35}工作人员不会向您索要,请勿向任何人泄露";</v>
       </c>
+      <c r="C281" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D281" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
@@ -2647,6 +4114,12 @@
       <c r="B282" t="str">
         <v>有一个新的项目需要审核。</v>
       </c>
+      <c r="C282" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D282" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
@@ -2655,6 +4128,12 @@
       <c r="B283" t="str">
         <v>.{0,10}尊敬的客户.*我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.*请你尽快还款！</v>
       </c>
+      <c r="C283" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D283" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
@@ -2663,6 +4142,9 @@
       <c r="B284" t="str">
         <v>2016最后一天，我想陪你一起过。你爱吃的东西都在这儿了.+别问为什么，我就是忍不住想对你好～退订回TD</v>
       </c>
+      <c r="C284" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
@@ -2671,6 +4153,9 @@
       <c r="B285" t="str">
         <v>年终抄底，仅限元旦，沁园.+元.+元，星月三号.+元。咨询：18193927932退订回TD</v>
       </c>
+      <c r="C285" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
@@ -2679,6 +4164,12 @@
       <c r="B286" t="str">
         <v>您成功投资项目.*投资金额.*预计回款时间.*到期自动回款至您的存钱罐。</v>
       </c>
+      <c r="C286" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D286" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
@@ -2687,6 +4178,12 @@
       <c r="B287" t="str">
         <v>您好.*的安全员证书已寄出，申通.*请注意查收。</v>
       </c>
+      <c r="C287" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D287" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
@@ -2695,6 +4192,12 @@
       <c r="B288" t="str">
         <v>您的验证码是：123</v>
       </c>
+      <c r="C288" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D288" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
@@ -2703,6 +4206,12 @@
       <c r="B289" t="str">
         <v>您好，您的机器故障已派服务工程师.{0,28}电话指导，请您保持电话畅通，感谢您使用星邦机器。</v>
       </c>
+      <c r="C289" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D289" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
@@ -2711,6 +4220,12 @@
       <c r="B290" t="str">
         <v>客户报修，.*收货方.*LTD，.{0,28}，.{0,28}，请速处理！</v>
       </c>
+      <c r="C290" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D290" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -2719,6 +4234,12 @@
       <c r="B291" t="str">
         <v>PTP金融风控提现，有新的贷款申请，需您授权审批，请在1分钟内完成，谢谢支持！</v>
       </c>
+      <c r="C291" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D291" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
@@ -2727,6 +4248,12 @@
       <c r="B292" t="str">
         <v>会员.*刚才.*操作,请登陆平台审查。</v>
       </c>
+      <c r="C292" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D292" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
@@ -2735,6 +4262,12 @@
       <c r="B293" t="str">
         <v>尊敬的#.{2,4}#用户本次咨询已付费完毕，请您打开APP尽快回复患者问题。详询：\d+-\d+。感谢您的辛勤劳动，祝工作顺利！</v>
       </c>
+      <c r="C293" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D293" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
@@ -2743,6 +4276,12 @@
       <c r="B294" t="str">
         <v>您在.*上的预约已经得到了商家的确认，请记得准时联系预约的商家哟！</v>
       </c>
+      <c r="C294" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D294" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -2751,6 +4290,12 @@
       <c r="B295" t="str">
         <v>您绑定手机的验证码是\#?\w+\#?。如非本人操作，请忽略本短信</v>
       </c>
+      <c r="C295" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D295" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
@@ -2758,6 +4303,12 @@
       </c>
       <c r="B296" t="str">
         <v>尊敬的客户.+将至,祝您节日快乐,生意兴隆!如需要了解ERP软件问题,欢迎来电,随时恭候!</v>
+      </c>
+      <c r="C296" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D296" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="297">
@@ -2767,6 +4318,9 @@
       <c r="B297" t="str">
         <v>亲爱的.+进行流感疫苗接种，将感染流感及呼吸道疾病的风险降到最低.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松。回TD退订</v>
       </c>
+      <c r="C297" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
@@ -2775,6 +4329,9 @@
       <c r="B298" t="str">
         <v>亲，Honsun.{2,15}发布了新动态http://dwz.cn/\w+回复T退订</v>
       </c>
+      <c r="C298" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
@@ -2783,6 +4340,9 @@
       <c r="B299" t="str">
         <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
       </c>
+      <c r="C299" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
@@ -2791,6 +4351,12 @@
       <c r="B300" t="str">
         <v>您好！您的\d*元加油卡充值订单由于\（中石油/中石化\）系统问题暂时无法完成，您的充值金额\d*将在\d+-\d+个工作日内退还到您的支付账户，请注意查收，如有疑问请致电客服。</v>
       </c>
+      <c r="C300" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D300" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -2799,6 +4365,12 @@
       <c r="B301" t="str">
         <v>.*由于之前系统升级，您所办理的农行分期支付业务无法扣款成功，现公司将于.*重新对您的银行卡进行扣款。请确保卡上有足够的费用进行支付，如无法扣款成功，将.*开始收取滞纳金。如有疑问，请联系客服电话：\d*</v>
       </c>
+      <c r="C301" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D301" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
@@ -2807,6 +4379,12 @@
       <c r="B302" t="str">
         <v>域名.+出现异常情况！</v>
       </c>
+      <c r="C302" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D302" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -2815,6 +4393,12 @@
       <c r="B303" t="str">
         <v>尊敬的.+请登录"优兔APP"查看详情。建议您把"优兔APP"图标放在手机首页，保持在线，不要错过每一条订单信息。</v>
       </c>
+      <c r="C303" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D303" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
@@ -2823,6 +4407,12 @@
       <c r="B304" t="str">
         <v>尊敬的会员您好,您的.*订单已经匹配，请进入网站及时操作，得邦理财与您一同成长。</v>
       </c>
+      <c r="C304" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D304" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
@@ -2831,6 +4421,12 @@
       <c r="B305" t="str">
         <v>您获得的是.*兑奖码.*兑奖地址：丰台区榴乡路88号石榴中心斯坦福广场</v>
       </c>
+      <c r="C305" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D305" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
@@ -2839,6 +4435,12 @@
       <c r="B306" t="str">
         <v>已有学员.*邀约您，请到营销大咖-&gt;个人中心进行查看。</v>
       </c>
+      <c r="C306" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D306" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
@@ -2846,6 +4448,12 @@
       </c>
       <c r="B307" t="str">
         <v>统一用户中心账号开通通知.+请注意跟进。</v>
+      </c>
+      <c r="C307" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D307" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="308">
@@ -2855,6 +4463,9 @@
       <c r="B308" t="str">
         <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹.+最后1天咯！再送.+退订回TD</v>
       </c>
+      <c r="C308" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
@@ -2863,6 +4474,9 @@
       <c r="B309" t="str">
         <v>尊敬的客户您好，为了防止个别用户恶意套现,充值成功未投资进行提现的将扣取20%的手续费，系统已撤回申请，如确定需要提现请重新申请，有其他问题可以联系在线客服！退订回TD</v>
       </c>
+      <c r="C309" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
@@ -2871,6 +4485,9 @@
       <c r="B310" t="str">
         <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹、限时14.9元／4盒！最后1天咯！退订回TD</v>
       </c>
+      <c r="C310" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
@@ -2879,6 +4496,9 @@
       <c r="B311" t="str">
         <v>恭喜您获得.{2,20}现金劵，劵码是：.{2,20}，请在APP商城下单付款时直接提供给客服抵用（不可用于活动商品）。感谢您的支持与厚爱，兄弟翡翠祝您：身体健康！万事如意！退订回复TD</v>
       </c>
+      <c r="C311" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
@@ -2887,6 +4507,12 @@
       <c r="B312" t="str">
         <v>尊敬的客户:.{2,10},您好!您预约的.{2,100}已发货,快递单号:.{2,50},请您保持电话畅通。</v>
       </c>
+      <c r="C312" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D312" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
@@ -2895,6 +4521,12 @@
       <c r="B313" t="str">
         <v>尊敬的.+你好：本次系统于.+收到你关系信件编号为.+的来信，本系统已将反映的问题转至.+部门处理，特此通知</v>
       </c>
+      <c r="C313" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D313" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
@@ -2903,6 +4535,12 @@
       <c r="B314" t="str">
         <v>我的班级我做主,券号.+请妥善保管此短信，用于报名优惠验证！</v>
       </c>
+      <c r="C314" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D314" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
@@ -2911,6 +4549,12 @@
       <c r="B315" t="str">
         <v>尊贵的会员您好，抱歉的通知您持有的.+由于在平台被购买，须要进行召回，为了表示歉意，我们将赠送您一次表带更换或手表养护服务。召回日期.+详询：4008505011。由此给您造成的不便请您谅解，并感谢您的理解与支持。</v>
       </c>
+      <c r="C315" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D315" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
@@ -2919,6 +4563,12 @@
       <c r="B316" t="str">
         <v>您的视频定制已经完成。点击查询下载链接\w+</v>
       </c>
+      <c r="C316" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D316" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
@@ -2926,6 +4576,12 @@
       </c>
       <c r="B317" t="str">
         <v>尊贵的.+验证资金.+元已转入尾号为.+银行信用卡上,现余额为.+请与担保公司联系,祝您生活愉快!</v>
+      </c>
+      <c r="C317" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D317" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="318">
@@ -2935,6 +4591,9 @@
       <c r="B318" t="str">
         <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
       </c>
+      <c r="C318" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
@@ -2943,6 +4602,12 @@
       <c r="B319" t="str">
         <v>.{2,6}您好:您的订单号.+被确认,请尽快付费,客服电话.+</v>
       </c>
+      <c r="C319" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D319" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -2951,6 +4616,12 @@
       <c r="B320" t="str">
         <v>.{0,8}之前到.{0,15}取件.{0,8}</v>
       </c>
+      <c r="C320" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D320" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
@@ -2959,6 +4630,9 @@
       <c r="B321" t="str">
         <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
       </c>
+      <c r="C321" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
@@ -2975,6 +4649,9 @@
       <c r="B323" t="str">
         <v>哇，这一口满满的胶原蛋白→回家吃饭鸡翅根，鲜嫩可口、供港品质、吃的安心，第二件1元！再送&lt;神秘优惠券&gt;！退订回TD</v>
       </c>
+      <c r="C323" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -2982,6 +4659,12 @@
       </c>
       <c r="B324" t="str">
         <v>尊敬的\#\w{8}\#，您好。您所投债权转让标\#\w{5}#\已流标，所投资金已经回退到您的账户，请您查收确认。</v>
+      </c>
+      <c r="C324" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D324" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="325">
@@ -2991,6 +4674,12 @@
       <c r="B325" t="str">
         <v>.*驳回了您的@申请，请注意查看。</v>
       </c>
+      <c r="C325" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D325" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
@@ -2999,6 +4688,12 @@
       <c r="B326" t="str">
         <v>.*您好.*星科启迪之星创业营开营，请准时参加，0536-8211788.*</v>
       </c>
+      <c r="C326" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D326" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
@@ -3007,6 +4702,12 @@
       <c r="B327" t="str">
         <v>.+您好，请及时处理.+谢谢！</v>
       </c>
+      <c r="C327" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D327" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
@@ -3015,6 +4716,12 @@
       <c r="B328" t="str">
         <v>.*尊敬的客户您好，您的订单号.*如需帮助请联系在线客服，本消息无须回复.*</v>
       </c>
+      <c r="C328" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D328" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
@@ -3023,6 +4730,12 @@
       <c r="B329" t="str">
         <v>秩幽私人影院提醒您，于.+开始计时，祝您观影愉快</v>
       </c>
+      <c r="C329" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D329" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
@@ -3030,6 +4743,12 @@
       </c>
       <c r="B330" t="str">
         <v>尊敬的客户.*我公司将于.*放假.*天,ERP如有问题请提前联系我们处理,假期不便及时处理问题,请见谅!</v>
+      </c>
+      <c r="C330" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D330" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="331">
@@ -3039,6 +4758,9 @@
       <c r="B331" t="str">
         <v>0添加，叫我怎么不纯粹？蒙牛纯甄酸牛奶，味道像小时候一样纯真。4盒仅16.9元再送4折券！t.cn/RMoSfUh退订回TD</v>
       </c>
+      <c r="C331" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
@@ -3047,6 +4769,12 @@
       <c r="B332" t="str">
         <v>.{0,10}尊敬的简易用户，您的验证为.{0,10}此验证码将会在5分钟内过期，谢谢您的支持！</v>
       </c>
+      <c r="C332" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D332" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
@@ -3055,6 +4783,12 @@
       <c r="B333" t="str">
         <v>您的订单WD.+已上车，司机：.{2,10}，电话：\d+。详情\w+</v>
       </c>
+      <c r="C333" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D333" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
@@ -3063,6 +4797,12 @@
       <c r="B334" t="str">
         <v>.*尊敬的客户，您申办的加油卡已邮寄，卡号为.*邮递单号.*初始密码.*请注意查收,收到卡以后您可以去任一中国石油加油站修改密码，感谢您的支持.*</v>
       </c>
+      <c r="C334" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D334" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
@@ -3071,6 +4811,12 @@
       <c r="B335" t="str">
         <v>您申报的项目未通过审核</v>
       </c>
+      <c r="C335" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D335" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
@@ -3078,6 +4824,12 @@
       </c>
       <c r="B336" t="str">
         <v>尊敬的用户您好，恭喜您参加.+祈福小游戏获得水灯一盏。现诚邀您参加大鹏中秋水灯祈福夜活动，免费领取水灯。水灯领奖方式.+晚17:30分，大鹏东山寺天王殿凭姓名及联系方式即可领取。</v>
+      </c>
+      <c r="C336" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D336" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="337">
@@ -3087,6 +4839,12 @@
       <c r="B337" t="str">
         <v>中秋送福利啦.+马上拥有自己的网店，客服微信.+退订回复TD</v>
       </c>
+      <c r="C337" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D337" t="str">
+        <v>类别：15</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
@@ -3095,6 +4853,9 @@
       <c r="B338" t="str">
         <v>尊敬的用户您好，您已成功盲订上汽大通.+马上分享给好友满三人盲订您可以再获\d+元优惠券（个人中心查询）。关注微信“我行MAXUS”享受更多权益。如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
+      <c r="C338" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
@@ -3103,6 +4864,12 @@
       <c r="B339" t="str">
         <v>尊敬的客户：您好！您通过“天水e金融”申请的预约取现业务未通过审核，详情请咨询网点受理电话.+</v>
       </c>
+      <c r="C339" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D339" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
@@ -3111,6 +4878,12 @@
       <c r="B340" t="str">
         <v>.*您有新的业务办理申请，申请.*手机号.*申请业务.*请您及时处理.*</v>
       </c>
+      <c r="C340" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D340" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
@@ -3119,6 +4892,12 @@
       <c r="B341" t="str">
         <v>Salloisournewproduct,Recharge.+Visitt.cn/RcOeWpy</v>
       </c>
+      <c r="C341" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D341" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
@@ -3126,6 +4905,12 @@
       </c>
       <c r="B342" t="str">
         <v>您在.+的商城有用户取消了订单，请登录.+查看详情.+www.tcsoo.com</v>
+      </c>
+      <c r="C342" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D342" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="343">
@@ -3135,6 +4920,12 @@
       <c r="B343" t="str">
         <v>尊敬的用户：您申请的律生活平台账号已注册成功！账号为您的手机号，初始密码为.{2,20}。请勿将初始密码提供给他人导致账号被盗。您有任何问题或疑问都可登入www.law-cloud.com.cn或拨打热线电话4007-167-956，我们将竭力为您服务。感谢您对律生活的信任与支持！</v>
       </c>
+      <c r="C343" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D343" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
@@ -3143,6 +4934,12 @@
       <c r="B344" t="str">
         <v>您有流程编号为.+需要您登录平台进行审核！</v>
       </c>
+      <c r="C344" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D344" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
@@ -3150,6 +4947,12 @@
       </c>
       <c r="B345" t="str">
         <v>您已购票成功.+开车前凭购票证件原件在火车站或代售点取票。</v>
+      </c>
+      <c r="C345" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D345" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="346">
@@ -3159,6 +4962,9 @@
       <c r="B346" t="str">
         <v>开幕式明天7:20开始，精英组10:30鸣枪，请提前到场热身。另由于明天封路，请注意仅能沿西江路-静兰桥底入场。退订回TD</v>
       </c>
+      <c r="C346" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
@@ -3167,6 +4973,12 @@
       <c r="B347" t="str">
         <v>请于.*前将.*开到.*等候，目的地.*用车人.*联系电话.*</v>
       </c>
+      <c r="C347" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D347" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
@@ -3175,6 +4987,9 @@
       <c r="B348" t="str">
         <v>尊敬的老师、学长：求是缘半导体联盟2016年会和首届招聘会.+将于.+召开。敬请您准时参加，顺祝安好。回T退订</v>
       </c>
+      <c r="C348" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
@@ -3183,6 +4998,12 @@
       <c r="B349" t="str">
         <v>Failtopurchase,pleasetryagain.</v>
       </c>
+      <c r="C349" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D349" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
@@ -3191,6 +5012,12 @@
       <c r="B350" t="str">
         <v>此验证码只用于登录您的账户，验证码提供给他人将导致账户被盗。验证码：\#\w{4}\#，请勿转发。</v>
       </c>
+      <c r="C350" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D350" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
@@ -3199,6 +5026,12 @@
       <c r="B351" t="str">
         <v>系统.*触发规则.*关键词.*请登录告警系统查看。</v>
       </c>
+      <c r="C351" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D351" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
@@ -3207,6 +5040,12 @@
       <c r="B352" t="str">
         <v>用车订单成功，车牌.+司机.+电话.+车辆将开到约定位置。\(如有变更，另行通知\)</v>
       </c>
+      <c r="C352" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D352" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
@@ -3215,6 +5054,9 @@
       <c r="B353" t="str">
         <v>聚合数据送你.*打开微信，搜索“聚合数据”或“juhe_cn”，关注微信号，回复关键字.*即可领取。退订回T</v>
       </c>
+      <c r="C353" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
@@ -3222,6 +5064,12 @@
       </c>
       <c r="B354" t="str">
         <v>您的快递已.*即将发往中转站。</v>
+      </c>
+      <c r="C354" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D354" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="355">
@@ -3231,6 +5079,9 @@
       <c r="B355" t="str">
         <v>您好，您已完成此次处方取药，感谢您的使用，祝您早日康复！退订回TD</v>
       </c>
+      <c r="C355" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
@@ -3239,6 +5090,9 @@
       <c r="B356" t="str">
         <v>哇，这一口满满的胶原蛋白→鸡翅根第二件1元！鲜嫩可口、供港品质、让你吃的安心。t.cn/RM9iaJ8退订回TD</v>
       </c>
+      <c r="C356" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
@@ -3247,6 +5101,12 @@
       <c r="B357" t="str">
         <v>您的搜客宝免费账户已激活，账号为.*免费搜索。网址为：skb.91jierong.com。如有疑问或需要帮助，请随时联系.*祝您生活愉快.{0,8}</v>
       </c>
+      <c r="C357" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D357" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
@@ -3255,6 +5115,12 @@
       <c r="B358" t="str">
         <v>提醒：您的订单已被购买，请您主动联系客服，并添加为好友交易。登陆平台-我是卖家-我的订单管理-点击已支付</v>
       </c>
+      <c r="C358" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D358" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
@@ -3263,6 +5129,12 @@
       <c r="B359" t="str">
         <v>您的维修商.+详情请登陆智屏联盟微信公众号个人中心进行查看。</v>
       </c>
+      <c r="C359" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D359" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
@@ -3271,6 +5143,12 @@
       <c r="B360" t="str">
         <v>.*亲爱的学员朋友们大家好：接省交警总队通知.*之前报名的学员，请全部到千里马驾校服务大厅用高拍仪进行“面签”否则将无法办理预约、考试等业务。望各位相互转告，谢谢.*</v>
       </c>
+      <c r="C360" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D360" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
@@ -3279,6 +5157,12 @@
       <c r="B361" t="str">
         <v>恭喜您已经成功加入.+您可以访问微信服务号:heyheyim了解更多信息！</v>
       </c>
+      <c r="C361" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D361" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
@@ -3287,6 +5171,12 @@
       <c r="B362" t="str">
         <v>尊敬的.+您已加入无畏互助大病保障计划，灵山基金会已为您的健康充值.+按钮，查询个人的保障状态。</v>
       </c>
+      <c r="C362" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D362" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
@@ -3295,6 +5185,12 @@
       <c r="B363" t="str">
         <v>.*您的手机验证码为：\d*，如非本人操作，请忽略此短信。详情请关注智屏联盟微信公众号或拨打官方热线：4000-275-725。</v>
       </c>
+      <c r="C363" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D363" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
@@ -3303,6 +5199,12 @@
       <c r="B364" t="str">
         <v>亲爱的.+祝您和家人平安、健康、幸福，端午节快乐无限！一分耕耘一分收获，智富感谢有你！</v>
       </c>
+      <c r="C364" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D364" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
@@ -3310,6 +5212,12 @@
       </c>
       <c r="B365" t="str">
         <v>亲,尊贵的.*您购买的商品已发出,记得查收哦~</v>
+      </c>
+      <c r="C365" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D365" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="366">
@@ -3319,6 +5227,9 @@
       <c r="B366" t="str">
         <v>中时通会员朋友们您好，年底最后一次优惠通知，仅此一次，中时通李小颖18005316593,退订回复T。</v>
       </c>
+      <c r="C366" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
@@ -3327,6 +5238,9 @@
       <c r="B367" t="str">
         <v>您的简历已推荐给大自然地板，若您收到该企业来电，请说明该信息经由93招聘网获知-jm.93zp.com回复TD退订</v>
       </c>
+      <c r="C367" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
@@ -3335,6 +5249,12 @@
       <c r="B368" t="str">
         <v>.*您在闲得网还有昨日任务未确认放款，请务必于.*确认完毕，以免因买家未及时收到返款而产生退货，谢谢.*</v>
       </c>
+      <c r="C368" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D368" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
@@ -3343,6 +5263,12 @@
       <c r="B369" t="str">
         <v>尊敬的客户，您好！恭喜您在转盘抽奖活动中获得.*请查收您的话费充值提示短信。</v>
       </c>
+      <c r="C369" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D369" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
@@ -3351,6 +5277,12 @@
       <c r="B370" t="str">
         <v>.*恭喜您已成功报名.*瑜伽节.*请携带个人身份证前往乐山邦泰国际社区营销中心，进行身份认证并领取活动参与券，因活动参与券数量有限，前100位成功认证粉丝将获得参与券，先到先得，发完为止，敬请悉知。</v>
       </c>
+      <c r="C370" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D370" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
@@ -3359,6 +5291,12 @@
       <c r="B371" t="str">
         <v>亲爱的.{1,10}您已发起申请提现.+元。如非本人操作，请尽快联系我们</v>
       </c>
+      <c r="C371" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D371" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
@@ -3367,6 +5305,12 @@
       <c r="B372" t="str">
         <v>.+您的订单\（编号.+已经发货.+请保持通知畅通，注意查收。发货时间.{1,15}</v>
       </c>
+      <c r="C372" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D372" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
@@ -3375,6 +5319,12 @@
       <c r="B373" t="str">
         <v>尊敬.*您的投标.*已完成第.*期还款，请关注您的账户资金变化。</v>
       </c>
+      <c r="C373" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D373" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
@@ -3383,6 +5333,12 @@
       <c r="B374" t="str">
         <v>您的订单.+的退款申请正在处理中，我们会尽快处理您的申请，并第一时间反馈退款结果！</v>
       </c>
+      <c r="C374" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D374" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
@@ -3391,6 +5347,12 @@
       <c r="B375" t="str">
         <v>感谢您推荐朋友与伙伴使用新蓝景产品，您的推荐奖励未能验证通过；请核对后重新输入。重要提示：关注新蓝景二维码，获取更多相关信息！</v>
       </c>
+      <c r="C375" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D375" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
@@ -3399,6 +5361,12 @@
       <c r="B376" t="str">
         <v>您好,您本月物业费已出。物业费金额.*请尽快缴纳，如有疑问，请咨询.{0,11}</v>
       </c>
+      <c r="C376" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D376" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
@@ -3406,6 +5374,9 @@
       </c>
       <c r="B377" t="str">
         <v>同城货运，嘟嘟快运。http://dwz.cn/.{1,8}欢迎下载嘟嘟快运APP，拉货搬家，安全省心！回T退订</v>
+      </c>
+      <c r="C377" t="str">
+        <v>normal</v>
       </c>
     </row>
     <row r="378">
@@ -3423,6 +5394,9 @@
       <c r="B379" t="str">
         <v>亲爱的COCOK会员.*根据您的COCOK会员卡使用活跃度，本司现积分回馈赠送您\d*元的消费额度，可直接当现金使用消费，有效期至\d*-\d*-\d*。地址：广州越秀区沿江中路199号天字广场。详情请咨询：020-83302588，回T退订</v>
       </c>
+      <c r="C379" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
@@ -3431,6 +5405,9 @@
       <c r="B380" t="str">
         <v>.*太湖泳池派对，畅游无限，畅享美食。现在预约更有神秘大奖http://t.cn/Rt8VWzS回T退订</v>
       </c>
+      <c r="C380" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
@@ -3439,6 +5416,9 @@
       <c r="B381" t="str">
         <v>春节茶礼限量抢购，市场价998元的正宗武夷山金骏眉礼盒，茶农直销价仅198元，限100份t.cn/RMzrlOW.退订回TD</v>
       </c>
+      <c r="C381" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
@@ -3447,6 +5427,9 @@
       <c r="B382" t="str">
         <v>联帮劳务网是建筑劳务行业综合资源库，找工人、找活干、找材料设备，请微信搜索“联帮劳务网”或输入www.lblww.com注册。退订回TD</v>
       </c>
+      <c r="C382" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
@@ -3455,6 +5438,12 @@
       <c r="B383" t="str">
         <v>您的快速登陆验证码为.{0,10}</v>
       </c>
+      <c r="C383" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D383" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
@@ -3463,6 +5452,12 @@
       <c r="B384" t="str">
         <v>12为您的验证码，30分钟内有效！</v>
       </c>
+      <c r="C384" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D384" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
@@ -3471,6 +5466,12 @@
       <c r="B385" t="str">
         <v>用户您好，您的白条分期订单本期已还款成功。关注信用钱包白条商城，更多优惠等着您t.cn/\w+</v>
       </c>
+      <c r="C385" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D385" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
@@ -3479,6 +5480,12 @@
       <c r="B386" t="str">
         <v>尊敬的客户您好，您正在发起消费信用借款申请，您的验证码为.{0,8}，如非本人操作请联系客服人员。</v>
       </c>
+      <c r="C386" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D386" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
@@ -3487,6 +5494,12 @@
       <c r="B387" t="str">
         <v>尊敬的{12}:1月5日北京饭店微商服务者大会（白天+晚宴）,入场验证:{12},妥善保管,请勿泄露.</v>
       </c>
+      <c r="C387" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D387" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
@@ -3495,6 +5508,12 @@
       <c r="B388" t="str">
         <v>尊敬的.*您确认申请后该款项将.*钟内未任何操作将视为您放弃本次申请.</v>
       </c>
+      <c r="C388" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D388" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
@@ -3503,6 +5522,12 @@
       <c r="B389" t="str">
         <v>恭喜您贷款审核通过,贷款金额:.{2,10}请前往微微贷官网查询.</v>
       </c>
+      <c r="C389" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D389" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
@@ -3511,6 +5536,12 @@
       <c r="B390" t="str">
         <v>尊敬的业主.+香港名城已开通开通智慧社区服务平台，请广大业主踊跃下载智慧社区随居APP，轻松一点、线上缴费。详情咨询物业客服电话.+</v>
       </c>
+      <c r="C390" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D390" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
@@ -3519,6 +5550,12 @@
       <c r="B391" t="str">
         <v>.*您的订单已提交成功.*我们将以最快的速度和您取得联系.*</v>
       </c>
+      <c r="C391" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D391" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
@@ -3527,6 +5564,12 @@
       <c r="B392" t="str">
         <v>尊敬的.+您已欠物业费及生活垃圾费共计.+元，请及时在随居APP上或到物业办公室缴纳费用，谢谢！如有任何疑问请致电.+</v>
       </c>
+      <c r="C392" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D392" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
@@ -3535,6 +5578,12 @@
       <c r="B393" t="str">
         <v>亲爱的驴迹会员.+您购买的.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+授权码为.+截止日期为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
       </c>
+      <c r="C393" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D393" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
@@ -3543,6 +5592,12 @@
       <c r="B394" t="str">
         <v>.*您已成功购买.*订单尾号.*请持兑换码.*到商家完成验证消费.*</v>
       </c>
+      <c r="C394" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D394" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
@@ -3551,6 +5606,12 @@
       <c r="B395" t="str">
         <v>亲爱的.+用户，您的订单号为.+入住时间.+离店时间.+该订单号未成功预定，预付款项将于7个工作日内原路退还。</v>
       </c>
+      <c r="C395" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D395" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
@@ -3558,6 +5619,12 @@
       </c>
       <c r="B396" t="str">
         <v>新达成交易的运单是：\w+，车牌号：.+，车长：.+货物类型：.+重量：.+体积：.+</v>
+      </c>
+      <c r="C396" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D396" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="397">
@@ -3567,6 +5634,9 @@
       <c r="B397" t="str">
         <v>聚合数据送你.*红包啦，打开微信，搜索“试金石”，关注微信号，回复关键字“test”即可领取。退订回T</v>
       </c>
+      <c r="C397" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
@@ -3575,6 +5645,9 @@
       <c r="B398" t="str">
         <v>恭喜您邀请的好友中有三位完成了盲订支付!\d*元优惠券已经放在您的账户中。登录我行.*平台，个人中心查看，我的代金券查询。如有疑问拨打400-081-2011。回复T退订。</v>
       </c>
+      <c r="C398" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
@@ -3583,6 +5656,9 @@
       <c r="B399" t="str">
         <v>淄博市总工会给大家送福利啦.+机不可失失不再来快拿起手机登录爱工惠APP查看吧。回T退订</v>
       </c>
+      <c r="C399" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
@@ -3591,6 +5667,9 @@
       <c r="B400" t="str">
         <v>尊敬的用户您好！您的上汽大通T60首发购车抵用券还未支付，限量抢购，即将结束。马上完成支付，成为划时代皮卡上汽大通T60的车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
+      <c r="C400" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
@@ -3599,6 +5678,9 @@
       <c r="B401" t="str">
         <v>.*我们青春无畏，同赴健康之约。灵山慈善基金会邀请您加入无畏互助大病保障计划，并已为您的健康充值.*点击“我的互助”，用手机号登录即可查询账户状态。回T退订。</v>
       </c>
+      <c r="C401" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
@@ -3607,6 +5689,9 @@
       <c r="B402" t="str">
         <v>您好！您盲订的.+还未支付，限时抢购，即将结束。马上完成支付，成为全球首款用户定义SUV车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
+      <c r="C402" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
@@ -3615,6 +5700,9 @@
       <c r="B403" t="str">
         <v>11月10日晚10点，红领巾“现货专区”全场抄底特价狂欢！详情请查看微信公众号“红领巾小助手”，回复T退订</v>
       </c>
+      <c r="C403" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
@@ -3623,6 +5711,12 @@
       <c r="B404" t="str">
         <v>用户您好，您已提现成功，将会在.{2,8}个工作日内收到借款。到信用钱包APPt.cn/Rf882N8激活白条，分期无忧购</v>
       </c>
+      <c r="C404" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D404" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
@@ -3631,6 +5725,12 @@
       <c r="B405" t="str">
         <v>您好，您有新订单，详情：.+</v>
       </c>
+      <c r="C405" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D405" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
@@ -3639,6 +5739,12 @@
       <c r="B406" t="str">
         <v>诚邀您参加.+详情请致电.+</v>
       </c>
+      <c r="C406" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D406" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
@@ -3647,6 +5753,12 @@
       <c r="B407" t="str">
         <v>您本次操作的验证码是\d+</v>
       </c>
+      <c r="C407" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D407" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
@@ -3655,6 +5767,9 @@
       <c r="B408" t="str">
         <v>您好！感谢您领取大全中秋月饼，如未收到月饼，也将于近期送到！请点击:http://t.cn/Rc5rSmt予以点评，谢谢您的支持！回T退订</v>
       </c>
+      <c r="C408" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
@@ -3663,6 +5778,12 @@
       <c r="B409" t="str">
         <v>您的进货订单已经发货，快递单号.+，请您注意查收！祝您在众成支商早日实现人生梦想！</v>
       </c>
+      <c r="C409" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D409" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
@@ -3670,6 +5791,12 @@
       </c>
       <c r="B410" t="str">
         <v>您的提现申请已经审核通过，已转账\d*\.?\d*元到您绑定的提现银行卡，请注意查收，到账时间由各银行的操作规定，一般为48小时内。</v>
+      </c>
+      <c r="C410" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D410" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="411">
@@ -3679,6 +5806,9 @@
       <c r="B411" t="str">
         <v>尊敬的会员客户，岁末将近，送礼送健康！特惠活动.+活动详情-http://37.qg37.com.+回复TD退订</v>
       </c>
+      <c r="C411" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
@@ -3687,6 +5817,12 @@
       <c r="B412" t="str">
         <v>尊敬的客户，今天是您的理财收益日。您通过我公司融汇通理财产品获得的收益款.{2,8}元，已为您准备好，请到万硕资本营业厅领取。祝您生活愉快！</v>
       </c>
+      <c r="C412" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D412" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
@@ -3695,6 +5831,12 @@
       <c r="B413" t="str">
         <v>.{1,8}，您好，提醒一下您.+元。因临近国庆假期，防止转账延迟，影响信用记录，请尽量于9月30日周五下班之前处理一下，祝您生活愉快。</v>
       </c>
+      <c r="C413" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D413" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
@@ -3703,6 +5845,12 @@
       <c r="B414" t="str">
         <v>亲爱的会员，您已成功加入圆圈圈，您的用户名密码.+请及时更改初始密码\），如有问题请及时通过在线客服或拨打客服热线400-0121-079与我们联系，愿圆圈圈成为您永远的朋友。</v>
       </c>
+      <c r="C414" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D414" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
@@ -3711,6 +5859,12 @@
       <c r="B415" t="str">
         <v>亲爱的驴迹会员.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
       </c>
+      <c r="C415" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D415" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
@@ -3719,6 +5873,12 @@
       <c r="B416" t="str">
         <v>亲爱的用户您好，您的爱车.+订购的每日一洗包月套餐服务即将到期,如要暂停服务或有任何疑惑请拨打热线：400-801-5560，祝您生活愉快~~</v>
       </c>
+      <c r="C416" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D416" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
@@ -3726,6 +5886,12 @@
       </c>
       <c r="B417" t="str">
         <v>您的优惠券本月底即将过期，现已将您的\d+张优惠券延长了一个月使用期限</v>
+      </c>
+      <c r="C417" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D417" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="418">
@@ -3735,6 +5901,9 @@
       <c r="B418" t="str">
         <v>尊敬的.+查看了.+职位，并已申请该职位，在线等待您回应-查看简历:http://.+回复TD退订</v>
       </c>
+      <c r="C418" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
@@ -3743,6 +5912,9 @@
       <c r="B419" t="str">
         <v>您的咨询码为\d*，湖南大型互联网企业与长沙理工大学合作，就业有保障。最后少量名额，咨询黄老师微信\d*退订回复N</v>
       </c>
+      <c r="C419" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
@@ -3751,6 +5923,12 @@
       <c r="B420" t="str">
         <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
       </c>
+      <c r="C420" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D420" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
@@ -3759,6 +5937,9 @@
       <c r="B421" t="str">
         <v>惊爆5折，“橙”心送礼.+进口澳橙仅售.+元/斤，进口南非橙只要.+元/斤哦。还等什么，速度来抢吧。回T退订</v>
       </c>
+      <c r="C421" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
@@ -3775,6 +5956,12 @@
       <c r="B423" t="str">
         <v>你订购的.*已成功付款，订单号为.*你可登录个人中心查看详情。</v>
       </c>
+      <c r="C423" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D423" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
@@ -3783,6 +5970,12 @@
       <c r="B424" t="str">
         <v>您是否同意把求职信发布到快点\d*，不同意请点击.+</v>
       </c>
+      <c r="C424" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D424" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
@@ -3791,6 +5984,12 @@
       <c r="B425" t="str">
         <v>豆乎小秘书提醒你：请你上传照片反馈产品使用感受，以便医肤师及时跟进。</v>
       </c>
+      <c r="C425" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D425" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
@@ -3799,6 +5998,12 @@
       <c r="B426" t="str">
         <v>.+请持身份证至.+办理，详询.+</v>
       </c>
+      <c r="C426" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D426" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
@@ -3807,6 +6012,12 @@
       <c r="B427" t="str">
         <v>您预约了.+时间于.+请耐心等待商家联系！商家联系电话.+</v>
       </c>
+      <c r="C427" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D427" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
@@ -3815,6 +6026,12 @@
       <c r="B428" t="str">
         <v>.*您的公众号消息月请求数已使用.*推荐您提升服务性能.*</v>
       </c>
+      <c r="C428" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D428" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
@@ -3823,6 +6040,12 @@
       <c r="B429" t="str">
         <v>您有一个新的.+订单，订单号.+请尽快确认是否可以接单。15分钟未确认接单，此单将重新分配给其他工商顾问。确认接单后请10分钟内联系客户。</v>
       </c>
+      <c r="C429" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D429" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
@@ -3831,6 +6054,12 @@
       <c r="B430" t="str">
         <v>尊敬的用户.+请及时查收。如有疑问请拨打官方客户电话进行咨询:400-6611-781，感谢您使用钱来钱往消费增值平台，祝您生活愉快！</v>
       </c>
+      <c r="C430" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D430" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
@@ -3839,6 +6068,12 @@
       <c r="B431" t="str">
         <v>亲爱的.{2,4}，新院地址为.{0,14}</v>
       </c>
+      <c r="C431" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D431" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
@@ -3847,6 +6082,12 @@
       <c r="B432" t="str">
         <v>尊敬的客户.+您的工单已派到.+收到产品后及时与施工店预约安装时间，有疑问请联系，4006558596，祝您生活愉快！</v>
       </c>
+      <c r="C432" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D432" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
@@ -3855,6 +6096,12 @@
       <c r="B433" t="str">
         <v>恭喜您.*个价值.*的资本亚元被.*挖走。资本亚元余额.*亚元账户余额.*</v>
       </c>
+      <c r="C433" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D433" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
@@ -3863,6 +6110,12 @@
       <c r="B434" t="str">
         <v>用户.+刚刚在本站注册，号码是.+。请及时提供新手指南，做好服务。</v>
       </c>
+      <c r="C434" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D434" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
@@ -3871,6 +6124,12 @@
       <c r="B435" t="str">
         <v>友情提醒:古北时尚会员你好，你于.+参加了古北时尚的自拍晒照赢大奖活动，并获得比赛名次.+服务台领取奖品。具体奖品及奖项请查看古北时尚微信公众号历史信息内.+发布的投票结果揭晓</v>
       </c>
+      <c r="C435" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D435" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
@@ -3879,6 +6138,12 @@
       <c r="B436" t="str">
         <v>尊敬的客户，由于运营商升级，您于.+的充值订单到账有所延误，对此我们表示歉意并将附赠小礼物，感谢您对本平台的支持！欢迎关注微信公众号：掌上流量通，祝您生活愉快！</v>
       </c>
+      <c r="C436" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D436" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
@@ -3886,6 +6151,12 @@
       </c>
       <c r="B437" t="str">
         <v>手机动态登录密码.{0,10}分钟后失效，请输入动态码认证后登录译鱼。请勿向任何人提供验证码，谨防诈骗。（如非本人操作请忽略）</v>
+      </c>
+      <c r="C437" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D437" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="438">
@@ -3895,6 +6166,12 @@
       <c r="B438" t="str">
         <v>.*数量有限售完即止</v>
       </c>
+      <c r="C438" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D438" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
@@ -3903,6 +6180,9 @@
       <c r="B439" t="str">
         <v>尊敬的.*省内最大城际拼车发布平台与万千拼友愿与您一起共享出行，搜索公众号.*即刻出发！回T退订</v>
       </c>
+      <c r="C439" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
@@ -3911,6 +6191,9 @@
       <c r="B440" t="str">
         <v>.+您好.+您有意合作可以直接登录客户端查找客户的相关信息进行合作，祝你们合作愉快！您的业务经理#.+回T退订</v>
       </c>
+      <c r="C440" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
@@ -3919,6 +6202,9 @@
       <c r="B441" t="str">
         <v>尊敬的团队负责人，_x0008_您好。报名升级已升级，请您登录官网查看公告，进行账号注册并进行报名信息关联。不便之处敬请谅解。回复TD退订</v>
       </c>
+      <c r="C441" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
@@ -3927,6 +6213,9 @@
       <c r="B442" t="str">
         <v>微信助力活动，搜索关注《青岛春妍坤雪》微信公众号，点击菜单.+参与微信助力活动！！！您的活动专属码为\d+，您可凭此码到店领取礼品一份！－回复T退订</v>
       </c>
+      <c r="C442" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
@@ -3935,6 +6224,12 @@
       <c r="B443" t="str">
         <v>您已成功支付订单.+温馨提示：买手即将为您抢购，请关注后续订单消息。请打开天天跟我买，在.+关注后续订单消息。</v>
       </c>
+      <c r="C443" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D443" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
@@ -3943,6 +6238,12 @@
       <c r="B444" t="str">
         <v>.+短信报警:Trigger:Processorloadistoohighonoesd-10-pdd-sh.prod.yiran.comHostName:oesd-10-pdd-sh.prod.yiran.comTime:10:28:51Triggerstatus:PROBLEMTriggerseverity:HighValue:system.cpu.load.+</v>
       </c>
+      <c r="C444" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D444" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
@@ -3951,6 +6252,12 @@
       <c r="B445" t="str">
         <v>您的货物.+已到达，请持身份证到.+提取.+</v>
       </c>
+      <c r="C445" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D445" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
@@ -3959,6 +6266,12 @@
       <c r="B446" t="str">
         <v>充值成功，您的号码：.{2,40}，余额为：.{0,20}</v>
       </c>
+      <c r="C446" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D446" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
@@ -3967,6 +6280,12 @@
       <c r="B447" t="str">
         <v>.{0,8}您好，您参加的.+活动已报名交款成功；请准时参加，并留意活动开始前领队的电话或短信通知。查看活动进度请关注公众号龙迹户外</v>
       </c>
+      <c r="C447" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D447" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
@@ -3975,6 +6294,12 @@
       <c r="B448" t="str">
         <v>欢迎使用科大智能充电桩，您的手机验证码是\d+。本条信息无需回复</v>
       </c>
+      <c r="C448" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D448" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
@@ -3983,6 +6308,12 @@
       <c r="B449" t="str">
         <v>.+您好，欢迎注册第十届全国医学类实验教学研讨会暨，国家级实验教学示范中心联席会医学组第十二次会议。验证码为\d+。有效期\d+分钟，请尽快验证</v>
       </c>
+      <c r="C449" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D449" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
@@ -3991,6 +6322,12 @@
       <c r="B450" t="str">
         <v>尊敬的#.+先生/女士，您申请的.+元贷款成功通过实名认证，系统会在24小时内，放款到您指定银行卡，请注意查收，谢谢！</v>
       </c>
+      <c r="C450" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D450" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
@@ -3999,6 +6336,12 @@
       <c r="B451" t="str">
         <v>注册成功！感谢加入babygaga大家庭，请牢记登录密码.*会员系统正在建设中，将带给您不一样的体验，请持续关注！</v>
       </c>
+      <c r="C451" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D451" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
@@ -4007,6 +6350,12 @@
       <c r="B452" t="str">
         <v>核名已通过，通过的名称为.+下一步为企业设立阶段，工商顾问已将所需要的资料上传到携创网。如需帮助，请.+</v>
       </c>
+      <c r="C452" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D452" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
@@ -4015,6 +6364,12 @@
       <c r="B453" t="str">
         <v>您今天还未打卡哦，还有.+分钟您就迟到啦！</v>
       </c>
+      <c r="C453" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D453" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
@@ -4023,6 +6378,12 @@
       <c r="B454" t="str">
         <v>.+您好，您的借款标.+马上就要到期，当期金额.+元，请保证账户资金，以备准时还款！</v>
       </c>
+      <c r="C454" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D454" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
@@ -4031,6 +6392,12 @@
       <c r="B455" t="str">
         <v>卡券.+剩余张数.+请及时更新.+</v>
       </c>
+      <c r="C455" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D455" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
@@ -4039,6 +6406,12 @@
       <c r="B456" t="str">
         <v>温馨提示您:针对于这个病情我已经和您做过详尽的沟通，您和家人好好考虑一下，如果有什么不清楚的问题或者确定好时间来院随时来电咨询！无论是咨询还是预约我们中医痿症专家组都会给您提供最周到的就医服务！地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）官方免费电话:010-51615853,官方公众微信号：dsmzlwz。不清楚您随时来电咨询。</v>
       </c>
+      <c r="C456" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D456" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
@@ -4047,6 +6420,12 @@
       <c r="B457" t="str">
         <v>您的验证码是\w+，请在页面提交验证码完成绑定，如非本人操作，请忽略本短信。</v>
       </c>
+      <c r="C457" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D457" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
@@ -4055,6 +6434,12 @@
       <c r="B458" t="str">
         <v>E县联服务号于.{0,15}时发起了提现金额为.{0,8}元提现,请注意;</v>
       </c>
+      <c r="C458" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D458" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
@@ -4062,6 +6447,12 @@
       </c>
       <c r="B459" t="str">
         <v>通知.+早上好，你已成功提交工单，谢谢</v>
+      </c>
+      <c r="C459" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D459" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="460">
@@ -4071,6 +6462,9 @@
       <c r="B460" t="str">
         <v>沧州娱乐送你2-200元红包啦，打开微信，搜索“沧州娱乐”或“cangzhouyule”，关注微信号，回复关键字“话费”即可领取。您领取成功！记得短信群发给好友！退订回T!</v>
       </c>
+      <c r="C460" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
@@ -4079,6 +6473,12 @@
       <c r="B461" t="str">
         <v>尊敬的COCOK会员，我公司根据您的会员卡积分情况，回馈赠送您#code#元的消费现金额度，欢迎到店直接使用或查询.*详情咨询\d+-\d+，回T退订</v>
       </c>
+      <c r="C461" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D461" t="str">
+        <v>类别 21</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
@@ -4087,6 +6487,12 @@
       <c r="B462" t="str">
         <v>.{0,28}您好，您已于.{0,28}日注册开通.{0,28}2017广东省少儿才艺.{0,28}官网账号。帐号.{0,28}初始登录密码.{0,28}</v>
       </c>
+      <c r="C462" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D462" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
@@ -4095,6 +6501,12 @@
       <c r="B463" t="str">
         <v>.+您好！您已通过我们审计部审核，您的中浦嘉华白金卡3天内寄出，额度为50万。请注意查收并开通，感谢您对本公司的大力支持。</v>
       </c>
+      <c r="C463" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D463" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
@@ -4103,6 +6515,12 @@
       <c r="B464" t="str">
         <v>用户.+已填写订单.+的退货快递信息，请查收后确认退货</v>
       </c>
+      <c r="C464" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D464" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
@@ -4111,6 +6529,12 @@
       <c r="B465" t="str">
         <v>恭喜您推荐的.+的客户已支付成功，可进入系统后台查看详细信息。</v>
       </c>
+      <c r="C465" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D465" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
@@ -4119,6 +6543,12 @@
       <c r="B466" t="str">
         <v>小二同城，房东租房神器！快速出租房屋请登录：www.12tc.com，房东直租网，保真信息网。免费发布信息，租户直接和您联系，我们不掺和。</v>
       </c>
+      <c r="C466" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D466" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
@@ -4127,6 +6557,12 @@
       <c r="B467" t="str">
         <v>尊敬的.*并绑定手机,以防止他人盗用！请及时联系我们客服电话进行咨询和确认。华东:0571-64219767,华南:0571-64213188</v>
       </c>
+      <c r="C467" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D467" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
@@ -4135,6 +6571,12 @@
       <c r="B468" t="str">
         <v>.+提醒您，救援车辆正在前往您的地点，请耐心等待,救援司机电话.+</v>
       </c>
+      <c r="C468" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D468" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
@@ -4143,6 +6585,9 @@
       <c r="B469" t="str">
         <v>尊敬的用户，您在平安好车主中得1G流量已到账，请注意查收.{0,10}退订回T</v>
       </c>
+      <c r="C469" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
@@ -4151,6 +6596,12 @@
       <c r="B470" t="str">
         <v>尊敬的.{2,4}，你在熟人养车平台的服务.+感谢你的光临！</v>
       </c>
+      <c r="C470" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D470" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="str">
@@ -4159,6 +6610,12 @@
       <c r="B471" t="str">
         <v>.+需要审核通过，您可通过平台查看。知游热线：13995644371</v>
       </c>
+      <c r="C471" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D471" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
@@ -4167,6 +6624,12 @@
       <c r="B472" t="str">
         <v>您好!尊敬的热用户新年好：阳光热力祝您开业大吉！请贵用户在开启机器生产前，务必严格按照送气操作规程的规定操作：先开疏水，再微开供气阀门供气暖管，待管网中的积水全部排出后，再逐渐增大供汽阀门的开度，用汽生产。以免发生水冲击，造成人身伤害和财产损失。谢谢合作。</v>
       </c>
+      <c r="C472" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D472" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
@@ -4175,6 +6638,12 @@
       <c r="B473" t="str">
         <v>您有新的订单，请关注！</v>
       </c>
+      <c r="C473" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D473" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
@@ -4182,6 +6651,12 @@
       </c>
       <c r="B474" t="str">
         <v>您的验证码是.{0,8}。如非本人操作，请忽略本短信</v>
+      </c>
+      <c r="C474" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D474" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="475">
@@ -4191,6 +6666,9 @@
       <c r="B475" t="str">
         <v>真给力！您的好友中已经盲订成功\d+人！快分享给其他好友，达到三人盲订成功，即可再获得\d+\.?\d*元优惠券！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
+      <c r="C475" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
@@ -4199,6 +6677,9 @@
       <c r="B476" t="str">
         <v>车源宝排名播报。收到请到快抢车公司群打1。回复T退订</v>
       </c>
+      <c r="C476" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
@@ -4207,6 +6688,9 @@
       <c r="B477" t="str">
         <v>.{2,5}您好，现在通知您.+工作人员.+回复TD退订</v>
       </c>
+      <c r="C477" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
@@ -4215,6 +6699,12 @@
       <c r="B478" t="str">
         <v>您的手机验证码为：123456</v>
       </c>
+      <c r="C478" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D478" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
@@ -4223,6 +6713,12 @@
       <c r="B479" t="str">
         <v>尊敬的.{0,15}用户，您的账户.*最后登入日期.*感谢您的支持和厚爱。忘记密码手机重置或咨询电话.*</v>
       </c>
+      <c r="C479" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D479" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
@@ -4231,6 +6727,12 @@
       <c r="B480" t="str">
         <v>短信测试！http://sep9.cn/hlmet5退订回TD</v>
       </c>
+      <c r="C480" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D480" t="str">
+        <v>类别：43</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
@@ -4239,6 +6741,12 @@
       <c r="B481" t="str">
         <v>欢迎进入.+您注册绑定的手机验证码是\w+，请尽快验证！</v>
       </c>
+      <c r="C481" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D481" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
@@ -4247,6 +6755,12 @@
       <c r="B482" t="str">
         <v>温馨提示:无论您在北京的那个方向乘坐哪一路地铁，最后转乘地铁2号线，在积水潭下车，从A出口出来向东走200米见德胜门楼后左拐往北60米见孔子学院总部对面路东即到。地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）,官方公众微信号：dsmzlwz，专家咨询热线:010-51615853。不清楚您随时来电咨询。</v>
       </c>
+      <c r="C482" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D482" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
@@ -4255,6 +6769,12 @@
       <c r="B483" t="str">
         <v>后台有新的业务申请，请尽快处理！</v>
       </c>
+      <c r="C483" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D483" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
@@ -4263,6 +6783,12 @@
       <c r="B484" t="str">
         <v>亲爱的.{0,20}同学，您的验证码是.{0,10}如非本人操作，请忽略本短信</v>
       </c>
+      <c r="C484" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D484" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
@@ -4271,6 +6797,12 @@
       <c r="B485" t="str">
         <v>祝贺.+完成2017河北10公里超级联赛石家庄站的比赛，参赛号.+净成绩.+此成绩仅供参考，解释权归组委会所有。详细成绩和完赛证书请关注官网www.hb-10k.com查询或下载。</v>
       </c>
+      <c r="C485" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D485" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
@@ -4279,6 +6811,12 @@
       <c r="B486" t="str">
         <v>亲爱的.+您已获得知网查重优惠券，请到http://www.cnki.cx.+查询，可抵现金使用！</v>
       </c>
+      <c r="C486" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D486" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
@@ -4287,6 +6825,12 @@
       <c r="B487" t="str">
         <v>亲爱的.+您的订单.+已发货，请查询订单，及时跟进快递小哥哟～</v>
       </c>
+      <c r="C487" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D487" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
@@ -4294,6 +6838,12 @@
       </c>
       <c r="B488" t="str">
         <v>.{0,15}手机验证码，请完成验证.+如非本人操作，请忽略本短信</v>
+      </c>
+      <c r="C488" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D488" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="489">
@@ -4311,6 +6861,12 @@
       <c r="B490" t="str">
         <v>验证码是.{0,15}为了安全，请不要告诉他人！为了更好的为你服务，请加助教老师微信.{0,25}</v>
       </c>
+      <c r="C490" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D490" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
@@ -4319,6 +6875,12 @@
       <c r="B491" t="str">
         <v>尊敬的学员.{0,12}新版课程已全新上传，上课：http://t.cn.{0,15}助教老师微信.{0,25}</v>
       </c>
+      <c r="C491" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D491" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
@@ -4327,6 +6889,12 @@
       <c r="B492" t="str">
         <v>感谢您购买.+您的短信校正码为\d+，请保存好此条订单短信，如有疑问，请致电：400-176-1520。</v>
       </c>
+      <c r="C492" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D492" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
@@ -4335,6 +6903,12 @@
       <c r="B493" t="str">
         <v>尊敬的.+会员，您已成功退款.+元，感谢您的支持和信任！您的账户现有余额.+元。</v>
       </c>
+      <c r="C493" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D493" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
@@ -4343,6 +6917,12 @@
       <c r="B494" t="str">
         <v>您好！您的留言我们已收到，两个工作日内核实信息后，由本院工作人员回电进行详细沟通，祝您健康！如有其它问题，也可拨打010-53827770进行咨询！</v>
       </c>
+      <c r="C494" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D494" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="str">
@@ -4351,6 +6931,12 @@
       <c r="B495" t="str">
         <v>尊敬的用户，您投资的.+标的已回款,本期收得本金.+元，收得利息.+元，感谢您的支持与信任！</v>
       </c>
+      <c r="C495" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D495" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="str">
@@ -4359,6 +6945,12 @@
       <c r="B496" t="str">
         <v>您正在申请认证希嘉大学开发者，需要进行校验，验证码\d+。请勿泄露您的验证码。</v>
       </c>
+      <c r="C496" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D496" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="str">
@@ -4367,6 +6959,12 @@
       <c r="B497" t="str">
         <v>亲爱的.+您已获得知网查重优惠券，请到.+查询，可抵现金使用！</v>
       </c>
+      <c r="C497" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D497" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="str">
@@ -4375,6 +6973,12 @@
       <c r="B498" t="str">
         <v>您的注册验证码为\w+，该验证码5分钟内有效。如非本人操作，请忽略此短信。</v>
       </c>
+      <c r="C498" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D498" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
@@ -4383,6 +6987,12 @@
       <c r="B499" t="str">
         <v>感谢使用.+提示.+</v>
       </c>
+      <c r="C499" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D499" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
@@ -4391,10 +7001,16 @@
       <c r="B500" t="str">
         <v>感谢您选择使用'云立付'，您的资料已审核通过，如使用过程中如有疑问请致电400-188-6496，我们将竭诚为您服务！</v>
       </c>
+      <c r="C500" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D500" t="str">
+        <v>未加退订</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B500"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D500"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sms_result.xlsx
+++ b/sms_result.xlsx
@@ -424,9 +424,6 @@
       <c r="C3" t="str">
         <v>normal</v>
       </c>
-      <c r="D3" t="str">
-        <v>类别：normal</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -606,7 +603,10 @@
         <v>你好，我是.*我一直在用婚礼咖app筹备婚礼、预约婚礼服务，方便快捷，国内最好的婚礼人展示平台。让新人与婚礼人成为朋友吧！婚礼咖app下载链接.*a.app.qq.com.*退订回复TD</v>
       </c>
       <c r="C17" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D17" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="18">
@@ -915,6 +915,12 @@
       <c r="B40" t="str">
         <v>尊敬的客户，为您推荐诚讯金融一站式资金服务，额度高至500w，闪速审批，快至当天到账，还可多款产品叠加，详询请回Y，退订请回TD</v>
       </c>
+      <c r="C40" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D40" t="str">
+        <v>类别 21</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -938,7 +944,10 @@
         <v>双11预售提前抢，全网买1送1，秋冬新品3折起，限量抢购 t.cn.+退订回TD</v>
       </c>
       <c r="C42" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D42" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="43">
@@ -960,7 +969,10 @@
         <v>IT运维众包伙伴们，请完善您的个人信息，开启抢单模式，向自由职业发起挑战。 iOS：http://dwz.cn.*Android： http://dwz.cn.*退订回TD</v>
       </c>
       <c r="C44" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D44" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="45">
@@ -1220,7 +1232,10 @@
         <v>你喜欢的&lt;蒙牛纯甄酸牛奶&gt;.+今日下单仅需14.9元／4盒！t.cn/RMAVadQ退订回TD</v>
       </c>
       <c r="C63" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D63" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="64">
@@ -1469,7 +1484,7 @@
         <v>当前矿机已为你挖掘.*当前挖矿难度.*当前剩余时间.*退订回TD</v>
       </c>
       <c r="C81" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D81" t="str">
         <v>类别：1</v>
@@ -1497,7 +1512,10 @@
         <v>双十一全民狂欢节又来了！别人买买买，我来赚赚赚！即日起.*登录“富航微盘”交易，您亏损多少我们补偿等额现金券，http://fuhang.zc-fund.com.*详情敬请关注“富航微盘”公众号！退订回TD</v>
       </c>
       <c r="C83" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D83" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="84">
@@ -1558,10 +1576,10 @@
         <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
       </c>
       <c r="C88" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D88" t="str">
-        <v>类别：24</v>
+        <v>类别：normal</v>
       </c>
     </row>
     <row r="89">
@@ -1572,7 +1590,10 @@
         <v>双十一零点，1.1元抢购新疆阿克苏冰糖心苹果，猛撮壹农壹果VIP会场.*http://980.*退订回TD</v>
       </c>
       <c r="C89" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D89" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="90">
@@ -1582,6 +1603,9 @@
       <c r="B90" t="str">
         <v>.*掌红分享购忠实粉丝，关于海报活动下单的花茶杯和起泡酒活动，由于参与用户数量过多，被腾讯公众平台判定为.*并屏蔽.*公众号功能以及清空用户数据，因此活动被迫中止。对此，掌红分享购将对.*作为补偿。具体信息，请参与该活动的用户.*直接输入.*即会有人工为您提供咨询登记。带来不便，敬请谅解。退订回TD</v>
       </c>
+      <c r="C90" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1605,7 +1629,10 @@
         <v>官网狂欢庆典\d+/\d+-\d+明星爆款低至\d+折，直降\d+元，\d+重礼遇→ www.ernolaszlo.com.cn退订回TD</v>
       </c>
       <c r="C92" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D92" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="93">
@@ -1803,7 +1830,10 @@
         <v>您好，由母婴行业观察主办的.*召开，欢迎您参加。报名地址.{0,10}http://dwz.cn/4CYI6h.{0,10}退订回TD</v>
       </c>
       <c r="C107" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D107" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="108">
@@ -1813,6 +1843,9 @@
       <c r="B108" t="str">
         <v>.*在超市一次性购物满.+单张小票限换一次，数量有限换完为止.*单张小票限送一份\（油类，米类，蛋类，奶类\）不参与活动，数量有限，送完为止。退订回TD</v>
       </c>
+      <c r="C108" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -2033,6 +2066,12 @@
       <c r="B125" t="str">
         <v>尊敬的投资人，您好！平台优质项目.*还款方式：按期收息，到期还本。更多标的详情，敬请登录网站查看。溢诚感恩一路有你！400-997-6868。退订回TD</v>
       </c>
+      <c r="C125" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D125" t="str">
+        <v>类别：40</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -2251,7 +2290,10 @@
         <v>.*岗位你来不？包吃包住不加班，工作轻松工资高，立戳开撩 http://dwz.cn.*退订回TD</v>
       </c>
       <c r="C142" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D142" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="143">
@@ -2469,7 +2511,10 @@
         <v>好消息！一公里给您送钱啦，下载APP送15元，首单满.*快来下单吧！http://s881.com.*回TD退订</v>
       </c>
       <c r="C158" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D158" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="159">
@@ -2532,6 +2577,9 @@
       <c r="B163" t="str">
         <v>上海新科医院重要通知！由第二届京沪精神名医上海新科医院彭军教授、上海长征医院吴萍嘉教授、北京大学第六医院田运华教授在我院联合出诊，望预约成功的化治疗患者及家属安排好就诊时间，为避免窗口挂号造成拥堵，不能有效安排会诊时间，可在线预约，开放预约挂号时间：2016.12.18-12.25日，点击链接在线预约：http://m.xinkejingshen.com；详情致电：0215－2721599,退订回TD</v>
       </c>
+      <c r="C163" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -2644,7 +2692,7 @@
         <v>瓜牛统招保险代理人，高收入、免垫资、强强联合，实力打造，瓜牛保险期待您的加入。退订回TD</v>
       </c>
       <c r="C172" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D172" t="str">
         <v>类别：1</v>
@@ -3298,10 +3346,10 @@
         <v>12月27日至12月30日！花鲢.*咸鸡11.9，退订回TD</v>
       </c>
       <c r="C220" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D220" t="str">
-        <v>类别：18</v>
+        <v>类别：normal</v>
       </c>
     </row>
     <row r="221">
@@ -3463,7 +3511,10 @@
         <v>尊敬的大众车主，年终4S店保养8折优惠仅限4天http://t.cn/RI8LrAs登录京东页面选购。退订回TD</v>
       </c>
       <c r="C232" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D232" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="233">
@@ -3689,7 +3740,10 @@
         <v>亲，Johnny}加了5人在Comehttp://dwz.cn/3xAR2K回复T退订退订回TD</v>
       </c>
       <c r="C249" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D249" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="250">
@@ -3710,9 +3764,6 @@
       <c r="B251" t="str">
         <v>.{0,10}尊敬的客户，您在.*出现异常，我方.{0,10}公司委托将在.*邮寄相关文书至您户籍所在地，请尽快处理.*退订.{0,10}</v>
       </c>
-      <c r="C251" t="str">
-        <v>normal</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -3775,7 +3826,7 @@
         <v>亲爱的付晓志，沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn/RIEYr2K退订回TD</v>
       </c>
       <c r="C256" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D256" t="str">
         <v>类别：73</v>
@@ -3803,7 +3854,10 @@
         <v>亲爱的.+沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn.+退订回TD</v>
       </c>
       <c r="C258" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D258" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="259">
@@ -3814,7 +3868,10 @@
         <v>降价啦！你爱吃的&lt;越南黑美人西瓜&gt;降价啦！肉质细嫩、味甜多汁，直降10元！今日仅19.9元t.cn/RIEFVaJ退订回TD</v>
       </c>
       <c r="C259" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D259" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="260">
@@ -3839,7 +3896,10 @@
         <v>降价啦！你爱吃的.+降价啦！果径.+的南美甜心汁多味甜！今日仅.+元！t.cn/RIuYyni退订回TD</v>
       </c>
       <c r="C261" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D261" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="262">
@@ -4037,10 +4097,10 @@
         <v>跨年壕送，买两年会员就送1588元高级拉杆箱或1280元原汁机，壕送到1月2日哦http://dwz.cn/4WS6aq，退订回复TD退订回TD</v>
       </c>
       <c r="C276" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D276" t="str">
-        <v>类别：normal</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="277">
@@ -4051,7 +4111,10 @@
         <v>辞旧迎新，钱袋金服红包加息产品好礼大派送！活动时间.{0,15}详见www.qiandai-china.com.*退订回TD</v>
       </c>
       <c r="C277" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D277" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="278">
@@ -4330,7 +4393,10 @@
         <v>亲，Honsun.{2,15}发布了新动态http://dwz.cn/\w+回复T退订</v>
       </c>
       <c r="C298" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D298" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="299">
@@ -4340,9 +4406,6 @@
       <c r="B299" t="str">
         <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
       </c>
-      <c r="C299" t="str">
-        <v>normal</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
@@ -4592,7 +4655,10 @@
         <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
       </c>
       <c r="C318" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D318" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="319">
@@ -4630,9 +4696,6 @@
       <c r="B321" t="str">
         <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
       </c>
-      <c r="C321" t="str">
-        <v>normal</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
@@ -4641,6 +4704,9 @@
       <c r="B322" t="str">
         <v>股权激励的最高境界不是让员工得到的更多.*对公司的感情越深。经邦强调，成功的股改不是散财，而是合股合力，把大家的财合在一起！如何落地一套“财聚人聚”股改方案？详细了解回复9或18588604560退订回复T</v>
       </c>
+      <c r="C322" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -4759,7 +4825,10 @@
         <v>0添加，叫我怎么不纯粹？蒙牛纯甄酸牛奶，味道像小时候一样纯真。4盒仅16.9元再送4折券！t.cn/RMoSfUh退订回TD</v>
       </c>
       <c r="C331" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D331" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="332">
@@ -4840,7 +4909,7 @@
         <v>中秋送福利啦.+马上拥有自己的网店，客服微信.+退订回复TD</v>
       </c>
       <c r="C337" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D337" t="str">
         <v>类别：15</v>
@@ -5055,7 +5124,10 @@
         <v>聚合数据送你.*打开微信，搜索“聚合数据”或“juhe_cn”，关注微信号，回复关键字.*即可领取。退订回T</v>
       </c>
       <c r="C353" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D353" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="354">
@@ -5091,7 +5163,10 @@
         <v>哇，这一口满满的胶原蛋白→鸡翅根第二件1元！鲜嫩可口、供港品质、让你吃的安心。t.cn/RM9iaJ8退订回TD</v>
       </c>
       <c r="C356" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D356" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="357">
@@ -5376,7 +5451,10 @@
         <v>同城货运，嘟嘟快运。http://dwz.cn/.{1,8}欢迎下载嘟嘟快运APP，拉货搬家，安全省心！回T退订</v>
       </c>
       <c r="C377" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D377" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="378">
@@ -5386,6 +5464,9 @@
       <c r="B378" t="str">
         <v>尊敬的.+您好!感谢您参与中国石油10月10日10惠活动，经过我司的紧急配货，各站10惠礼包已到位，您短信领取的礼包卡劵有效期已更改为10月10日-24日，请您及时至10惠加油站领取。详询95504。回复TD退订!</v>
       </c>
+      <c r="C378" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
@@ -5406,7 +5487,10 @@
         <v>.*太湖泳池派对，畅游无限，畅享美食。现在预约更有神秘大奖http://t.cn/Rt8VWzS回T退订</v>
       </c>
       <c r="C380" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D380" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="381">
@@ -5417,7 +5501,10 @@
         <v>春节茶礼限量抢购，市场价998元的正宗武夷山金骏眉礼盒，茶农直销价仅198元，限100份t.cn/RMzrlOW.退订回TD</v>
       </c>
       <c r="C381" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D381" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="382">
@@ -5428,7 +5515,10 @@
         <v>联帮劳务网是建筑劳务行业综合资源库，找工人、找活干、找材料设备，请微信搜索“联帮劳务网”或输入www.lblww.com注册。退订回TD</v>
       </c>
       <c r="C382" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D382" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="383">
@@ -5807,7 +5897,10 @@
         <v>尊敬的会员客户，岁末将近，送礼送健康！特惠活动.+活动详情-http://37.qg37.com.+回复TD退订</v>
       </c>
       <c r="C411" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D411" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="412">
@@ -5923,12 +6016,6 @@
       <c r="B420" t="str">
         <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
       </c>
-      <c r="C420" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D420" t="str">
-        <v>类别：normal</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
@@ -6728,10 +6815,10 @@
         <v>短信测试！http://sep9.cn/hlmet5退订回TD</v>
       </c>
       <c r="C480" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D480" t="str">
-        <v>类别：43</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="481">
@@ -6852,6 +6939,9 @@
       </c>
       <c r="B489" t="str">
         <v>亲爱的.+恭喜您已成功预定.+参加席位活动时间.+特别提醒：本活动仅限学生、郑州平面协会会员和特约嘉宾参加，到场需带学生证及相关证件。请妥善保管此条信息，如有疑问，请致电0371-60926058回复T退订此短信发布平台</v>
+      </c>
+      <c r="C489" t="str">
+        <v>normal</v>
       </c>
     </row>
     <row r="490">

--- a/sms_result.xlsx
+++ b/sms_result.xlsx
@@ -387,28 +387,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>M5547373</v>
+        <v>账号类型</v>
       </c>
       <c r="B1" t="str">
-        <v>尊敬的移动老用户！根据你的消费情况，我司免费赠送你一部智能手机，无需换号，办理地址：新度桥头远大电讯连锁卖场，详询入店咨询0594-7969998。退订回TD</v>
+        <v>语料</v>
       </c>
       <c r="C1" t="str">
-        <v>normal</v>
+        <v>type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>拒绝类型</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>M1233088</v>
+        <v>M5547373</v>
       </c>
       <c r="B2" t="str">
-        <v>.*你好，你于.*参加.*线的第.*期分期付款.*元，请于1月8日前转账支付宝wfbl42@163.com北京一人一熊文化传播有限公司，请备注姓名和参加第几期付款。如已缴费请忽略退订回TD</v>
+        <v>尊敬的移动老用户！根据你的消费情况，我司免费赠送你一部智能手机，无需换号，办理地址：新度桥头远大电讯连锁卖场，详询入店咨询0594-7969998。退订回TD</v>
       </c>
       <c r="C2" t="str">
         <v>normal</v>
@@ -416,38 +419,32 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>M6198841</v>
+        <v>M1233088</v>
       </c>
       <c r="B3" t="str">
-        <v>2017年中国国际纺织面料及辅料（春夏）博览会3月15--17日国家会展中心（上海）摊位申请：刘安邦 13916189823回复退订td</v>
+        <v>.*你好，你于.*参加.*线的第.*期分期付款.*元，请于1月8日前转账支付宝wfbl42@163.com北京一人一熊文化传播有限公司，请备注姓名和参加第几期付款。如已缴费请忽略退订回TD</v>
       </c>
       <c r="C3" t="str">
         <v>normal</v>
-      </c>
-      <c r="D3" t="str">
-        <v>类别：normal</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>N7866060</v>
+        <v>M6198841</v>
       </c>
       <c r="B4" t="str">
-        <v>您好,你找回密码的验证码是:\d*</v>
+        <v>2017年中国国际纺织面料及辅料（春夏）博览会3月15--17日国家会展中心（上海）摊位申请：刘安邦 13916189823回复退订td</v>
       </c>
       <c r="C4" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D4" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>N2716352</v>
+        <v>N7866060</v>
       </c>
       <c r="B5" t="str">
-        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全.+</v>
+        <v>您好,你找回密码的验证码是:\d*</v>
       </c>
       <c r="C5" t="str">
         <v>reject</v>
@@ -458,10 +455,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>N1837777</v>
+        <v>N2716352</v>
       </c>
       <c r="B6" t="str">
-        <v>.*各位教职工.*为确保.*顺利进行，保障活动区域人员安全，经研究决定.*届时过往车辆请由爱生广场绕行.*因此给您带来不便敬请谅解.*</v>
+        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全.+</v>
       </c>
       <c r="C6" t="str">
         <v>reject</v>
@@ -472,10 +469,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>N1449833</v>
+        <v>N1837777</v>
       </c>
       <c r="B7" t="str">
-        <v>您已暂未上报数据定位信息，请打开外勤365，并保持在后台运行！</v>
+        <v>.*各位教职工.*为确保.*顺利进行，保障活动区域人员安全，经研究决定.*届时过往车辆请由爱生广场绕行.*因此给您带来不便敬请谅解.*</v>
       </c>
       <c r="C7" t="str">
         <v>reject</v>
@@ -489,7 +486,7 @@
         <v>N1449833</v>
       </c>
       <c r="B8" t="str">
-        <v>您有新的费用申请需要审批.*</v>
+        <v>您已暂未上报数据定位信息，请打开外勤365，并保持在后台运行！</v>
       </c>
       <c r="C8" t="str">
         <v>reject</v>
@@ -503,7 +500,7 @@
         <v>N1449833</v>
       </c>
       <c r="B9" t="str">
-        <v>你的销单已经被打回</v>
+        <v>您有新的费用申请需要审批.*</v>
       </c>
       <c r="C9" t="str">
         <v>reject</v>
@@ -514,35 +511,35 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>M8220467</v>
+        <v>N1449833</v>
       </c>
       <c r="B10" t="str">
-        <v>2017年1月5日-1月10日，您的号码.*话费，河东紫竹美庭移动营业厅，询\d*！退订回TD</v>
+        <v>你的销单已经被打回</v>
       </c>
       <c r="C10" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D10" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>N3314338</v>
+        <v>M8220467</v>
       </c>
       <c r="B11" t="str">
-        <v>项目还款通知：您投资的.{0,18}项目，成功回款利息.{0,18}元，已结算到您的账户余额，请登录秒钱查看http://t.cn/\w+</v>
+        <v>2017年1月5日-1月10日，您的号码.*话费，河东紫竹美庭移动营业厅，询\d*！退订回TD</v>
       </c>
       <c r="C11" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D11" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>N3965461</v>
+        <v>N3314338</v>
       </c>
       <c r="B12" t="str">
-        <v>尊敬的客户，您于\d+年\d+月\d+日\d+时\d+分已成功充值\d+\.?\d*元。更多优惠活动详见js.10086.cn办理\“永不停机”\交费业务，轻松赚\d+元话费。</v>
+        <v>项目还款通知：您投资的.{0,18}项目，成功回款利息.{0,18}元，已结算到您的账户余额，请登录秒钱查看http://t.cn/\w+</v>
       </c>
       <c r="C12" t="str">
         <v>reject</v>
@@ -553,10 +550,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>N4231084</v>
+        <v>N3965461</v>
       </c>
       <c r="B13" t="str">
-        <v>您好，您的验证码为.{0,10}</v>
+        <v>尊敬的客户，您于\d+年\d+月\d+日\d+时\d+分已成功充值\d+\.?\d*元。更多优惠活动详见js.10086.cn办理\“永不停机”\交费业务，轻松赚\d+元话费。</v>
       </c>
       <c r="C13" t="str">
         <v>reject</v>
@@ -567,68 +564,77 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>M18119879376</v>
+        <v>N4231084</v>
       </c>
       <c r="B14" t="str">
-        <v>尊敬的用户，您好，测试退订回复TD</v>
+        <v>您好，您的验证码为.{0,10}</v>
       </c>
       <c r="C14" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D14" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>M13817110002</v>
+        <v>M18119879376</v>
       </c>
       <c r="B15" t="str">
-        <v>您的，您的订单号为3255565的订单已支付成功！</v>
+        <v>尊敬的用户，您好，测试退订回复TD</v>
       </c>
       <c r="C15" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D15" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>M1240014</v>
+        <v>M13817110002</v>
       </c>
       <c r="B16" t="str">
-        <v>亲爱的业主，我们是一家创业型企业，缘起北京，坐定长沙，定位:至简金品——小资范，国际风…我们有长远的战略规划，有很多的不一样!如果您感兴趣请点击https://h5.wps.cn/p/85c286f3.html，退订回TD</v>
+        <v>您的，您的订单号为3255565的订单已支付成功！</v>
+      </c>
+      <c r="C16" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D16" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>M9902946</v>
+        <v>M1240014</v>
       </c>
       <c r="B17" t="str">
-        <v>你好，我是.*我一直在用婚礼咖app筹备婚礼、预约婚礼服务，方便快捷，国内最好的婚礼人展示平台。让新人与婚礼人成为朋友吧！婚礼咖app下载链接.*a.app.qq.com.*退订回复TD</v>
+        <v>亲爱的业主，我们是一家创业型企业，缘起北京，坐定长沙，定位:至简金品——小资范，国际风…我们有长远的战略规划，有很多的不一样!如果您感兴趣请点击https://h5.wps.cn/p/85c286f3.html，退订回TD</v>
       </c>
       <c r="C17" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D17" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>N9509432</v>
+        <v>M9902946</v>
       </c>
       <c r="B18" t="str">
-        <v>.*(member verification).*(for 10 mins.)</v>
+        <v>你好，我是.*我一直在用婚礼咖app筹备婚礼、预约婚礼服务，方便快捷，国内最好的婚礼人展示平台。让新人与婚礼人成为朋友吧！婚礼咖app下载链接.*a.app.qq.com.*退订回复TD</v>
       </c>
       <c r="C18" t="str">
         <v>reject</v>
       </c>
       <c r="D18" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>N3471562</v>
+        <v>N9509432</v>
       </c>
       <c r="B19" t="str">
-        <v>亲爱的用户，您的验证码是：.*</v>
+        <v>.*(member verification).*(for 10 mins.)</v>
       </c>
       <c r="C19" t="str">
         <v>reject</v>
@@ -639,10 +645,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>N6452483</v>
+        <v>N3471562</v>
       </c>
       <c r="B20" t="str">
-        <v>.*会员.*新礼包.*山东省分公司</v>
+        <v>亲爱的用户，您的验证码是：.*</v>
       </c>
       <c r="C20" t="str">
         <v>reject</v>
@@ -653,10 +659,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>N4917757</v>
+        <v>N6452483</v>
       </c>
       <c r="B21" t="str">
-        <v>您的操作码是.*</v>
+        <v>.*会员.*新礼包.*山东省分公司</v>
       </c>
       <c r="C21" t="str">
         <v>reject</v>
@@ -667,49 +673,49 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>M8111370</v>
+        <v>N4917757</v>
       </c>
       <c r="B22" t="str">
-        <v>这是大衣的时代，抛掉臃肿冬装，让林更新带你玩转有型时尚风，买大衣另有精美胸针搭配，戳.*退订回TD</v>
+        <v>您的操作码是.*</v>
       </c>
       <c r="C22" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D22" t="str">
-        <v>类别：normal</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>M9230769</v>
+        <v>M8111370</v>
       </c>
       <c r="B23" t="str">
-        <v>10月31日前但凡在本公司选购家具、窗帘、墙纸、灯饰等软装产品的佳兆业城市广场的业主即可享受边套户型小房间改造加封阳台最低6000元特惠价！详情请移步佳兆业广场西侧一帘阳光家装体验馆店内咨询或拨打免费咨询热线：400-680-7372。退订回TD</v>
+        <v>这是大衣的时代，抛掉臃肿冬装，让林更新带你玩转有型时尚风，买大衣另有精美胸针搭配，戳.*退订回TD</v>
       </c>
       <c r="C23" t="str">
         <v>normal</v>
+      </c>
+      <c r="D23" t="str">
+        <v>类别：normal</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>N18621742881</v>
+        <v>M9230769</v>
       </c>
       <c r="B24" t="str">
-        <v>.{0,15}尊敬的刷刷用户.*您提交的轮滑.*请点击.*编辑店铺</v>
+        <v>10月31日前但凡在本公司选购家具、窗帘、墙纸、灯饰等软装产品的佳兆业城市广场的业主即可享受边套户型小房间改造加封阳台最低6000元特惠价！详情请移步佳兆业广场西侧一帘阳光家装体验馆店内咨询或拨打免费咨询热线：400-680-7372。退订回TD</v>
       </c>
       <c r="C24" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D24" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>N1262693</v>
+        <v>N18621742881</v>
       </c>
       <c r="B25" t="str">
-        <v>您的验证码为：.*，欢迎注册微菜单！</v>
+        <v>.{0,15}尊敬的刷刷用户.*您提交的轮滑.*请点击.*编辑店铺</v>
       </c>
       <c r="C25" t="str">
         <v>reject</v>
@@ -720,10 +726,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>N7344316</v>
+        <v>N1262693</v>
       </c>
       <c r="B26" t="str">
-        <v>亲爱的XXX，今天是您入职满1周年的日子。365个日日夜夜里，是您始终陪伴着公司一路前行。感谢您的忠心跟随和执着守候、感激您的无私奉献与热情坚守，愿在接下来的日子里，能与您继续奋勇拼搏，共创美好明天！金茂广州，感谢有您。XX年XX月XX日</v>
+        <v>您的验证码为：.*，欢迎注册微菜单！</v>
       </c>
       <c r="C26" t="str">
         <v>reject</v>
@@ -734,10 +740,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>N8772265</v>
+        <v>N7344316</v>
       </c>
       <c r="B27" t="str">
-        <v>尊敬的用户，您好！您在恒晟金服的手机绑定验证码为：\d*，请确认。</v>
+        <v>亲爱的XXX，今天是您入职满1周年的日子。365个日日夜夜里，是您始终陪伴着公司一路前行。感谢您的忠心跟随和执着守候、感激您的无私奉献与热情坚守，愿在接下来的日子里，能与您继续奋勇拼搏，共创美好明天！金茂广州，感谢有您。XX年XX月XX日</v>
       </c>
       <c r="C27" t="str">
         <v>reject</v>
@@ -748,21 +754,24 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>M1998680</v>
+        <v>N8772265</v>
       </c>
       <c r="B28" t="str">
-        <v>你好，今天是程序员日，程序员是不是出来表示一下呢，非程序员祝你们以后的日子技术屌炸天。退订回TD</v>
+        <v>尊敬的用户，您好！您在恒晟金服的手机绑定验证码为：\d*，请确认。</v>
       </c>
       <c r="C28" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D28" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>M4699901</v>
+        <v>M1998680</v>
       </c>
       <c r="B29" t="str">
-        <v>尊敬的业主，请.*如有疑问请拨打热线电话：\d+。退订回T</v>
+        <v>你好，今天是程序员日，程序员是不是出来表示一下呢，非程序员祝你们以后的日子技术屌炸天。退订回TD</v>
       </c>
       <c r="C29" t="str">
         <v>normal</v>
@@ -770,24 +779,21 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>N15019264528</v>
+        <v>M4699901</v>
       </c>
       <c r="B30" t="str">
-        <v>.*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
+        <v>尊敬的业主，请.*如有疑问请拨打热线电话：\d+。退订回T</v>
       </c>
       <c r="C30" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D30" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>N15920501324</v>
+        <v>N15019264528</v>
       </c>
       <c r="B31" t="str">
-        <v>您的验证码是：.*</v>
+        <v>.*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
       </c>
       <c r="C31" t="str">
         <v>reject</v>
@@ -798,10 +804,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>N15601837010</v>
+        <v>N15920501324</v>
       </c>
       <c r="B32" t="str">
-        <v>亲爱的用户，您的验证码是\w*，5分钟内有效。</v>
+        <v>您的验证码是：.*</v>
       </c>
       <c r="C32" t="str">
         <v>reject</v>
@@ -812,10 +818,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>N15019264528</v>
+        <v>N15601837010</v>
       </c>
       <c r="B33" t="str">
-        <v>\w*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
+        <v>亲爱的用户，您的验证码是\w*，5分钟内有效。</v>
       </c>
       <c r="C33" t="str">
         <v>reject</v>
@@ -826,10 +832,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>N18610175213</v>
+        <v>N15019264528</v>
       </c>
       <c r="B34" t="str">
-        <v>您的验证码为：\w* ，5分钟内有效。海不会不蓝，海浪不会不在，欢迎您加入海浪大家庭！</v>
+        <v>\w*已经下单成功，客服正在安排发货中，如有疑问请拨打400-8230-398</v>
       </c>
       <c r="C34" t="str">
         <v>reject</v>
@@ -840,10 +846,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>N5473131</v>
+        <v>N18610175213</v>
       </c>
       <c r="B35" t="str">
-        <v>您好，您的验证码是你的手机号为.{0,15}验证码为.{0,10}</v>
+        <v>您的验证码为：\w* ，5分钟内有效。海不会不蓝，海浪不会不在，欢迎您加入海浪大家庭！</v>
       </c>
       <c r="C35" t="str">
         <v>reject</v>
@@ -854,10 +860,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>N8388342</v>
+        <v>N5473131</v>
       </c>
       <c r="B36" t="str">
-        <v>(您的提款交易码)\w*(已经于)\w*(成功办理)</v>
+        <v>您好，您的验证码是你的手机号为.{0,15}验证码为.{0,10}</v>
       </c>
       <c r="C36" t="str">
         <v>reject</v>
@@ -868,10 +874,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>N1437892</v>
+        <v>N8388342</v>
       </c>
       <c r="B37" t="str">
-        <v>您已付款，订单号为：12</v>
+        <v>(您的提款交易码)\w*(已经于)\w*(成功办理)</v>
       </c>
       <c r="C37" t="str">
         <v>reject</v>
@@ -882,10 +888,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>N6023778</v>
+        <v>N1437892</v>
       </c>
       <c r="B38" t="str">
-        <v>.{2,15}您的短信验证码为.{0,8}</v>
+        <v>您已付款，订单号为：12</v>
       </c>
       <c r="C38" t="str">
         <v>reject</v>
@@ -896,10 +902,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>zensen</v>
+        <v>N6023778</v>
       </c>
       <c r="B39" t="str">
-        <v>无签名的审核通过模板</v>
+        <v>.{2,15}您的短信验证码为.{0,8}</v>
       </c>
       <c r="C39" t="str">
         <v>reject</v>
@@ -910,54 +916,60 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>M4307447</v>
+        <v>zensen</v>
       </c>
       <c r="B40" t="str">
-        <v>尊敬的客户，为您推荐诚讯金融一站式资金服务，额度高至500w，闪速审批，快至当天到账，还可多款产品叠加，详询请回Y，退订请回TD</v>
+        <v>无签名的审核通过模板</v>
+      </c>
+      <c r="C40" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D40" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>N1711607</v>
+        <v>M4307447</v>
       </c>
       <c r="B41" t="str">
-        <v>.{0,12}您好，您的验证码是.{0,8}请在.{0,4}分钟之内输入。</v>
-      </c>
-      <c r="C41" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D41" t="str">
-        <v>未加退订</v>
+        <v>尊敬的客户，为您推荐诚讯金融一站式资金服务，额度高至500w，闪速审批，快至当天到账，还可多款产品叠加，详询请回Y，退订请回TD</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>M6240301</v>
+        <v>N1711607</v>
       </c>
       <c r="B42" t="str">
-        <v>双11预售提前抢，全网买1送1，秋冬新品3折起，限量抢购 t.cn.+退订回TD</v>
+        <v>.{0,12}您好，您的验证码是.{0,8}请在.{0,4}分钟之内输入。</v>
       </c>
       <c r="C42" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D42" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>M2423008</v>
+        <v>M6240301</v>
       </c>
       <c r="B43" t="str">
-        <v>亲，您好，感谢您对我们一直以来的支持和眷顾.*详细可咨询\d*或联系24小时服务QQ\d*在线咨询。回复TD退订。</v>
+        <v>双11预售提前抢，全网买1送1，秋冬新品3折起，限量抢购 t.cn.+退订回TD</v>
       </c>
       <c r="C43" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D43" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>M4351472</v>
+        <v>M2423008</v>
       </c>
       <c r="B44" t="str">
-        <v>IT运维众包伙伴们，请完善您的个人信息，开启抢单模式，向自由职业发起挑战。 iOS：http://dwz.cn.*Android： http://dwz.cn.*退订回TD</v>
+        <v>亲，您好，感谢您对我们一直以来的支持和眷顾.*详细可咨询\d*或联系24小时服务QQ\d*在线咨询。回复TD退订。</v>
       </c>
       <c r="C44" t="str">
         <v>normal</v>
@@ -965,24 +977,24 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>N8930831</v>
+        <v>M4351472</v>
       </c>
       <c r="B45" t="str">
-        <v>本次修改提现银行账户的验证码是:\d+</v>
+        <v>IT运维众包伙伴们，请完善您的个人信息，开启抢单模式，向自由职业发起挑战。 iOS：http://dwz.cn.*Android： http://dwz.cn.*退订回TD</v>
       </c>
       <c r="C45" t="str">
         <v>reject</v>
       </c>
       <c r="D45" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>N1437892</v>
+        <v>N8930831</v>
       </c>
       <c r="B46" t="str">
-        <v>您提交的退货申请已成功处理，退回款项：12元，当前余额：12元。如有疑问，请联系商城客服。</v>
+        <v>本次修改提现银行账户的验证码是:\d+</v>
       </c>
       <c r="C46" t="str">
         <v>reject</v>
@@ -993,10 +1005,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>N13923734231</v>
+        <v>N1437892</v>
       </c>
       <c r="B47" t="str">
-        <v>您的验证码是.{0,12}</v>
+        <v>您提交的退货申请已成功处理，退回款项：12元，当前余额：12元。如有疑问，请联系商城客服。</v>
       </c>
       <c r="C47" t="str">
         <v>reject</v>
@@ -1007,10 +1019,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>N15373088887</v>
+        <v>N13923734231</v>
       </c>
       <c r="B48" t="str">
-        <v>您收到的短信验证码为：8888，请勿告知他人，5分钟内有效！</v>
+        <v>您的验证码是.{0,12}</v>
       </c>
       <c r="C48" t="str">
         <v>reject</v>
@@ -1021,10 +1033,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>N15823301928</v>
+        <v>N15373088887</v>
       </c>
       <c r="B49" t="str">
-        <v>您的验证码是：\w*，五分钟之内有效。</v>
+        <v>您收到的短信验证码为：8888，请勿告知他人，5分钟内有效！</v>
       </c>
       <c r="C49" t="str">
         <v>reject</v>
@@ -1035,10 +1047,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>N15802682964</v>
+        <v>N15823301928</v>
       </c>
       <c r="B50" t="str">
-        <v>您的验证码是\w*。请勿将验证码泄露给他人。如非本人操作，请忽略。</v>
+        <v>您的验证码是：\w*，五分钟之内有效。</v>
       </c>
       <c r="C50" t="str">
         <v>reject</v>
@@ -1049,10 +1061,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>N15724742512</v>
+        <v>N15802682964</v>
       </c>
       <c r="B51" t="str">
-        <v>您的注册验证码：\w*，5分钟内有效！如非本人操作请忽略。</v>
+        <v>您的验证码是\w*。请勿将验证码泄露给他人。如非本人操作，请忽略。</v>
       </c>
       <c r="C51" t="str">
         <v>reject</v>
@@ -1063,10 +1075,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>N7710616</v>
+        <v>N15724742512</v>
       </c>
       <c r="B52" t="str">
-        <v>你的注册申请已经通过</v>
+        <v>您的注册验证码：\w*，5分钟内有效！如非本人操作请忽略。</v>
       </c>
       <c r="C52" t="str">
         <v>reject</v>
@@ -1077,10 +1089,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>N9526797</v>
+        <v>N7710616</v>
       </c>
       <c r="B53" t="str">
-        <v>您好,您的验证码是:\w*</v>
+        <v>你的注册申请已经通过</v>
       </c>
       <c r="C53" t="str">
         <v>reject</v>
@@ -1091,10 +1103,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>N4899746</v>
+        <v>N9526797</v>
       </c>
       <c r="B54" t="str">
-        <v>验证码:\w*公司动漫专区。</v>
+        <v>您好,您的验证码是:\w*</v>
       </c>
       <c r="C54" t="str">
         <v>reject</v>
@@ -1105,10 +1117,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>N3808461</v>
+        <v>N4899746</v>
       </c>
       <c r="B55" t="str">
-        <v>尊敬的用户您已经注册成功，用户名.{0,8}感谢您的注册！</v>
+        <v>验证码:\w*公司动漫专区。</v>
       </c>
       <c r="C55" t="str">
         <v>reject</v>
@@ -1119,10 +1131,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>N9650123</v>
+        <v>N3808461</v>
       </c>
       <c r="B56" t="str">
-        <v>您的验证码是\w*http://www.sina.com.cn/</v>
+        <v>尊敬的用户您已经注册成功，用户名.{0,8}感谢您的注册！</v>
       </c>
       <c r="C56" t="str">
         <v>reject</v>
@@ -1133,10 +1145,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>N1033003</v>
+        <v>N9650123</v>
       </c>
       <c r="B57" t="str">
-        <v>在韩宝典：您的验证码是.{0,8}秒内使用有效。</v>
+        <v>您的验证码是\w*http://www.sina.com.cn/</v>
       </c>
       <c r="C57" t="str">
         <v>reject</v>
@@ -1147,10 +1159,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>N5255792</v>
+        <v>N1033003</v>
       </c>
       <c r="B58" t="str">
-        <v>恭喜您注册激活成功,您的用户名.{0,25}密码.{0,25}网站地址为www.hkelt.com</v>
+        <v>在韩宝典：您的验证码是.{0,8}秒内使用有效。</v>
       </c>
       <c r="C58" t="str">
         <v>reject</v>
@@ -1164,7 +1176,7 @@
         <v>N5255792</v>
       </c>
       <c r="B59" t="str">
-        <v>恭喜您注册激活成功,您的用户名.*密码.*网站地址为www.hkelt.com</v>
+        <v>恭喜您注册激活成功,您的用户名.{0,25}密码.{0,25}网站地址为www.hkelt.com</v>
       </c>
       <c r="C59" t="str">
         <v>reject</v>
@@ -1175,10 +1187,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>N7400950</v>
+        <v>N5255792</v>
       </c>
       <c r="B60" t="str">
-        <v>您充值.+元,请登录平台查看，祝生意兴隆</v>
+        <v>恭喜您注册激活成功,您的用户名.*密码.*网站地址为www.hkelt.com</v>
       </c>
       <c r="C60" t="str">
         <v>reject</v>
@@ -1189,10 +1201,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>N6483072</v>
+        <v>N7400950</v>
       </c>
       <c r="B61" t="str">
-        <v>验证码是.{0,10}</v>
+        <v>您充值.+元,请登录平台查看，祝生意兴隆</v>
       </c>
       <c r="C61" t="str">
         <v>reject</v>
@@ -1203,21 +1215,24 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>M3173434</v>
+        <v>N6483072</v>
       </c>
       <c r="B62" t="str">
-        <v>亲，您已经成功充值.{0,10}元，投标即可获得收益。退订回复TD退订回TD</v>
+        <v>验证码是.{0,10}</v>
       </c>
       <c r="C62" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D62" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>M5129810</v>
+        <v>M3173434</v>
       </c>
       <c r="B63" t="str">
-        <v>你喜欢的&lt;蒙牛纯甄酸牛奶&gt;.+今日下单仅需14.9元／4盒！t.cn/RMAVadQ退订回TD</v>
+        <v>亲，您已经成功充值.{0,10}元，投标即可获得收益。退订回复TD退订回TD</v>
       </c>
       <c r="C63" t="str">
         <v>normal</v>
@@ -1225,24 +1240,24 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>N9509432</v>
+        <v>M5129810</v>
       </c>
       <c r="B64" t="str">
-        <v>.{0,15}memberverification.{0,8}for10mins.{2}</v>
+        <v>你喜欢的&lt;蒙牛纯甄酸牛奶&gt;.+今日下单仅需14.9元／4盒！t.cn/RMAVadQ退订回TD</v>
       </c>
       <c r="C64" t="str">
         <v>reject</v>
       </c>
       <c r="D64" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>N1262693</v>
+        <v>N9509432</v>
       </c>
       <c r="B65" t="str">
-        <v>您的验证码为：\w*，欢迎注册微菜单！</v>
+        <v>.{0,15}memberverification.{0,8}for10mins.{2}</v>
       </c>
       <c r="C65" t="str">
         <v>reject</v>
@@ -1253,10 +1268,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>N6000071</v>
+        <v>N1262693</v>
       </c>
       <c r="B66" t="str">
-        <v>重要提示：本市交警已开展交通违法大整治，严处重罚各类违章行为。望大家遵纪守法谨慎驾驶！</v>
+        <v>您的验证码为：\w*，欢迎注册微菜单！</v>
       </c>
       <c r="C66" t="str">
         <v>reject</v>
@@ -1267,10 +1282,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>N3145894</v>
+        <v>N6000071</v>
       </c>
       <c r="B67" t="str">
-        <v>验证码如下： \w* 有效期为10分钟</v>
+        <v>重要提示：本市交警已开展交通违法大整治，严处重罚各类违章行为。望大家遵纪守法谨慎驾驶！</v>
       </c>
       <c r="C67" t="str">
         <v>reject</v>
@@ -1281,10 +1296,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>N6686342</v>
+        <v>N3145894</v>
       </c>
       <c r="B68" t="str">
-        <v xml:space="preserve">感谢您注册，您的验证码是： \w* </v>
+        <v>验证码如下： \w* 有效期为10分钟</v>
       </c>
       <c r="C68" t="str">
         <v>reject</v>
@@ -1295,10 +1310,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>N6838971</v>
+        <v>N6686342</v>
       </c>
       <c r="B69" t="str">
-        <v>您\w*</v>
+        <v xml:space="preserve">感谢您注册，您的验证码是： \w* </v>
       </c>
       <c r="C69" t="str">
         <v>reject</v>
@@ -1309,10 +1324,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>N4971212</v>
+        <v>N6838971</v>
       </c>
       <c r="B70" t="str">
-        <v xml:space="preserve">你的验证码是 \w* </v>
+        <v>您\w*</v>
       </c>
       <c r="C70" t="str">
         <v>reject</v>
@@ -1323,10 +1338,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>N1721391</v>
+        <v>N4971212</v>
       </c>
       <c r="B71" t="str">
-        <v>您好！您的验证码是：</v>
+        <v xml:space="preserve">你的验证码是 \w* </v>
       </c>
       <c r="C71" t="str">
         <v>reject</v>
@@ -1337,10 +1352,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>N1449833</v>
+        <v>N1721391</v>
       </c>
       <c r="B72" t="str">
-        <v>外勤365下载地址：http://m.waiqin365.com。如非本人操作，请忽略此短信。客服电话4001-025-365</v>
+        <v>您好！您的验证码是：</v>
       </c>
       <c r="C72" t="str">
         <v>reject</v>
@@ -1351,10 +1366,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>N3719867</v>
+        <v>N1449833</v>
       </c>
       <c r="B73" t="str">
-        <v>您好.+已经将您的.+纠纷设置进入诉前调解程序，调解案号为.+您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
+        <v>外勤365下载地址：http://m.waiqin365.com。如非本人操作，请忽略此短信。客服电话4001-025-365</v>
       </c>
       <c r="C73" t="str">
         <v>reject</v>
@@ -1368,7 +1383,7 @@
         <v>N3719867</v>
       </c>
       <c r="B74" t="str">
-        <v>您好.+已经受理您参与调解的.+一案的司法确认申请,立案案号为.+请您登录在线法院平台调解员客户端查看进展.+</v>
+        <v>您好.+已经将您的.+纠纷设置进入诉前调解程序，调解案号为.+您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
       </c>
       <c r="C74" t="str">
         <v>reject</v>
@@ -1382,7 +1397,7 @@
         <v>N3719867</v>
       </c>
       <c r="B75" t="str">
-        <v>您好.+的诉中调解程序，法院已经委托调解员.+为您调解，您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
+        <v>您好.+已经受理您参与调解的.+一案的司法确认申请,立案案号为.+请您登录在线法院平台调解员客户端查看进展.+</v>
       </c>
       <c r="C75" t="str">
         <v>reject</v>
@@ -1396,7 +1411,7 @@
         <v>N3719867</v>
       </c>
       <c r="B76" t="str">
-        <v>您好.+已经确认您对.+一案的司法确认申请有效,您可登录在线法院平台当事人客户端查看和下载司法确认裁定书。</v>
+        <v>您好.+的诉中调解程序，法院已经委托调解员.+为您调解，您可访问在线法院平台主站\（www.fayuan.com\）扫码下载安装当事人客户端并登录，跟踪您的案件进展，登录用户名为您的手机号，登录初始密码为.+</v>
       </c>
       <c r="C76" t="str">
         <v>reject</v>
@@ -1407,10 +1422,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>N6413270</v>
+        <v>N3719867</v>
       </c>
       <c r="B77" t="str">
-        <v>.{0,10}您的验证码是.{0,10}</v>
+        <v>您好.+已经确认您对.+一案的司法确认申请有效,您可登录在线法院平台当事人客户端查看和下载司法确认裁定书。</v>
       </c>
       <c r="C77" t="str">
         <v>reject</v>
@@ -1421,38 +1436,38 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>M1371446</v>
+        <v>N6413270</v>
       </c>
       <c r="B78" t="str">
-        <v>.+先生您好！我是皇家移民的.+请您对我的服务进行评价！请您回复相应的序号：1、非常满意；2、基本满意；3、不满意。退订回TD</v>
+        <v>.{0,10}您的验证码是.{0,10}</v>
       </c>
       <c r="C78" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D78" t="str">
-        <v>类别：normal</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>N2214607</v>
+        <v>M1371446</v>
       </c>
       <c r="B79" t="str">
-        <v>欢迎注册卡尤迪，验证码为\w+，请尽快使用，完成注册。</v>
+        <v>.+先生您好！我是皇家移民的.+请您对我的服务进行评价！请您回复相应的序号：1、非常满意；2、基本满意；3、不满意。退订回TD</v>
       </c>
       <c r="C79" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D79" t="str">
-        <v>未加退订</v>
+        <v>类别：normal</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>N9453190</v>
+        <v>N2214607</v>
       </c>
       <c r="B80" t="str">
-        <v>.{0,10}您关注的商品.*已经降价，您可点击下面链接直接进入商品页面浏览或购买.*</v>
+        <v>欢迎注册卡尤迪，验证码为\w+，请尽快使用，完成注册。</v>
       </c>
       <c r="C80" t="str">
         <v>reject</v>
@@ -1463,63 +1478,66 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>M5262635</v>
+        <v>N9453190</v>
       </c>
       <c r="B81" t="str">
-        <v>当前矿机已为你挖掘.*当前挖矿难度.*当前剩余时间.*退订回TD</v>
+        <v>.{0,10}您关注的商品.*已经降价，您可点击下面链接直接进入商品页面浏览或购买.*</v>
       </c>
       <c r="C81" t="str">
         <v>reject</v>
       </c>
       <c r="D81" t="str">
-        <v>类别：1</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>N5233471</v>
+        <v>M5262635</v>
       </c>
       <c r="B82" t="str">
-        <v>.{0,10}您正在申请短信安全验证，验证码为.{0,10}有效期为.*请勿泄露他人以防账号被盗。如有疑问，请致电.*</v>
+        <v>当前矿机已为你挖掘.*当前挖矿难度.*当前剩余时间.*退订回TD</v>
       </c>
       <c r="C82" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D82" t="str">
-        <v>未加退订</v>
+        <v>类别：1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>M1445140</v>
+        <v>N5233471</v>
       </c>
       <c r="B83" t="str">
-        <v>双十一全民狂欢节又来了！别人买买买，我来赚赚赚！即日起.*登录“富航微盘”交易，您亏损多少我们补偿等额现金券，http://fuhang.zc-fund.com.*详情敬请关注“富航微盘”公众号！退订回TD</v>
+        <v>.{0,10}您正在申请短信安全验证，验证码为.{0,10}有效期为.*请勿泄露他人以防账号被盗。如有疑问，请致电.*</v>
       </c>
       <c r="C83" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D83" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>M9794773</v>
+        <v>M1445140</v>
       </c>
       <c r="B84" t="str">
-        <v>亲爱的会员，世界制造网上有您一封来自海外的询盘，请登录您的后台查收，咨询热线：13356700231</v>
+        <v>双十一全民狂欢节又来了！别人买买买，我来赚赚赚！即日起.*登录“富航微盘”交易，您亏损多少我们补偿等额现金券，http://fuhang.zc-fund.com.*详情敬请关注“富航微盘”公众号！退订回TD</v>
       </c>
       <c r="C84" t="str">
         <v>reject</v>
       </c>
       <c r="D84" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>N4219390</v>
+        <v>M9794773</v>
       </c>
       <c r="B85" t="str">
-        <v>请在2017年1月5日周四晚上7点，在鸿德堂参加“初信栽培”。地址：上海市虹口区多伦路59号近四川北路横浜桥。</v>
+        <v>亲爱的会员，世界制造网上有您一封来自海外的询盘，请登录您的后台查收，咨询热线：13356700231</v>
       </c>
       <c r="C85" t="str">
         <v>reject</v>
@@ -1530,13 +1548,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>M2326959</v>
+        <v>N4219390</v>
       </c>
       <c r="B86" t="str">
-        <v>打10分送话费啦，如您接到外省固定电话，请对移动的服务、网络等多个多问题全部打10分，两个月内就可获赠100元话费噢。详询各移动网点。退订回复TD</v>
+        <v>请在2017年1月5日周四晚上7点，在鸿德堂参加“初信栽培”。地址：上海市虹口区多伦路59号近四川北路横浜桥。</v>
       </c>
       <c r="C86" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D86" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="87">
@@ -1544,7 +1565,7 @@
         <v>M2326959</v>
       </c>
       <c r="B87" t="str">
-        <v>打10分送话费啦！如您接到外省固定电话，请对移动的服务、网络等多个问题全部打10分，核实后就可获赠100元话费噢。退订回TD</v>
+        <v>打10分送话费啦，如您接到外省固定电话，请对移动的服务、网络等多个多问题全部打10分，两个月内就可获赠100元话费噢。详询各移动网点。退订回复TD</v>
       </c>
       <c r="C87" t="str">
         <v>normal</v>
@@ -1552,82 +1573,79 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>M1115314</v>
+        <v>M2326959</v>
       </c>
       <c r="B88" t="str">
-        <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
+        <v>打10分送话费啦！如您接到外省固定电话，请对移动的服务、网络等多个问题全部打10分，核实后就可获赠100元话费噢。退订回TD</v>
       </c>
       <c r="C88" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D88" t="str">
-        <v>类别：24</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>M3103989</v>
+        <v>M1115314</v>
       </c>
       <c r="B89" t="str">
-        <v>双十一零点，1.1元抢购新疆阿克苏冰糖心苹果，猛撮壹农壹果VIP会场.*http://980.*退订回TD</v>
-      </c>
-      <c r="C89" t="str">
-        <v>normal</v>
+        <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>M7306228</v>
+        <v>M3103989</v>
       </c>
       <c r="B90" t="str">
-        <v>.*掌红分享购忠实粉丝，关于海报活动下单的花茶杯和起泡酒活动，由于参与用户数量过多，被腾讯公众平台判定为.*并屏蔽.*公众号功能以及清空用户数据，因此活动被迫中止。对此，掌红分享购将对.*作为补偿。具体信息，请参与该活动的用户.*直接输入.*即会有人工为您提供咨询登记。带来不便，敬请谅解。退订回TD</v>
+        <v>双十一零点，1.1元抢购新疆阿克苏冰糖心苹果，猛撮壹农壹果VIP会场.*http://980.*退订回TD</v>
+      </c>
+      <c r="C90" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D90" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>N18701840782</v>
+        <v>M7306228</v>
       </c>
       <c r="B91" t="str">
-        <v>定时任务发送失败：{12}，请到系统中手动进行发布。若有疑问请联系管理员。</v>
-      </c>
-      <c r="C91" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D91" t="str">
-        <v>未加退订</v>
+        <v>.*掌红分享购忠实粉丝，关于海报活动下单的花茶杯和起泡酒活动，由于参与用户数量过多，被腾讯公众平台判定为.*并屏蔽.*公众号功能以及清空用户数据，因此活动被迫中止。对此，掌红分享购将对.*作为补偿。具体信息，请参与该活动的用户.*直接输入.*即会有人工为您提供咨询登记。带来不便，敬请谅解。退订回TD</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>M9023981</v>
+        <v>N18701840782</v>
       </c>
       <c r="B92" t="str">
-        <v>官网狂欢庆典\d+/\d+-\d+明星爆款低至\d+折，直降\d+元，\d+重礼遇→ www.ernolaszlo.com.cn退订回TD</v>
+        <v>定时任务发送失败：{12}，请到系统中手动进行发布。若有疑问请联系管理员。</v>
       </c>
       <c r="C92" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D92" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>N1449833</v>
+        <v>M9023981</v>
       </c>
       <c r="B93" t="str">
-        <v>.*点评了您办理的任务“@”</v>
+        <v>官网狂欢庆典\d+/\d+-\d+明星爆款低至\d+折，直降\d+元，\d+重礼遇→ www.ernolaszlo.com.cn退订回TD</v>
       </c>
       <c r="C93" t="str">
         <v>reject</v>
       </c>
       <c r="D93" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>M3314031</v>
+        <v>N1449833</v>
       </c>
       <c r="B94" t="str">
-        <v>.{0,10}尊敬的.*本店装修，现将剩余网费转至.*地址.*新会员.*TD.*</v>
+        <v>.*点评了您办理的任务“@”</v>
       </c>
       <c r="C94" t="str">
         <v>reject</v>
@@ -1638,10 +1656,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>N8535724</v>
+        <v>M3314031</v>
       </c>
       <c r="B95" t="str">
-        <v>蓝队网络提醒您:您的弹性云已开通了！用户名.{0,20}IP.{0,20}到期时间是.{0,30}</v>
+        <v>.{0,10}尊敬的.*本店装修，现将剩余网费转至.*地址.*新会员.*TD.*</v>
       </c>
       <c r="C95" t="str">
         <v>reject</v>
@@ -1652,10 +1670,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>N4049746</v>
+        <v>N8535724</v>
       </c>
       <c r="B96" t="str">
-        <v>.+您的验证码是：\d+。请不要把验证码泄露给其他人。</v>
+        <v>蓝队网络提醒您:您的弹性云已开通了！用户名.{0,20}IP.{0,20}到期时间是.{0,30}</v>
       </c>
       <c r="C96" t="str">
         <v>reject</v>
@@ -1666,10 +1684,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>N824972_N5779929</v>
+        <v>N4049746</v>
       </c>
       <c r="B97" t="str">
-        <v>尊敬的客户你好.{2,4}我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.{2,4}元，请你尽快还款！</v>
+        <v>.+您的验证码是：\d+。请不要把验证码泄露给其他人。</v>
       </c>
       <c r="C97" t="str">
         <v>reject</v>
@@ -1680,10 +1698,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>M1345393</v>
+        <v>N824972_N5779929</v>
       </c>
       <c r="B98" t="str">
-        <v>亲爱的，您的神秘大礼包还未领取.*宝宝们快快戳进小白直播.*属于你们的大礼吧～http://www.xiaobaizhibo.com.*</v>
+        <v>尊敬的客户你好.{2,4}我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.{2,4}元，请你尽快还款！</v>
       </c>
       <c r="C98" t="str">
         <v>reject</v>
@@ -1694,10 +1712,10 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>N6452326</v>
+        <v>M1345393</v>
       </c>
       <c r="B99" t="str">
-        <v>菜无忧-系统已经为您重置密码，您的新密码为：\w+，您可以登录后修改密码！</v>
+        <v>亲爱的，您的神秘大礼包还未领取.*宝宝们快快戳进小白直播.*属于你们的大礼吧～http://www.xiaobaizhibo.com.*</v>
       </c>
       <c r="C99" t="str">
         <v>reject</v>
@@ -1708,21 +1726,24 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>M7014839</v>
+        <v>N6452326</v>
       </c>
       <c r="B100" t="str">
-        <v>尊敬的.{0,10}会员，您好！今天是个特殊而美好的的日子，我们衷心祝您生日快乐.*赶快登陆账户看看吧！退订回TD</v>
+        <v>菜无忧-系统已经为您重置密码，您的新密码为：\w+，您可以登录后修改密码！</v>
       </c>
       <c r="C100" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D100" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>M5331967</v>
+        <v>M7014839</v>
       </c>
       <c r="B101" t="str">
-        <v>.{0,8}，您好！登陆标天下商标注册网biaotianxia.com或微信关注\(标天下商标注册\)凭本短信或回复客服.*详情：400-118-2323退订回TD</v>
+        <v>尊敬的.{0,10}会员，您好！今天是个特殊而美好的的日子，我们衷心祝您生日快乐.*赶快登陆账户看看吧！退订回TD</v>
       </c>
       <c r="C101" t="str">
         <v>normal</v>
@@ -1730,49 +1751,43 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>N8930831</v>
+        <v>M5331967</v>
       </c>
       <c r="B102" t="str">
-        <v>验证码：.{0,8}，仅用于注册和找回密码，请勿泄露。电竞福利等你来拿！:http://www.dodovip.com</v>
+        <v>.{0,8}，您好！登陆标天下商标注册网biaotianxia.com或微信关注\(标天下商标注册\)凭本短信或回复客服.*详情：400-118-2323退订回TD</v>
       </c>
       <c r="C102" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D102" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>M1129616</v>
+        <v>N8930831</v>
       </c>
       <c r="B103" t="str">
-        <v>如何成为上市公司创始人或股东，如何三年打造一家主板上市公司，如何让企业轻松的融到更多的资金，2017年让公司不仅赚钱，还能变成一家值钱的企业？1月9—11号深圳《产业资本孵化流水线》让您有获得资本时代的红利，报名13922891115退订回TD</v>
+        <v>验证码：.{0,8}，仅用于注册和找回密码，请勿泄露。电竞福利等你来拿！:http://www.dodovip.com</v>
       </c>
       <c r="C103" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D103" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>N6244007</v>
+        <v>M1129616</v>
       </c>
       <c r="B104" t="str">
-        <v>您好，您正在进行找回密码，您的验证码：\d+</v>
-      </c>
-      <c r="C104" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D104" t="str">
-        <v>未加退订</v>
+        <v>如何成为上市公司创始人或股东，如何三年打造一家主板上市公司，如何让企业轻松的融到更多的资金，2017年让公司不仅赚钱，还能变成一家值钱的企业？1月9—11号深圳《产业资本孵化流水线》让您有获得资本时代的红利，报名13922891115退订回TD</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>N13066815811</v>
+        <v>N6244007</v>
       </c>
       <c r="B105" t="str">
-        <v>验证码：.{0,8}（30分钟内有效）欢迎加入「鲸灵社」。完成注册可收获礼盒，微鲸电视、格瓦拉电影兑换券等你拿。</v>
+        <v>您好，您正在进行找回密码，您的验证码：\d+</v>
       </c>
       <c r="C105" t="str">
         <v>reject</v>
@@ -1783,10 +1798,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>N4736145</v>
+        <v>N13066815811</v>
       </c>
       <c r="B106" t="str">
-        <v>您的验证码是\d+</v>
+        <v>验证码：.{0,8}（30分钟内有效）欢迎加入「鲸灵社」。完成注册可收获礼盒，微鲸电视、格瓦拉电影兑换券等你拿。</v>
       </c>
       <c r="C106" t="str">
         <v>reject</v>
@@ -1797,71 +1812,71 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>M1303173</v>
+        <v>N4736145</v>
       </c>
       <c r="B107" t="str">
-        <v>您好，由母婴行业观察主办的.*召开，欢迎您参加。报名地址.{0,10}http://dwz.cn/4CYI6h.{0,10}退订回TD</v>
+        <v>您的验证码是\d+</v>
       </c>
       <c r="C107" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D107" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>M5605804</v>
+        <v>M1303173</v>
       </c>
       <c r="B108" t="str">
-        <v>.*在超市一次性购物满.+单张小票限换一次，数量有限换完为止.*单张小票限送一份\（油类，米类，蛋类，奶类\）不参与活动，数量有限，送完为止。退订回TD</v>
+        <v>您好，由母婴行业观察主办的.*召开，欢迎您参加。报名地址.{0,10}http://dwz.cn/4CYI6h.{0,10}退订回TD</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>N2970938</v>
+        <v>M5605804</v>
       </c>
       <c r="B109" t="str">
-        <v>注册短信校验码：\d+，请勿向任何人提供此验证码，谨防风险。</v>
+        <v>.*在超市一次性购物满.+单张小票限换一次，数量有限换完为止.*单张小票限送一份\（油类，米类，蛋类，奶类\）不参与活动，数量有限，送完为止。退订回TD</v>
       </c>
       <c r="C109" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D109" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>M2664070</v>
+        <v>N2970938</v>
       </c>
       <c r="B110" t="str">
-        <v>\w+月\w+日至\w+月\w+日！周年庆第二波，凭会员卡购物双倍积分！圆粉丝\w+.\w+元！干香菇\w+.\w+元！退订回TD</v>
+        <v>注册短信校验码：\d+，请勿向任何人提供此验证码，谨防风险。</v>
       </c>
       <c r="C110" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D110" t="str">
-        <v>类别：normal</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>N9298771</v>
+        <v>M2664070</v>
       </c>
       <c r="B111" t="str">
-        <v>提醒：您的注册码是：\w+，有效期30分钟。请勿将验证码泄露给任何人！</v>
+        <v>\w+月\w+日至\w+月\w+日！周年庆第二波，凭会员卡购物双倍积分！圆粉丝\w+.\w+元！干香菇\w+.\w+元！退订回TD</v>
       </c>
       <c r="C111" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D111" t="str">
-        <v>未加退订</v>
+        <v>类别：normal</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>N7779507</v>
+        <v>N9298771</v>
       </c>
       <c r="B112" t="str">
-        <v>有新的取款信息等您处理，请登录后台处理问题。</v>
+        <v>提醒：您的注册码是：\w+，有效期30分钟。请勿将验证码泄露给任何人！</v>
       </c>
       <c r="C112" t="str">
         <v>reject</v>
@@ -1872,35 +1887,35 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>M1341782</v>
+        <v>N7779507</v>
       </c>
       <c r="B113" t="str">
-        <v>亲爱的“吾麦道面馆”会员们，感谢您在本店消费并成为会员.*加微信\d*可以咨询哦！退订回TD</v>
+        <v>有新的取款信息等您处理，请登录后台处理问题。</v>
       </c>
       <c r="C113" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D113" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>N8325675</v>
+        <v>M1341782</v>
       </c>
       <c r="B114" t="str">
-        <v>.{0,10}您好,您的样品.*公司已经收到。河北思科立珂石油科技有限责任公司.*www.scoilmic.net</v>
+        <v>亲爱的“吾麦道面馆”会员们，感谢您在本店消费并成为会员.*加微信\d*可以咨询哦！退订回TD</v>
       </c>
       <c r="C114" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D114" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>N8388342</v>
+        <v>N8325675</v>
       </c>
       <c r="B115" t="str">
-        <v>您预订了.+的课程，请准时上课！</v>
+        <v>.{0,10}您好,您的样品.*公司已经收到。河北思科立珂石油科技有限责任公司.*www.scoilmic.net</v>
       </c>
       <c r="C115" t="str">
         <v>reject</v>
@@ -1911,10 +1926,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>N9090212</v>
+        <v>N8388342</v>
       </c>
       <c r="B116" t="str">
-        <v>你的验证码.{0,15}请妥善保管，合理使用。来自华南创投媒体“闹客邦”。</v>
+        <v>您预订了.+的课程，请准时上课！</v>
       </c>
       <c r="C116" t="str">
         <v>reject</v>
@@ -1925,10 +1940,10 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>N2937014</v>
+        <v>N9090212</v>
       </c>
       <c r="B117" t="str">
-        <v>尊敬的会员：您好!您正在圆美梦商城进行积分兑换活动,该次验证码为:\d+,有效时间五分钟.+如非本人操作,请忽略此短信,请勿泄露验证码!]</v>
+        <v>你的验证码.{0,15}请妥善保管，合理使用。来自华南创投媒体“闹客邦”。</v>
       </c>
       <c r="C117" t="str">
         <v>reject</v>
@@ -1939,35 +1954,35 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>M6951228</v>
+        <v>N2937014</v>
       </c>
       <c r="B118" t="str">
-        <v>总理点赞的橙子。现摘现发顺丰包邮。送领导送客户。如果您在等橙子最好吃的时候，那这月一定要来尝尝!加葳薪Rox105退订回TD</v>
+        <v>尊敬的会员：您好!您正在圆美梦商城进行积分兑换活动,该次验证码为:\d+,有效时间五分钟.+如非本人操作,请忽略此短信,请勿泄露验证码!]</v>
       </c>
       <c r="C118" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D118" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>M7150517</v>
+        <v>M6951228</v>
       </c>
       <c r="B119" t="str">
-        <v>投资人您好：新安左右贷.*同步上线，登录官网：www.xamoney.com，扫描首页右上方“手机APP”二维码下载吧！.{0,10}</v>
+        <v>总理点赞的橙子。现摘现发顺丰包邮。送领导送客户。如果您在等橙子最好吃的时候，那这月一定要来尝尝!加葳薪Rox105退订回TD</v>
       </c>
       <c r="C119" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D119" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>N8930831</v>
+        <v>M7150517</v>
       </c>
       <c r="B120" t="str">
-        <v>验证码:\d+,仅用于注册和找回密码,请勿泄露。</v>
+        <v>投资人您好：新安左右贷.*同步上线，登录官网：www.xamoney.com，扫描首页右上方“手机APP”二维码下载吧！.{0,10}</v>
       </c>
       <c r="C120" t="str">
         <v>reject</v>
@@ -1981,7 +1996,7 @@
         <v>N8930831</v>
       </c>
       <c r="B121" t="str">
-        <v>您在.*店铺的会员帐户,正在激活并绑定微信,验证码:\d+。</v>
+        <v>验证码:\d+,仅用于注册和找回密码,请勿泄露。</v>
       </c>
       <c r="C121" t="str">
         <v>reject</v>
@@ -1992,68 +2007,68 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>M2297143</v>
+        <v>N8930831</v>
       </c>
       <c r="B122" t="str">
-        <v>尊敬的.{0,10}您好，济南金百合医疗器械有限公司.*地址：山东省济南市历下区泺源大街53号.*时间.+退订回TD</v>
+        <v>您在.*店铺的会员帐户,正在激活并绑定微信,验证码:\d+。</v>
       </c>
       <c r="C122" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D122" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>N5927922</v>
+        <v>M2297143</v>
       </c>
       <c r="B123" t="str">
-        <v>你好,你的注册验证码是:.{2,8}</v>
+        <v>尊敬的.{0,10}您好，济南金百合医疗器械有限公司.*地址：山东省济南市历下区泺源大街53号.*时间.+退订回TD</v>
       </c>
       <c r="C123" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D123" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>M7959731</v>
+        <v>N5927922</v>
       </c>
       <c r="B124" t="str">
-        <v>眉山移动温馨提示.*数量不多，先到先得。退订回TD</v>
+        <v>你好,你的注册验证码是:.{2,8}</v>
       </c>
       <c r="C124" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D124" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>M7014839</v>
+        <v>M7959731</v>
       </c>
       <c r="B125" t="str">
-        <v>尊敬的投资人，您好！平台优质项目.*还款方式：按期收息，到期还本。更多标的详情，敬请登录网站查看。溢诚感恩一路有你！400-997-6868。退订回TD</v>
+        <v>眉山移动温馨提示.*数量不多，先到先得。退订回TD</v>
+      </c>
+      <c r="C125" t="str">
+        <v>normal</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>N3560116</v>
+        <v>M7014839</v>
       </c>
       <c r="B126" t="str">
-        <v>您的订单已经提交成功，请等待收货。</v>
-      </c>
-      <c r="C126" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D126" t="str">
-        <v>未加退订</v>
+        <v>尊敬的投资人，您好！平台优质项目.*还款方式：按期收息，到期还本。更多标的详情，敬请登录网站查看。溢诚感恩一路有你！400-997-6868。退订回TD</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>N9298771</v>
+        <v>N3560116</v>
       </c>
       <c r="B127" t="str">
-        <v>客服中心有一份新订单，请及时推送。</v>
+        <v>您的订单已经提交成功，请等待收货。</v>
       </c>
       <c r="C127" t="str">
         <v>reject</v>
@@ -2064,10 +2079,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>N8535724</v>
+        <v>N9298771</v>
       </c>
       <c r="B128" t="str">
-        <v>您好：.{0,20}您正在操作修改云主机密码，验证码为.{0,10}有效期5分钟。（蓝队客服绝不会索取此验证码，切勿告知他人）</v>
+        <v>客服中心有一份新订单，请及时推送。</v>
       </c>
       <c r="C128" t="str">
         <v>reject</v>
@@ -2078,35 +2093,35 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>M9230769</v>
+        <v>N8535724</v>
       </c>
       <c r="B129" t="str">
-        <v>你离理想生活只缺一步，颐景园.{0,18}样板房筹备进行时，窗帘、墙纸、灯饰、定制家具、成品家具效果眼见为实，我们期待与您的见面！退订回TD.{0,2}</v>
+        <v>您好：.{0,20}您正在操作修改云主机密码，验证码为.{0,10}有效期5分钟。（蓝队客服绝不会索取此验证码，切勿告知他人）</v>
       </c>
       <c r="C129" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D129" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>N4145870</v>
+        <v>M9230769</v>
       </c>
       <c r="B130" t="str">
-        <v>.{2,20}预约挂号中心提示：您的专家门诊预约号已取消，原预约号保留一周，一周内仍可凭此号空腹到院进行就诊！如有疑问随时拨打0551-63653558咨询！近期注意饮食及作息时间，祝您早日康复！</v>
+        <v>你离理想生活只缺一步，颐景园.{0,18}样板房筹备进行时，窗帘、墙纸、灯饰、定制家具、成品家具效果眼见为实，我们期待与您的见面！退订回TD.{0,2}</v>
       </c>
       <c r="C130" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D130" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>N2667198</v>
+        <v>N4145870</v>
       </c>
       <c r="B131" t="str">
-        <v>你的验证码.{0,10}利安人寿祝你家庭生活幸福美满！</v>
+        <v>.{2,20}预约挂号中心提示：您的专家门诊预约号已取消，原预约号保留一周，一周内仍可凭此号空腹到院进行就诊！如有疑问随时拨打0551-63653558咨询！近期注意饮食及作息时间，祝您早日康复！</v>
       </c>
       <c r="C131" t="str">
         <v>reject</v>
@@ -2117,21 +2132,24 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>M7150517</v>
+        <v>N2667198</v>
       </c>
       <c r="B132" t="str">
-        <v>尊敬的.*您在合肥新安小额贷款股份有限公司的借款.*请及时还款。退订回TD</v>
+        <v>你的验证码.{0,10}利安人寿祝你家庭生活幸福美满！</v>
       </c>
       <c r="C132" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D132" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>M8503966</v>
+        <v>M7150517</v>
       </c>
       <c r="B133" t="str">
-        <v>尊敬的会员你好科隆健身定于本月.{0,12}举行圣诞狂欢晚会诚邀您及家人朋友前来参加咨询电话.{0,12}退订回复TD.{0,2}</v>
+        <v>尊敬的.*您在合肥新安小额贷款股份有限公司的借款.*请及时还款。退订回TD</v>
       </c>
       <c r="C133" t="str">
         <v>normal</v>
@@ -2139,66 +2157,63 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>N9298771</v>
+        <v>M8503966</v>
       </c>
       <c r="B134" t="str">
-        <v>您好，您的订单已派送给修车工人.*，他将尽快到达。如有疑问，请拨打8208820与客服中心联系。</v>
+        <v>尊敬的会员你好科隆健身定于本月.{0,12}举行圣诞狂欢晚会诚邀您及家人朋友前来参加咨询电话.{0,12}退订回复TD.{0,2}</v>
       </c>
       <c r="C134" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D134" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>M7290174</v>
+        <v>N9298771</v>
       </c>
       <c r="B135" t="str">
-        <v>江阴华夏海马汽车特别提醒12月份汽车保养用户：请您根据爱车的行使里程，合理安排保养时间.*华夏汽车】退订回TD</v>
+        <v>您好，您的订单已派送给修车工人.*，他将尽快到达。如有疑问，请拨打8208820与客服中心联系。</v>
       </c>
       <c r="C135" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D135" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>N1261882</v>
+        <v>M7290174</v>
       </c>
       <c r="B136" t="str">
-        <v>您已成功预约.+时间的号，请于就诊当天带上身份证和卡号为\d*就诊卡到.+窗口办理实名认证后缴费就诊。</v>
+        <v>江阴华夏海马汽车特别提醒12月份汽车保养用户：请您根据爱车的行使里程，合理安排保养时间.*华夏汽车】退订回TD</v>
       </c>
       <c r="C136" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D136" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>M2628831</v>
+        <v>N1261882</v>
       </c>
       <c r="B137" t="str">
-        <v>温馨提醒：尊敬的业主，寒冬已到来，近日还会有雪天，请注意安全驾驶，温州城地下车库优惠促销，机会有限，先到先得。白雪皑皑，快给爱车选个家吧！退订回TD</v>
+        <v>您已成功预约.+时间的号，请于就诊当天带上身份证和卡号为\d*就诊卡到.+窗口办理实名认证后缴费就诊。</v>
       </c>
       <c r="C137" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D137" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>N1261882</v>
+        <v>M2628831</v>
       </c>
       <c r="B138" t="str">
-        <v>已缴费人民币\d*元，成功预约吉林省中医院.*请准时到医院凭就诊卡\（卡号信息\d*\）在预约专用窗口打印挂号票据。</v>
+        <v>温馨提醒：尊敬的业主，寒冬已到来，近日还会有雪天，请注意安全驾驶，温州城地下车库优惠促销，机会有限，先到先得。白雪皑皑，快给爱车选个家吧！退订回TD</v>
       </c>
       <c r="C138" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D138" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="139">
@@ -2206,7 +2221,7 @@
         <v>N1261882</v>
       </c>
       <c r="B139" t="str">
-        <v>.*您好！您已经成功取消了到诊日期为.+门诊号</v>
+        <v>已缴费人民币\d*元，成功预约吉林省中医院.*请准时到医院凭就诊卡\（卡号信息\d*\）在预约专用窗口打印挂号票据。</v>
       </c>
       <c r="C139" t="str">
         <v>reject</v>
@@ -2220,7 +2235,7 @@
         <v>N1261882</v>
       </c>
       <c r="B140" t="str">
-        <v>您的订单号.*已成功申请退费。退费金额将从支付方原路退回，请注意查看。</v>
+        <v>.*您好！您已经成功取消了到诊日期为.+门诊号</v>
       </c>
       <c r="C140" t="str">
         <v>reject</v>
@@ -2231,49 +2246,52 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>M3390424</v>
+        <v>N1261882</v>
       </c>
       <c r="B141" t="str">
-        <v>12.*贡桔.*元。退订回TD</v>
+        <v>您的订单号.*已成功申请退费。退费金额将从支付方原路退回，请注意查看。</v>
       </c>
       <c r="C141" t="str">
         <v>reject</v>
       </c>
       <c r="D141" t="str">
-        <v>类别：63</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>M8272624</v>
+        <v>M3390424</v>
       </c>
       <c r="B142" t="str">
-        <v>.*岗位你来不？包吃包住不加班，工作轻松工资高，立戳开撩 http://dwz.cn.*退订回TD</v>
+        <v>12.*贡桔.*元。退订回TD</v>
       </c>
       <c r="C142" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D142" t="str">
+        <v>类别：63</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>N8348288</v>
+        <v>M8272624</v>
       </c>
       <c r="B143" t="str">
-        <v>您本次验证码:\w+,10分钟内有效</v>
+        <v>.*岗位你来不？包吃包住不加班，工作轻松工资高，立戳开撩 http://dwz.cn.*退订回TD</v>
       </c>
       <c r="C143" t="str">
         <v>reject</v>
       </c>
       <c r="D143" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>N8678056</v>
+        <v>N8348288</v>
       </c>
       <c r="B144" t="str">
-        <v>此验证码只用于注册你的账号，验证码提供给他人将导致募才账号被盗。.{2,25}再次提醒，请勿转发</v>
+        <v>您本次验证码:\w+,10分钟内有效</v>
       </c>
       <c r="C144" t="str">
         <v>reject</v>
@@ -2284,10 +2302,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>N5979074</v>
+        <v>N8678056</v>
       </c>
       <c r="B145" t="str">
-        <v>您的验证码是：\d*。请不要把验证码泄露给其他人。</v>
+        <v>此验证码只用于注册你的账号，验证码提供给他人将导致募才账号被盗。.{2,25}再次提醒，请勿转发</v>
       </c>
       <c r="C145" t="str">
         <v>reject</v>
@@ -2298,10 +2316,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>N3620301</v>
+        <v>N5979074</v>
       </c>
       <c r="B146" t="str">
-        <v>尊敬的用户，您的验证码为.{0,10}为了您的账户安全请务必保存好您的验证码，勿向任何人透漏!</v>
+        <v>您的验证码是：\d*。请不要把验证码泄露给其他人。</v>
       </c>
       <c r="C146" t="str">
         <v>reject</v>
@@ -2312,10 +2330,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>N8994322</v>
+        <v>N3620301</v>
       </c>
       <c r="B147" t="str">
-        <v>预订编号.+</v>
+        <v>尊敬的用户，您的验证码为.{0,10}为了您的账户安全请务必保存好您的验证码，勿向任何人透漏!</v>
       </c>
       <c r="C147" t="str">
         <v>reject</v>
@@ -2329,7 +2347,7 @@
         <v>N8994322</v>
       </c>
       <c r="B148" t="str">
-        <v>尊敬.+火车.+</v>
+        <v>预订编号.+</v>
       </c>
       <c r="C148" t="str">
         <v>reject</v>
@@ -2343,7 +2361,7 @@
         <v>N8994322</v>
       </c>
       <c r="B149" t="str">
-        <v>您有.+新的会议要参加，会议名称.+，请登录网址http://t.cn/RViEMlt查看.+</v>
+        <v>尊敬.+火车.+</v>
       </c>
       <c r="C149" t="str">
         <v>reject</v>
@@ -2357,7 +2375,7 @@
         <v>N8994322</v>
       </c>
       <c r="B150" t="str">
-        <v>订单.+请及时关注！</v>
+        <v>您有.+新的会议要参加，会议名称.+，请登录网址http://t.cn/RViEMlt查看.+</v>
       </c>
       <c r="C150" t="str">
         <v>reject</v>
@@ -2368,35 +2386,35 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>M3917225</v>
+        <v>N8994322</v>
       </c>
       <c r="B151" t="str">
-        <v>原二人转大舞台搬迁至七经街文化宫.*抢票2221116退订回TD</v>
+        <v>订单.+请及时关注！</v>
       </c>
       <c r="C151" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D151" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>N3438022</v>
+        <v>M3917225</v>
       </c>
       <c r="B152" t="str">
-        <v>尊敬的.{0,10}您好，近期有不法分子冒充任达养老工作人员邀约您参加两天一夜游及外出购物活动，为了保证您的权益和安全.*任达养老集团\d*年\d*月\d*日</v>
+        <v>原二人转大舞台搬迁至七经街文化宫.*抢票2221116退订回TD</v>
       </c>
       <c r="C152" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D152" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>N7963607</v>
+        <v>N3438022</v>
       </c>
       <c r="B153" t="str">
-        <v>.*项目，订单编号.{0,10}卖家已发货，请注意签收。</v>
+        <v>尊敬的.{0,10}您好，近期有不法分子冒充任达养老工作人员邀约您参加两天一夜游及外出购物活动，为了保证您的权益和安全.*任达养老集团\d*年\d*月\d*日</v>
       </c>
       <c r="C153" t="str">
         <v>reject</v>
@@ -2410,7 +2428,7 @@
         <v>N7963607</v>
       </c>
       <c r="B154" t="str">
-        <v>.*您有新的询价单需要报价.*项目，询价编号.*截至日期.*登录网站或APP即可报价。</v>
+        <v>.*项目，订单编号.{0,10}卖家已发货，请注意签收。</v>
       </c>
       <c r="C154" t="str">
         <v>reject</v>
@@ -2424,7 +2442,7 @@
         <v>N7963607</v>
       </c>
       <c r="B155" t="str">
-        <v>.+项目，订单编号.+由于信息错误被撤回，很抱歉给您带来不便，敬请谅解！</v>
+        <v>.*您有新的询价单需要报价.*项目，询价编号.*截至日期.*登录网站或APP即可报价。</v>
       </c>
       <c r="C155" t="str">
         <v>reject</v>
@@ -2435,10 +2453,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>N3438022</v>
+        <v>N7963607</v>
       </c>
       <c r="B156" t="str">
-        <v>尊敬的.{0,10}，您好!您的宽带账号.*因到期未续费,已停用。重新开通需缴纳.*感谢对我们工作的支持与配合</v>
+        <v>.+项目，订单编号.+由于信息错误被撤回，很抱歉给您带来不便，敬请谅解！</v>
       </c>
       <c r="C156" t="str">
         <v>reject</v>
@@ -2449,10 +2467,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>N5473131</v>
+        <v>N3438022</v>
       </c>
       <c r="B157" t="str">
-        <v>.{0,8}注册验证码.{0,10}五分钟内有效</v>
+        <v>尊敬的.{0,10}，您好!您的宽带账号.*因到期未续费,已停用。重新开通需缴纳.*感谢对我们工作的支持与配合</v>
       </c>
       <c r="C157" t="str">
         <v>reject</v>
@@ -2463,27 +2481,30 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>M5382321</v>
+        <v>N5473131</v>
       </c>
       <c r="B158" t="str">
-        <v>好消息！一公里给您送钱啦，下载APP送15元，首单满.*快来下单吧！http://s881.com.*回TD退订</v>
+        <v>.{0,8}注册验证码.{0,10}五分钟内有效</v>
       </c>
       <c r="C158" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D158" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>N2667198</v>
+        <v>M5382321</v>
       </c>
       <c r="B159" t="str">
-        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*</v>
+        <v>好消息！一公里给您送钱啦，下载APP送15元，首单满.*快来下单吧！http://s881.com.*回TD退订</v>
       </c>
       <c r="C159" t="str">
         <v>reject</v>
       </c>
       <c r="D159" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="160">
@@ -2491,32 +2512,29 @@
         <v>N2667198</v>
       </c>
       <c r="B160" t="str">
-        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*。回复TD退订</v>
+        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*</v>
       </c>
       <c r="C160" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D160" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>N7963607</v>
+        <v>N2667198</v>
       </c>
       <c r="B161" t="str">
-        <v>恭喜贵公司申请的.+\([a-zA-Z]+\)品牌审核通过，即可发布该品牌相关商品，祝贵公司财源广进，日进斗金！</v>
-      </c>
-      <c r="C161" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D161" t="str">
-        <v>未加退订</v>
+        <v>.{0,10}车牌.*车主.{0,10}核保成功，交强险.*车船税.*商业险总金额\d+\.?\d*，合计保费金额\d+\.?\d*。回复TD退订</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>N7911438</v>
+        <v>N7963607</v>
       </c>
       <c r="B162" t="str">
-        <v>各位采购商您好，我市场从\d+年\d+月\d+日\d+时\d+分起对.*的交易补贴标准调整为\d+元/吨，其他品种补贴标准不变，敬请知悉。</v>
+        <v>恭喜贵公司申请的.+\([a-zA-Z]+\)品牌审核通过，即可发布该品牌相关商品，祝贵公司财源广进，日进斗金！</v>
       </c>
       <c r="C162" t="str">
         <v>reject</v>
@@ -2527,18 +2545,24 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>M3675880</v>
+        <v>N7911438</v>
       </c>
       <c r="B163" t="str">
-        <v>上海新科医院重要通知！由第二届京沪精神名医上海新科医院彭军教授、上海长征医院吴萍嘉教授、北京大学第六医院田运华教授在我院联合出诊，望预约成功的化治疗患者及家属安排好就诊时间，为避免窗口挂号造成拥堵，不能有效安排会诊时间，可在线预约，开放预约挂号时间：2016.12.18-12.25日，点击链接在线预约：http://m.xinkejingshen.com；详情致电：0215－2721599,退订回TD</v>
+        <v>各位采购商您好，我市场从\d+年\d+月\d+日\d+时\d+分起对.*的交易补贴标准调整为\d+元/吨，其他品种补贴标准不变，敬请知悉。</v>
+      </c>
+      <c r="C163" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D163" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>M5262635</v>
+        <v>M3675880</v>
       </c>
       <c r="B164" t="str">
-        <v>.+目前正在同步区块连接中,请等待.*当前时间.+退订回TD</v>
+        <v>上海新科医院重要通知！由第二届京沪精神名医上海新科医院彭军教授、上海长征医院吴萍嘉教授、北京大学第六医院田运华教授在我院联合出诊，望预约成功的化治疗患者及家属安排好就诊时间，为避免窗口挂号造成拥堵，不能有效安排会诊时间，可在线预约，开放预约挂号时间：2016.12.18-12.25日，点击链接在线预约：http://m.xinkejingshen.com；详情致电：0215－2721599,退订回TD</v>
       </c>
       <c r="C164" t="str">
         <v>normal</v>
@@ -2546,24 +2570,21 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>N7911438</v>
+        <v>M5262635</v>
       </c>
       <c r="B165" t="str">
-        <v>您好，您的验证码是.{2,10}</v>
+        <v>.+目前正在同步区块连接中,请等待.*当前时间.+退订回TD</v>
       </c>
       <c r="C165" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D165" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>N7963607</v>
+        <v>N7911438</v>
       </c>
       <c r="B166" t="str">
-        <v>.*项目，订单编号.*交易成功，感谢您对我们平台的支持，本次交易获得.*详情请登录查看。</v>
+        <v>您好，您的验证码是.{2,10}</v>
       </c>
       <c r="C166" t="str">
         <v>reject</v>
@@ -2577,7 +2598,7 @@
         <v>N7963607</v>
       </c>
       <c r="B167" t="str">
-        <v>.+项目采购商已付款，订单编号.+根据协议内容距离到货日期还有7天，请尽快准备好货准时发货。如已准备好，请忽略！</v>
+        <v>.*项目，订单编号.*交易成功，感谢您对我们平台的支持，本次交易获得.*详情请登录查看。</v>
       </c>
       <c r="C167" t="str">
         <v>reject</v>
@@ -2588,10 +2609,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>N5408348</v>
+        <v>N7963607</v>
       </c>
       <c r="B168" t="str">
-        <v>您好，您的验证码是.{0,10}</v>
+        <v>.+项目采购商已付款，订单编号.+根据协议内容距离到货日期还有7天，请尽快准备好货准时发货。如已准备好，请忽略！</v>
       </c>
       <c r="C168" t="str">
         <v>reject</v>
@@ -2602,10 +2623,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>N1686159</v>
+        <v>N5408348</v>
       </c>
       <c r="B169" t="str">
-        <v>顾客您好，您的手机动态验证码为：\d*。该码\d*分钟内有效且只能输入\d*次，若\d*分钟内未输入，需重新获取。</v>
+        <v>您好，您的验证码是.{0,10}</v>
       </c>
       <c r="C169" t="str">
         <v>reject</v>
@@ -2616,71 +2637,68 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>M8097078</v>
+        <v>N1686159</v>
       </c>
       <c r="B170" t="str">
-        <v>2017年1月1日起，高收益两年期产品火爆开抢！开抢倒计时12天，额度有限，速来网点预约。详询当地邮政或拨打65248637回复TD退订</v>
+        <v>顾客您好，您的手机动态验证码为：\d*。该码\d*分钟内有效且只能输入\d*次，若\d*分钟内未输入，需重新获取。</v>
       </c>
       <c r="C170" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D170" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>M8219163</v>
+        <v>M8097078</v>
       </c>
       <c r="B171" t="str">
-        <v>12.20号-22号促销商品：西兰花3.48元，药芹1.99元，生菜1.38元，鲜蘑菇5.98元，白虾19.9元，白鲢2.58元，冷冻扇子骨9.9元，油炸花生米6.58元，熟鹌鹑蛋5.58元，黑木耳中片35.8元。退订回TD</v>
-      </c>
-      <c r="C171" t="str">
-        <v>normal</v>
+        <v>2017年1月1日起，高收益两年期产品火爆开抢！开抢倒计时12天，额度有限，速来网点预约。详询当地邮政或拨打65248637回复TD退订</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>M7388401</v>
+        <v>M8219163</v>
       </c>
       <c r="B172" t="str">
-        <v>瓜牛统招保险代理人，高收入、免垫资、强强联合，实力打造，瓜牛保险期待您的加入。退订回TD</v>
+        <v>12.20号-22号促销商品：西兰花3.48元，药芹1.99元，生菜1.38元，鲜蘑菇5.98元，白虾19.9元，白鲢2.58元，冷冻扇子骨9.9元，油炸花生米6.58元，熟鹌鹑蛋5.58元，黑木耳中片35.8元。退订回TD</v>
       </c>
       <c r="C172" t="str">
         <v>normal</v>
-      </c>
-      <c r="D172" t="str">
-        <v>类别：1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>M4864226</v>
+        <v>M7388401</v>
       </c>
       <c r="B173" t="str">
-        <v>尊敬的沃去用户，为避免造成误扣费用，请更新沃去到最新版本.+请仔细阅读并遵守协议运行程序。最新版下载地址:http://www.wetripay.com.+回TD退订</v>
+        <v>瓜牛统招保险代理人，高收入、免垫资、强强联合，实力打造，瓜牛保险期待您的加入。退订回TD</v>
       </c>
       <c r="C173" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D173" t="str">
+        <v>类别：1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>N5142803</v>
+        <v>M4864226</v>
       </c>
       <c r="B174" t="str">
-        <v>各位蔬菜经营户，您好，为保障城市蔬菜供应、响应政府号召、维护菜价基本稳定，我市场决定从\d+年\d+月\d+日\d+时起对蔬菜送货车辆免收进场费，市场方经与蔬菜协会沟通，决定所有经营商户同步免收采购商力资费，如有违反市场方将联合协会严正处理，敬请配合，电话88105983，敬请知悉！</v>
+        <v>尊敬的沃去用户，为避免造成误扣费用，请更新沃去到最新版本.+请仔细阅读并遵守协议运行程序。最新版下载地址:http://www.wetripay.com.+回TD退订</v>
       </c>
       <c r="C174" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D174" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>N5523562</v>
+        <v>N5142803</v>
       </c>
       <c r="B175" t="str">
-        <v>恭喜您成功报名“首都市民音乐厅——2017新年音乐会”。请于.*至首都图书馆B座2层剧场入口领取演出票。领票时请携带注册身份证件及报名成功短信进行兑换。每个身份证兑换一张演出票。首都图书馆地址.*温馨提示.*</v>
+        <v>各位蔬菜经营户，您好，为保障城市蔬菜供应、响应政府号召、维护菜价基本稳定，我市场决定从\d+年\d+月\d+日\d+时起对蔬菜送货车辆免收进场费，市场方经与蔬菜协会沟通，决定所有经营商户同步免收采购商力资费，如有违反市场方将联合协会严正处理，敬请配合，电话88105983，敬请知悉！</v>
       </c>
       <c r="C175" t="str">
         <v>reject</v>
@@ -2694,7 +2712,7 @@
         <v>N5523562</v>
       </c>
       <c r="B176" t="str">
-        <v>恭喜您成功报名.*温馨提示：由于北京电视台将对本场演出进行现场直播，请您提前15分钟进场参与活动，并遵守专业剧场的相关规定，配合工作人员保证现场秩序。请勿携带茶水、咖啡等有色饮品及任何食品入场。感谢您的理解与配合。</v>
+        <v>恭喜您成功报名“首都市民音乐厅——2017新年音乐会”。请于.*至首都图书馆B座2层剧场入口领取演出票。领票时请携带注册身份证件及报名成功短信进行兑换。每个身份证兑换一张演出票。首都图书馆地址.*温馨提示.*</v>
       </c>
       <c r="C176" t="str">
         <v>reject</v>
@@ -2705,10 +2723,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>N3189631</v>
+        <v>N5523562</v>
       </c>
       <c r="B177" t="str">
-        <v>您好，您的验证码是.{0,15}</v>
+        <v>恭喜您成功报名.*温馨提示：由于北京电视台将对本场演出进行现场直播，请您提前15分钟进场参与活动，并遵守专业剧场的相关规定，配合工作人员保证现场秩序。请勿携带茶水、咖啡等有色饮品及任何食品入场。感谢您的理解与配合。</v>
       </c>
       <c r="C177" t="str">
         <v>reject</v>
@@ -2719,10 +2737,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>N6164610</v>
+        <v>N3189631</v>
       </c>
       <c r="B178" t="str">
-        <v>您好！欢迎注册平江社会扶贫平台，你的验证码是.{0,12}请注意保存，不要透露给任何人.{0,12}钟内有效。</v>
+        <v>您好，您的验证码是.{0,15}</v>
       </c>
       <c r="C178" t="str">
         <v>reject</v>
@@ -2733,27 +2751,27 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>M7980461</v>
+        <v>N6164610</v>
       </c>
       <c r="B179" t="str">
-        <v>上海回力鞋业，三塘专卖店，年货大备战，年底大清仓。全场出厂价6.8折，前一百名送拖鞋一双，或袜子一双，先到先得，活动时间12月21日至12月31日。退订回复TD</v>
+        <v>您好！欢迎注册平江社会扶贫平台，你的验证码是.{0,12}请注意保存，不要透露给任何人.{0,12}钟内有效。</v>
       </c>
       <c r="C179" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D179" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>N5030495</v>
+        <v>M7980461</v>
       </c>
       <c r="B180" t="str">
-        <v>你正在申请重置密码，验证码为.{0,15}有效期为2小时，宁夏耀顺资产员工不会以任何形式索要验证码，请勿泄露他人以防账号被盗。</v>
+        <v>上海回力鞋业，三塘专卖店，年货大备战，年底大清仓。全场出厂价6.8折，前一百名送拖鞋一双，或袜子一双，先到先得，活动时间12月21日至12月31日。退订回复TD</v>
       </c>
       <c r="C180" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D180" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="181">
@@ -2761,7 +2779,7 @@
         <v>N5030495</v>
       </c>
       <c r="B181" t="str">
-        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
+        <v>你正在申请重置密码，验证码为.{0,15}有效期为2小时，宁夏耀顺资产员工不会以任何形式索要验证码，请勿泄露他人以防账号被盗。</v>
       </c>
       <c r="C181" t="str">
         <v>reject</v>
@@ -2772,10 +2790,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>N5148682</v>
+        <v>N5030495</v>
       </c>
       <c r="B182" t="str">
-        <v>尊敬的用户，您好！您正在注册博慈尚爱。验证码是：\d*。请于\d*分钟内输入。工作人员不会向您索取验证码，请勿泄露。</v>
+        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
       </c>
       <c r="C182" t="str">
         <v>reject</v>
@@ -2786,10 +2804,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>N7080731</v>
+        <v>N5148682</v>
       </c>
       <c r="B183" t="str">
-        <v>尊敬的用户！您于.+成功充值话费\d*元。感谢您的使用！</v>
+        <v>尊敬的用户，您好！您正在注册博慈尚爱。验证码是：\d*。请于\d*分钟内输入。工作人员不会向您索取验证码，请勿泄露。</v>
       </c>
       <c r="C183" t="str">
         <v>reject</v>
@@ -2800,10 +2818,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>N2716352</v>
+        <v>N7080731</v>
       </c>
       <c r="B184" t="str">
-        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全，请勿将验证码短信转发给他人。</v>
+        <v>尊敬的用户！您于.+成功充值话费\d*元。感谢您的使用！</v>
       </c>
       <c r="C184" t="str">
         <v>reject</v>
@@ -2814,10 +2832,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>N1333913</v>
+        <v>N2716352</v>
       </c>
       <c r="B185" t="str">
-        <v>尊敬的.{2,5}我司已为您安排进行打款，请您留意收款银行卡的余额变动。预计2小时内到账，具体到账时间请以银行为准</v>
+        <v>您的验证码为：\d+，请在一小时内输入，为保障您的账号安全，请勿将验证码短信转发给他人。</v>
       </c>
       <c r="C185" t="str">
         <v>reject</v>
@@ -2828,10 +2846,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>N6486332</v>
+        <v>N1333913</v>
       </c>
       <c r="B186" t="str">
-        <v>.*于2016年.*月总共消费.{0,8}元，余额.{0,8}元。</v>
+        <v>尊敬的.{2,5}我司已为您安排进行打款，请您留意收款银行卡的余额变动。预计2小时内到账，具体到账时间请以银行为准</v>
       </c>
       <c r="C186" t="str">
         <v>reject</v>
@@ -2842,10 +2860,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>N5030495</v>
+        <v>N6486332</v>
       </c>
       <c r="B187" t="str">
-        <v>宁夏耀顺资产管理员,您好.*已满标,请进行审核放款.</v>
+        <v>.*于2016年.*月总共消费.{0,8}元，余额.{0,8}元。</v>
       </c>
       <c r="C187" t="str">
         <v>reject</v>
@@ -2859,7 +2877,7 @@
         <v>N5030495</v>
       </c>
       <c r="B188" t="str">
-        <v>尊敬的宁夏耀顺资产客户，您的.*查收，如有疑问，请致电086-0755-26909876.</v>
+        <v>宁夏耀顺资产管理员,您好.*已满标,请进行审核放款.</v>
       </c>
       <c r="C188" t="str">
         <v>reject</v>
@@ -2870,10 +2888,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>N18701840782</v>
+        <v>N5030495</v>
       </c>
       <c r="B189" t="str">
-        <v>恭喜您获得微鲸官网满3000减200元购物券\（有效期至2017年2月10日\），兑换码.+</v>
+        <v>尊敬的宁夏耀顺资产客户，您的.*查收，如有疑问，请致电086-0755-26909876.</v>
       </c>
       <c r="C189" t="str">
         <v>reject</v>
@@ -2884,10 +2902,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>N8609344</v>
+        <v>N18701840782</v>
       </c>
       <c r="B190" t="str">
-        <v>验证码\d*,您正在申请注册中票云账户.{0,30}</v>
+        <v>恭喜您获得微鲸官网满3000减200元购物券\（有效期至2017年2月10日\），兑换码.+</v>
       </c>
       <c r="C190" t="str">
         <v>reject</v>
@@ -2901,7 +2919,7 @@
         <v>N8609344</v>
       </c>
       <c r="B191" t="str">
-        <v>验证码.{0,10},您正在确认付款信息,需要进行校验,请核实付款金额并确认交易信息无误,如非您本人操作.{0,40}</v>
+        <v>验证码\d*,您正在申请注册中票云账户.{0,30}</v>
       </c>
       <c r="C191" t="str">
         <v>reject</v>
@@ -2912,35 +2930,35 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>M6827905</v>
+        <v>N8609344</v>
       </c>
       <c r="B192" t="str">
-        <v>尊敬的朋友！最后1天提醒：换季出清，6折包邮，活动今晚结束！换季收纳6折、床品6折、保温壶6折…全场低至9元还包邮。回TD退订退订回TD</v>
+        <v>验证码.{0,10},您正在确认付款信息,需要进行校验,请核实付款金额并确认交易信息无误,如非您本人操作.{0,40}</v>
       </c>
       <c r="C192" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D192" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>N8609344</v>
+        <v>M6827905</v>
       </c>
       <c r="B193" t="str">
-        <v>尊敬的中票云用户：您的订单.*确认接收超时，如您未接收到背书，我们将退款给您；如有疑问，请致电.{0,20}</v>
+        <v>尊敬的朋友！最后1天提醒：换季出清，6折包邮，活动今晚结束！换季收纳6折、床品6折、保温壶6折…全场低至9元还包邮。回TD退订退订回TD</v>
       </c>
       <c r="C193" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D193" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>N2033905</v>
+        <v>N8609344</v>
       </c>
       <c r="B194" t="str">
-        <v>.{0,10}你有一个待完成的巡检单。所属月份.*机电运维平台]</v>
+        <v>尊敬的中票云用户：您的订单.*确认接收超时，如您未接收到背书，我们将退款给您；如有疑问，请致电.{0,20}</v>
       </c>
       <c r="C194" t="str">
         <v>reject</v>
@@ -2951,10 +2969,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>M5568914</v>
+        <v>N2033905</v>
       </c>
       <c r="B195" t="str">
-        <v>2017年凯仕餐厅自助餐礼券5折起开始预售.*适用于周六至周日自助午餐，周一至周日自助晚餐。预售有效期至.*法定节假日与特殊推广期除外。预售热线.*</v>
+        <v>.{0,10}你有一个待完成的巡检单。所属月份.*机电运维平台]</v>
       </c>
       <c r="C195" t="str">
         <v>reject</v>
@@ -2965,27 +2983,27 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>M3504161</v>
+        <v>M5568914</v>
       </c>
       <c r="B196" t="str">
-        <v>男装新春特惠专埸，37元起惊暴全场，免费赠送蚕丝被（毎人限l条）。地址新华书店旁，电话0435-4251555退订回TD</v>
+        <v>2017年凯仕餐厅自助餐礼券5折起开始预售.*适用于周六至周日自助午餐，周一至周日自助晚餐。预售有效期至.*法定节假日与特殊推广期除外。预售热线.*</v>
       </c>
       <c r="C196" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D196" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>N4006876</v>
+        <v>M3504161</v>
       </c>
       <c r="B197" t="str">
-        <v>尊敬的客户您好，如您已忘记支付密码，请编辑短信.*感谢您对普惠无忧的关注与支持！.{2,6}</v>
+        <v>男装新春特惠专埸，37元起惊暴全场，免费赠送蚕丝被（毎人限l条）。地址新华书店旁，电话0435-4251555退订回TD</v>
       </c>
       <c r="C197" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D197" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="198">
@@ -2993,7 +3011,7 @@
         <v>N4006876</v>
       </c>
       <c r="B198" t="str">
-        <v>尊敬的客户您好，您的预约已受理，预约时间.*预约地点.*您需要携带以下资料原件.*如需帮助请致电400-893-9819，祝您一切顺利，生活愉快！.{2,10}</v>
+        <v>尊敬的客户您好，如您已忘记支付密码，请编辑短信.*感谢您对普惠无忧的关注与支持！.{2,6}</v>
       </c>
       <c r="C198" t="str">
         <v>reject</v>
@@ -3004,38 +3022,38 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>M8710160</v>
+        <v>N4006876</v>
       </c>
       <c r="B199" t="str">
-        <v>南极企鹅登陆海口啦！活的真企鹅哦！搜“HNJRSJ”微信号\(金融仕家小秘书\)加好友，一家三口全免单！抢票66189222退订回TD</v>
+        <v>尊敬的客户您好，您的预约已受理，预约时间.*预约地点.*您需要携带以下资料原件.*如需帮助请致电400-893-9819，祝您一切顺利，生活愉快！.{2,10}</v>
       </c>
       <c r="C199" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D199" t="str">
-        <v>类别：normal</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>N5261027</v>
+        <v>M8710160</v>
       </c>
       <c r="B200" t="str">
-        <v>.{0,10}尊敬的路怒宝用户,您的设备.*安装不规范,请立即调整,否则会影响您的圈发广告接收及收益.*</v>
+        <v>南极企鹅登陆海口啦！活的真企鹅哦！搜“HNJRSJ”微信号\(金融仕家小秘书\)加好友，一家三口全免单！抢票66189222退订回TD</v>
       </c>
       <c r="C200" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D200" t="str">
-        <v>未加退订</v>
+        <v>类别：normal</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>N3588635</v>
+        <v>N5261027</v>
       </c>
       <c r="B201" t="str">
-        <v>您有新的批发订单：.+门店申请爸妈在这平台代付，详情请点击查看。</v>
+        <v>.{0,10}尊敬的路怒宝用户,您的设备.*安装不规范,请立即调整,否则会影响您的圈发广告接收及收益.*</v>
       </c>
       <c r="C201" t="str">
         <v>reject</v>
@@ -3046,10 +3064,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>N4006876</v>
+        <v>N3588635</v>
       </c>
       <c r="B202" t="str">
-        <v>尊敬的客户您好！上海富友金账户官方网址：jzh.fuiou.com，富友服务热线：95138。期待再次为您服务！.{2,6}</v>
+        <v>您有新的批发订单：.+门店申请爸妈在这平台代付，详情请点击查看。</v>
       </c>
       <c r="C202" t="str">
         <v>reject</v>
@@ -3060,10 +3078,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>N8699715</v>
+        <v>N4006876</v>
       </c>
       <c r="B203" t="str">
-        <v>您好，您的验证码是\w+,10分钟后过期，请您及时验证!</v>
+        <v>尊敬的客户您好！上海富友金账户官方网址：jzh.fuiou.com，富友服务热线：95138。期待再次为您服务！.{2,6}</v>
       </c>
       <c r="C203" t="str">
         <v>reject</v>
@@ -3074,35 +3092,35 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>M8528910</v>
+        <v>N8699715</v>
       </c>
       <c r="B204" t="str">
-        <v>12.26-12.30大年糕1.99，有机花菜2.98，火锅料7.98，鲜蘑菇8.58，黑鱼5.99，扇子骨9.98，草鸡6.98，翅中16.99，琵琶腿5.99，咸腿肉10.9，核桃果10.9，25KG苏北米105，5L福临门调和油49.9退订回TD</v>
+        <v>您好，您的验证码是\w+,10分钟后过期，请您及时验证!</v>
       </c>
       <c r="C204" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D204" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>N1083891</v>
+        <v>M8528910</v>
       </c>
       <c r="B205" t="str">
-        <v>您好，感谢您使用星邦重工机器。您的.{0,22}需求已受理.{0,12}工程师.{0,22}将会在半小时内与您联络，请您保持电话畅通。</v>
+        <v>12.26-12.30大年糕1.99，有机花菜2.98，火锅料7.98，鲜蘑菇8.58，黑鱼5.99，扇子骨9.98，草鸡6.98，翅中16.99，琵琶腿5.99，咸腿肉10.9，核桃果10.9，25KG苏北米105，5L福临门调和油49.9退订回TD</v>
       </c>
       <c r="C205" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D205" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>N6881179</v>
+        <v>N1083891</v>
       </c>
       <c r="B206" t="str">
-        <v>.+您于.+充值成功，金额.+充值后余额为.+祝您投资愉快！</v>
+        <v>您好，感谢您使用星邦重工机器。您的.{0,22}需求已受理.{0,12}工程师.{0,22}将会在半小时内与您联络，请您保持电话畅通。</v>
       </c>
       <c r="C206" t="str">
         <v>reject</v>
@@ -3116,7 +3134,7 @@
         <v>N6881179</v>
       </c>
       <c r="B207" t="str">
-        <v>.+您投资的.+利息已到账，金额.+快回旺财小强投资新项目，获取更多收益吧！</v>
+        <v>.+您于.+充值成功，金额.+充值后余额为.+祝您投资愉快！</v>
       </c>
       <c r="C207" t="str">
         <v>reject</v>
@@ -3127,10 +3145,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>N3218638</v>
+        <v>N6881179</v>
       </c>
       <c r="B208" t="str">
-        <v>.{0,10}尊敬的.*您好,中介.*房客.*申请看.*房源,请您登陆系统,尽快确认,避免资源流失</v>
+        <v>.+您投资的.+利息已到账，金额.+快回旺财小强投资新项目，获取更多收益吧！</v>
       </c>
       <c r="C208" t="str">
         <v>reject</v>
@@ -3141,10 +3159,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>N4049746</v>
+        <v>N3218638</v>
       </c>
       <c r="B209" t="str">
-        <v>恭喜您下单成功：订单房间.+房间密码是：\d+。提醒：您的密码非常的重要，请您一定要保管好，密码当日有效</v>
+        <v>.{0,10}尊敬的.*您好,中介.*房客.*申请看.*房源,请您登陆系统,尽快确认,避免资源流失</v>
       </c>
       <c r="C209" t="str">
         <v>reject</v>
@@ -3155,35 +3173,35 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>M3390424</v>
+        <v>N4049746</v>
       </c>
       <c r="B210" t="str">
-        <v>12.28-12.30号，大青菜0.49，花鲢5.58，美芹1.98，扇子骨12.19，香蕉2.58，草鱼7.28，糯玉米1.5，鸡边腿4.99，鲜蘑菇8.98，香梨5.99，西葫芦1.99，活杀鲜鸡7.9，带皮后腿肉12.99，退订回TD</v>
+        <v>恭喜您下单成功：订单房间.+房间密码是：\d+。提醒：您的密码非常的重要，请您一定要保管好，密码当日有效</v>
       </c>
       <c r="C210" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D210" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>N9053820</v>
+        <v>M3390424</v>
       </c>
       <c r="B211" t="str">
-        <v>.{0,50}尊敬的会员卡测试:您在缪斯苏格.*卡余额.*元</v>
+        <v>12.28-12.30号，大青菜0.49，花鲢5.58，美芹1.98，扇子骨12.19，香蕉2.58，草鱼7.28，糯玉米1.5，鸡边腿4.99，鲜蘑菇8.98，香梨5.99，西葫芦1.99，活杀鲜鸡7.9，带皮后腿肉12.99，退订回TD</v>
       </c>
       <c r="C211" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D211" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>N7059101</v>
+        <v>N9053820</v>
       </c>
       <c r="B212" t="str">
-        <v>验证码：\d*。商家钱包忘记提现密码手机验证，\d*分钟内有效。如非本人操作，可不用理会。</v>
+        <v>.{0,50}尊敬的会员卡测试:您在缪斯苏格.*卡余额.*元</v>
       </c>
       <c r="C212" t="str">
         <v>reject</v>
@@ -3194,10 +3212,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>N9053820</v>
+        <v>N7059101</v>
       </c>
       <c r="B213" t="str">
-        <v>尊敬的客户，您的VIP专属会员卡.*请勿将此短信泄露给他人！</v>
+        <v>验证码：\d*。商家钱包忘记提现密码手机验证，\d*分钟内有效。如非本人操作，可不用理会。</v>
       </c>
       <c r="C213" t="str">
         <v>reject</v>
@@ -3208,10 +3226,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>N5030495</v>
+        <v>N9053820</v>
       </c>
       <c r="B214" t="str">
-        <v>尊敬的用户，您正在注册会员，验证码.{0,10}</v>
+        <v>尊敬的客户，您的VIP专属会员卡.*请勿将此短信泄露给他人！</v>
       </c>
       <c r="C214" t="str">
         <v>reject</v>
@@ -3222,10 +3240,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>N4184665</v>
+        <v>N5030495</v>
       </c>
       <c r="B215" t="str">
-        <v>尊敬的.{0,10}，您申请的提款已被受理，详情请登陆网站个人中心查看。</v>
+        <v>尊敬的用户，您正在注册会员，验证码.{0,10}</v>
       </c>
       <c r="C215" t="str">
         <v>reject</v>
@@ -3236,10 +3254,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>N6873724</v>
+        <v>N4184665</v>
       </c>
       <c r="B216" t="str">
-        <v>用户您好，您已绑卡成功，您在信用钱包申请的白条订单已生效，登录APP t.cn/Rf882N8 极速贷款，快速还款</v>
+        <v>尊敬的.{0,10}，您申请的提款已被受理，详情请登陆网站个人中心查看。</v>
       </c>
       <c r="C216" t="str">
         <v>reject</v>
@@ -3253,7 +3271,7 @@
         <v>N6873724</v>
       </c>
       <c r="B217" t="str">
-        <v>用户您好，您账户.*信用钱包还款支付扣款人民.*如有疑问，请致电400-002-0061</v>
+        <v>用户您好，您已绑卡成功，您在信用钱包申请的白条订单已生效，登录APP t.cn/Rf882N8 极速贷款，快速还款</v>
       </c>
       <c r="C217" t="str">
         <v>reject</v>
@@ -3267,7 +3285,7 @@
         <v>N6873724</v>
       </c>
       <c r="B218" t="str">
-        <v>用户您好，您的借款申请已经通过审核，请在24小时内访问卡牛APP，选择‘信用钱包’，补充账户信息以便收款</v>
+        <v>用户您好，您账户.*信用钱包还款支付扣款人民.*如有疑问，请致电400-002-0061</v>
       </c>
       <c r="C218" t="str">
         <v>reject</v>
@@ -3281,7 +3299,7 @@
         <v>N6873724</v>
       </c>
       <c r="B219" t="str">
-        <v>您的银行卡.*余额不足导致还款失败。请确保您的卡内有足够的资金，或更换使用金额充足的银行卡进行还款</v>
+        <v>用户您好，您的借款申请已经通过审核，请在24小时内访问卡牛APP，选择‘信用钱包’，补充账户信息以便收款</v>
       </c>
       <c r="C219" t="str">
         <v>reject</v>
@@ -3292,38 +3310,38 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>M2664070</v>
+        <v>N6873724</v>
       </c>
       <c r="B220" t="str">
-        <v>12月27日至12月30日！花鲢.*咸鸡11.9，退订回TD</v>
+        <v>您的银行卡.*余额不足导致还款失败。请确保您的卡内有足够的资金，或更换使用金额充足的银行卡进行还款</v>
       </c>
       <c r="C220" t="str">
         <v>reject</v>
       </c>
       <c r="D220" t="str">
-        <v>类别：18</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>N1333913</v>
+        <v>M2664070</v>
       </c>
       <c r="B221" t="str">
-        <v>免费通知.*银行账户发起一笔金额.*的转账，请检查是否到账，此短信不作为入账凭证！</v>
+        <v>12月27日至12月30日！花鲢.*咸鸡11.9，退订回TD</v>
       </c>
       <c r="C221" t="str">
-        <v>reject</v>
+        <v>normal</v>
       </c>
       <c r="D221" t="str">
-        <v>未加退订</v>
+        <v>类别：normal</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>N1606651</v>
+        <v>N1333913</v>
       </c>
       <c r="B222" t="str">
-        <v>您的验证码.{2,8}，仅用于新手机绑定，请及时完成绑定。如非本人操作，请忽略本短信。</v>
+        <v>免费通知.*银行账户发起一笔金额.*的转账，请检查是否到账，此短信不作为入账凭证！</v>
       </c>
       <c r="C222" t="str">
         <v>reject</v>
@@ -3334,10 +3352,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>N6651869</v>
+        <v>N1606651</v>
       </c>
       <c r="B223" t="str">
-        <v>尊敬的用户,感谢您使用，您所申请的手机验证码为.{0,10}，祝您使用愉快。</v>
+        <v>您的验证码.{2,8}，仅用于新手机绑定，请及时完成绑定。如非本人操作，请忽略本短信。</v>
       </c>
       <c r="C223" t="str">
         <v>reject</v>
@@ -3348,10 +3366,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>M5972359</v>
+        <v>N6651869</v>
       </c>
       <c r="B224" t="str">
-        <v>尊敬的.*贵宾您好，为感谢贵宾客户对广发银行的支持，我行将在众多贵宾客户中随机抽选部分客户，免费赠送高端体检－基因检测，基因检测是我行为回馈贵宾客户，私人定制的高端服务。通过高科技医疗手段帮您全方位检测自己的身体，作到有备无患，健康一生。这是我行重磅推出的贵宾专属服务，名额稀缺，数量有限，并且现场还有贵宾专享利益回馈。祝您好运！收到请回复，谢谢！-广发银行.*</v>
+        <v>尊敬的用户,感谢您使用，您所申请的手机验证码为.{0,10}，祝您使用愉快。</v>
       </c>
       <c r="C224" t="str">
         <v>reject</v>
@@ -3362,35 +3380,35 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>M2479438</v>
+        <v>M5972359</v>
       </c>
       <c r="B225" t="str">
-        <v>你好，我们是成都零点三四有限公司感谢您对于我们元旦活动的支持记得涂色过后一定要上传到我们公众号上哦！退订回TD</v>
+        <v>尊敬的.*贵宾您好，为感谢贵宾客户对广发银行的支持，我行将在众多贵宾客户中随机抽选部分客户，免费赠送高端体检－基因检测，基因检测是我行为回馈贵宾客户，私人定制的高端服务。通过高科技医疗手段帮您全方位检测自己的身体，作到有备无患，健康一生。这是我行重磅推出的贵宾专属服务，名额稀缺，数量有限，并且现场还有贵宾专享利益回馈。祝您好运！收到请回复，谢谢！-广发银行.*</v>
       </c>
       <c r="C225" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D225" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>N4689491</v>
+        <v>M2479438</v>
       </c>
       <c r="B226" t="str">
-        <v>您寄往.*的物品已被拒收，请尽快凭取回码.*取回物品。详询快递员.*</v>
+        <v>你好，我们是成都零点三四有限公司感谢您对于我们元旦活动的支持记得涂色过后一定要上传到我们公众号上哦！退订回TD</v>
       </c>
       <c r="C226" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D226" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>N5233471</v>
+        <v>N4689491</v>
       </c>
       <c r="B227" t="str">
-        <v>尊敬的耀顺金融用户，您好！您的VIP会员资格将于.+到期，请及时续费。感谢您对耀顺金融的支持！如有疑问，请致电.</v>
+        <v>您寄往.*的物品已被拒收，请尽快凭取回码.*取回物品。详询快递员.*</v>
       </c>
       <c r="C227" t="str">
         <v>reject</v>
@@ -3401,10 +3419,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>N5030495</v>
+        <v>N5233471</v>
       </c>
       <c r="B228" t="str">
-        <v>您的订单已发货，订单号为{0,25}收货人为{0,10}收货地址为{0,25}请注意查收</v>
+        <v>尊敬的耀顺金融用户，您好！您的VIP会员资格将于.+到期，请及时续费。感谢您对耀顺金融的支持！如有疑问，请致电.</v>
       </c>
       <c r="C228" t="str">
         <v>reject</v>
@@ -3418,7 +3436,7 @@
         <v>N5030495</v>
       </c>
       <c r="B229" t="str">
-        <v>您的验证码是.{0,10}，10分钟内有效。</v>
+        <v>您的订单已发货，订单号为{0,25}收货人为{0,10}收货地址为{0,25}请注意查收</v>
       </c>
       <c r="C229" t="str">
         <v>reject</v>
@@ -3429,10 +3447,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>N4689491</v>
+        <v>N5030495</v>
       </c>
       <c r="B230" t="str">
-        <v>您于.*存入的待寄出包裹，已被快递员.{0,10}接单，预计每日16:30点前入柜的快件当日可寄出。</v>
+        <v>您的验证码是.{0,10}，10分钟内有效。</v>
       </c>
       <c r="C230" t="str">
         <v>reject</v>
@@ -3446,7 +3464,7 @@
         <v>N4689491</v>
       </c>
       <c r="B231" t="str">
-        <v>亲，你寄往.*的包裹已经寄出。请通过易泊APP或微信“易泊时代”抽空完成支付。</v>
+        <v>您于.*存入的待寄出包裹，已被快递员.{0,10}接单，预计每日16:30点前入柜的快件当日可寄出。</v>
       </c>
       <c r="C231" t="str">
         <v>reject</v>
@@ -3457,35 +3475,38 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>M1509359</v>
+        <v>N4689491</v>
       </c>
       <c r="B232" t="str">
-        <v>尊敬的大众车主，年终4S店保养8折优惠仅限4天http://t.cn/RI8LrAs登录京东页面选购。退订回TD</v>
+        <v>亲，你寄往.*的包裹已经寄出。请通过易泊APP或微信“易泊时代”抽空完成支付。</v>
       </c>
       <c r="C232" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D232" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>M9434897</v>
+        <v>M1509359</v>
       </c>
       <c r="B233" t="str">
-        <v>尊敬的会员，我要我要APP己在12月26日全新改版上线，欢迎您点击下载新版本，下载地址：http://a.app.qq.com/o/simple.jsp?pkgname=com.zjtd.iwant#opened，客服电话：4000415151</v>
+        <v>尊敬的大众车主，年终4S店保养8折优惠仅限4天http://t.cn/RI8LrAs登录京东页面选购。退订回TD</v>
       </c>
       <c r="C233" t="str">
         <v>reject</v>
       </c>
       <c r="D233" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>M4582717</v>
+        <v>M9434897</v>
       </c>
       <c r="B234" t="str">
-        <v>火锅季·买肉免费赠送多款配菜，即日起至31日购买元旦火锅套餐，丰盛菜品人均消费低至21元，暖心火锅套餐，限量抢购！</v>
+        <v>尊敬的会员，我要我要APP己在12月26日全新改版上线，欢迎您点击下载新版本，下载地址：http://a.app.qq.com/o/simple.jsp?pkgname=com.zjtd.iwant#opened，客服电话：4000415151</v>
       </c>
       <c r="C234" t="str">
         <v>reject</v>
@@ -3496,10 +3517,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>N5268364</v>
+        <v>M4582717</v>
       </c>
       <c r="B235" t="str">
-        <v>亲爱的小玩家，您参加的.*通知：请于.{0,10}在.{0,20}集合签到，活动将于.{0,20}正式开始。联系电话.{0,20}</v>
+        <v>火锅季·买肉免费赠送多款配菜，即日起至31日购买元旦火锅套餐，丰盛菜品人均消费低至21元，暖心火锅套餐，限量抢购！</v>
       </c>
       <c r="C235" t="str">
         <v>reject</v>
@@ -3513,7 +3534,7 @@
         <v>N5268364</v>
       </c>
       <c r="B236" t="str">
-        <v>亲爱的小玩家，您于.{0,30}购买的.*已过期无效，特价商品恕不接受退款申请哦。立即添加微信号.{0,30}即可免费获取私人专享客户服务。</v>
+        <v>亲爱的小玩家，您参加的.*通知：请于.{0,10}在.{0,20}集合签到，活动将于.{0,20}正式开始。联系电话.{0,20}</v>
       </c>
       <c r="C236" t="str">
         <v>reject</v>
@@ -3524,10 +3545,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>N8988822</v>
+        <v>N5268364</v>
       </c>
       <c r="B237" t="str">
-        <v>肛肠分会通知：2017年学术年会定于2017年10月20-22日在杭州召开。现面向全国肛肠领域广泛征稿并受理医博杯各奖项申请，敬请关注</v>
+        <v>亲爱的小玩家，您于.{0,30}购买的.*已过期无效，特价商品恕不接受退款申请哦。立即添加微信号.{0,30}即可免费获取私人专享客户服务。</v>
       </c>
       <c r="C237" t="str">
         <v>reject</v>
@@ -3538,10 +3559,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>M4979026</v>
+        <v>N8988822</v>
       </c>
       <c r="B238" t="str">
-        <v>尊敬的园长您好：现邀请您参加由萌爱教育主办的幼儿体适能优质课观摩及体验交流会。时间：2017年1月5日8：30—16：30.地点：大坪白云宾馆会议中心。活动内容：幼儿足球，篮球，跳绳等户外体育课程的观摩及体验。每所幼儿园限2个免费名额。联系人：18696798785（李）</v>
+        <v>肛肠分会通知：2017年学术年会定于2017年10月20-22日在杭州召开。现面向全国肛肠领域广泛征稿并受理医博杯各奖项申请，敬请关注</v>
       </c>
       <c r="C238" t="str">
         <v>reject</v>
@@ -3552,10 +3573,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>N1666314</v>
+        <v>M4979026</v>
       </c>
       <c r="B239" t="str">
-        <v>.+你名下的\d+.\d+元借款,已逾期\d+天,请尽快登录APP还款,良好的还款习惯有助于提高信用记录</v>
+        <v>尊敬的园长您好：现邀请您参加由萌爱教育主办的幼儿体适能优质课观摩及体验交流会。时间：2017年1月5日8：30—16：30.地点：大坪白云宾馆会议中心。活动内容：幼儿足球，篮球，跳绳等户外体育课程的观摩及体验。每所幼儿园限2个免费名额。联系人：18696798785（李）</v>
       </c>
       <c r="C239" t="str">
         <v>reject</v>
@@ -3566,10 +3587,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>N5233471</v>
+        <v>N1666314</v>
       </c>
       <c r="B240" t="str">
-        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
+        <v>.+你名下的\d+.\d+元借款,已逾期\d+天,请尽快登录APP还款,良好的还款习惯有助于提高信用记录</v>
       </c>
       <c r="C240" t="str">
         <v>reject</v>
@@ -3580,27 +3601,27 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>M2561720</v>
+        <v>N5233471</v>
       </c>
       <c r="B241" t="str">
-        <v>测试模板是否有效，\d+退订回TD</v>
+        <v>尊敬的用户您好！您的手机号码已经成功修改。</v>
       </c>
       <c r="C241" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D241" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>N5268364</v>
+        <v>M2561720</v>
       </c>
       <c r="B242" t="str">
-        <v>亲爱的小玩家，您已取消参加.*退款审核后，款项将于3-5个工作日内退回至原支付账户。立即添加微信号.{0,20}即可免费获取私人专享客户服务。</v>
+        <v>测试模板是否有效，\d+退订回TD</v>
       </c>
       <c r="C242" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D242" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="243">
@@ -3608,7 +3629,7 @@
         <v>N5268364</v>
       </c>
       <c r="B243" t="str">
-        <v>亲爱的小玩家，您参加的.*通知：集合时间为.{0,32}提前10分钟签到，请在.*找遛娃师集合签到，遛娃师电话.{0,16}</v>
+        <v>亲爱的小玩家，您已取消参加.*退款审核后，款项将于3-5个工作日内退回至原支付账户。立即添加微信号.{0,20}即可免费获取私人专享客户服务。</v>
       </c>
       <c r="C243" t="str">
         <v>reject</v>
@@ -3619,35 +3640,35 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>M2561720</v>
+        <v>N5268364</v>
       </c>
       <c r="B244" t="str">
-        <v>测试模板是否有效，日期.{0,12}退订回TD</v>
+        <v>亲爱的小玩家，您参加的.*通知：集合时间为.{0,32}提前10分钟签到，请在.*找遛娃师集合签到，遛娃师电话.{0,16}</v>
       </c>
       <c r="C244" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D244" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>N7645941</v>
+        <v>M2561720</v>
       </c>
       <c r="B245" t="str">
-        <v>尊敬的用户，您的短信验证码为：\d{2,8}，请在30分钟内填写。</v>
+        <v>测试模板是否有效，日期.{0,12}退订回TD</v>
       </c>
       <c r="C245" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D245" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>N6623314</v>
+        <v>N7645941</v>
       </c>
       <c r="B246" t="str">
-        <v>您好，您的验证码是：\d+</v>
+        <v>尊敬的用户，您的短信验证码为：\d{2,8}，请在30分钟内填写。</v>
       </c>
       <c r="C246" t="str">
         <v>reject</v>
@@ -3658,10 +3679,10 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>N3131625</v>
+        <v>N6623314</v>
       </c>
       <c r="B247" t="str">
-        <v>您好，爆竹声中送旧，花开灿烂迎新，16年落下了帷幕，很高兴这一年内能与贵司结缘。或交流，或合作，或结识云云，在您身上学到很多为商为人之本，实属荣幸，希望未来的一年里，能与贵司同进共退，在您需要我们的地方永远的支持着您。祝公司如日方升，祝您一帆风顺。</v>
+        <v>您好，您的验证码是：\d+</v>
       </c>
       <c r="C247" t="str">
         <v>reject</v>
@@ -3672,21 +3693,24 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>M7736805</v>
+        <v>N3131625</v>
       </c>
       <c r="B248" t="str">
-        <v>.{0,10}寄件礼包已入账，关注微信公众号.*用易泊快递柜寄件.*退订.{0,10}</v>
+        <v>您好，爆竹声中送旧，花开灿烂迎新，16年落下了帷幕，很高兴这一年内能与贵司结缘。或交流，或合作，或结识云云，在您身上学到很多为商为人之本，实属荣幸，希望未来的一年里，能与贵司同进共退，在您需要我们的地方永远的支持着您。祝公司如日方升，祝您一帆风顺。</v>
       </c>
       <c r="C248" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D248" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>M4364918</v>
+        <v>M7736805</v>
       </c>
       <c r="B249" t="str">
-        <v>亲，Johnny}加了5人在Comehttp://dwz.cn/3xAR2K回复T退订退订回TD</v>
+        <v>.{0,10}寄件礼包已入账，关注微信公众号.*用易泊快递柜寄件.*退订.{0,10}</v>
       </c>
       <c r="C249" t="str">
         <v>normal</v>
@@ -3694,21 +3718,24 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>M5129810</v>
+        <v>M4364918</v>
       </c>
       <c r="B250" t="str">
-        <v>你的2016是不是还有个关于“吃好”的心愿没完成.+再忙也要吃顿好的～退订回TD</v>
+        <v>亲，Johnny}加了5人在Comehttp://dwz.cn/3xAR2K回复T退订退订回TD</v>
       </c>
       <c r="C250" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D250" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>M655095_M4818426</v>
+        <v>M5129810</v>
       </c>
       <c r="B251" t="str">
-        <v>.{0,10}尊敬的客户，您在.*出现异常，我方.{0,10}公司委托将在.*邮寄相关文书至您户籍所在地，请尽快处理.*退订.{0,10}</v>
+        <v>你的2016是不是还有个关于“吃好”的心愿没完成.+再忙也要吃顿好的～退订回TD</v>
       </c>
       <c r="C251" t="str">
         <v>normal</v>
@@ -3716,49 +3743,46 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>N6716489</v>
+        <v>M655095_M4818426</v>
       </c>
       <c r="B252" t="str">
-        <v>尊敬的会员，您订单尾号.*的退货申请已经收到，我们将会在1个工作日内进行审核，请保持手机畅通，耐心等待。</v>
+        <v>.{0,10}尊敬的客户，您在.*出现异常，我方.{0,10}公司委托将在.*邮寄相关文书至您户籍所在地，请尽快处理.*退订.{0,10}</v>
       </c>
       <c r="C252" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D252" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>M9313989</v>
+        <v>N6716489</v>
       </c>
       <c r="B253" t="str">
-        <v>WiFi用户微信充值年底大促,最高返.*元,更有.*重大礼,活动最后.*天!关注公众号.*发现更多惊喜！退订回复TD</v>
+        <v>尊敬的会员，您订单尾号.*的退货申请已经收到，我们将会在1个工作日内进行审核，请保持手机畅通，耐心等待。</v>
       </c>
       <c r="C253" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D253" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>N9745907</v>
+        <v>M9313989</v>
       </c>
       <c r="B254" t="str">
-        <v>您好，您的验证码是.{0,10}验证码在.*分钟内有效，如不是本人操作，请忽略。</v>
+        <v>WiFi用户微信充值年底大促,最高返.*元,更有.*重大礼,活动最后.*天!关注公众号.*发现更多惊喜！退订回复TD</v>
       </c>
       <c r="C254" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D254" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>N3037712</v>
+        <v>N9745907</v>
       </c>
       <c r="B255" t="str">
-        <v>您好，您的注册验证码是.{0,10}</v>
+        <v>您好，您的验证码是.{0,10}验证码在.*分钟内有效，如不是本人操作，请忽略。</v>
       </c>
       <c r="C255" t="str">
         <v>reject</v>
@@ -3769,99 +3793,108 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>M1233088</v>
+        <v>N3037712</v>
       </c>
       <c r="B256" t="str">
-        <v>亲爱的付晓志，沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn/RIEYr2K退订回TD</v>
+        <v>您好，您的注册验证码是.{0,10}</v>
       </c>
       <c r="C256" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D256" t="str">
-        <v>类别：73</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>N6716489</v>
+        <v>M1233088</v>
       </c>
       <c r="B257" t="str">
-        <v>尊敬的会员，您尾号为.*的订单已生成，系统暂为您保留商品，请您在30分钟内完成支付，避免与您喜爱的商品擦肩而过喔。</v>
+        <v>亲爱的付晓志，沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn/RIEYr2K退订回TD</v>
       </c>
       <c r="C257" t="str">
         <v>reject</v>
       </c>
       <c r="D257" t="str">
-        <v>未加退订</v>
+        <v>类别：73</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>M1233088</v>
+        <v>N6716489</v>
       </c>
       <c r="B258" t="str">
-        <v>亲爱的.+沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn.+退订回TD</v>
+        <v>尊敬的会员，您尾号为.*的订单已生成，系统暂为您保留商品，请您在30分钟内完成支付，避免与您喜爱的商品擦肩而过喔。</v>
       </c>
       <c r="C258" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D258" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>M5129810</v>
+        <v>M1233088</v>
       </c>
       <c r="B259" t="str">
-        <v>降价啦！你爱吃的&lt;越南黑美人西瓜&gt;降价啦！肉质细嫩、味甜多汁，直降10元！今日仅19.9元t.cn/RIEFVaJ退订回TD</v>
+        <v>亲爱的.+沉寂了364天，这一天我要在旅行中当自己的公主和王子。活动链接http://t.cn.+退订回TD</v>
       </c>
       <c r="C259" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D259" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>N9686649</v>
+        <v>M5129810</v>
       </c>
       <c r="B260" t="str">
-        <v>您好，配送中心有新的.+订单了，订单生成时间：.+</v>
+        <v>降价啦！你爱吃的&lt;越南黑美人西瓜&gt;降价啦！肉质细嫩、味甜多汁，直降10元！今日仅19.9元t.cn/RIEFVaJ退订回TD</v>
       </c>
       <c r="C260" t="str">
         <v>reject</v>
       </c>
       <c r="D260" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>M5129810</v>
+        <v>N9686649</v>
       </c>
       <c r="B261" t="str">
-        <v>降价啦！你爱吃的.+降价啦！果径.+的南美甜心汁多味甜！今日仅.+元！t.cn/RIuYyni退订回TD</v>
+        <v>您好，配送中心有新的.+订单了，订单生成时间：.+</v>
       </c>
       <c r="C261" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D261" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>N7566157</v>
+        <v>M5129810</v>
       </c>
       <c r="B262" t="str">
-        <v>欢迎您成为胜益日用品初恋妮系列的成员（您的会员号为.*于最真诚的服务为你效劳，让初恋妮系列陪伴您、我、他幸富一生。</v>
+        <v>降价啦！你爱吃的.+降价啦！果径.+的南美甜心汁多味甜！今日仅.+元！t.cn/RIuYyni退订回TD</v>
       </c>
       <c r="C262" t="str">
         <v>reject</v>
       </c>
       <c r="D262" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>N6873724</v>
+        <v>N7566157</v>
       </c>
       <c r="B263" t="str">
-        <v>恭喜您获得信用钱包\d+\.?\d*元白条额度，绑定银行卡后就可以买买买啦，手机、无人机、平衡车，先消费后付款t.cn/Rf882N8</v>
+        <v>欢迎您成为胜益日用品初恋妮系列的成员（您的会员号为.*于最真诚的服务为你效劳，让初恋妮系列陪伴您、我、他幸富一生。</v>
       </c>
       <c r="C263" t="str">
         <v>reject</v>
@@ -3872,10 +3905,10 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>N811652_N1666314</v>
+        <v>N6873724</v>
       </c>
       <c r="B264" t="str">
-        <v>亲爱的.+家长，请带您的宝宝于.+接种.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
+        <v>恭喜您获得信用钱包\d+\.?\d*元白条额度，绑定银行卡后就可以买买买啦，手机、无人机、平衡车，先消费后付款t.cn/Rf882N8</v>
       </c>
       <c r="C264" t="str">
         <v>reject</v>
@@ -3889,7 +3922,7 @@
         <v>N811652_N1666314</v>
       </c>
       <c r="B265" t="str">
-        <v>亲爱的.+家长，您的小孩有.+漏种，请于.+到.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
+        <v>亲爱的.+家长，请带您的宝宝于.+接种.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
       </c>
       <c r="C265" t="str">
         <v>reject</v>
@@ -3900,10 +3933,10 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>N7449087</v>
+        <v>N811652_N1666314</v>
       </c>
       <c r="B266" t="str">
-        <v>尊敬的嘉宾您好，感谢您报名参加我们农特微商年度大会，大会将于.*请提前查询确定抵达的交通方式。真诚期待您的到来！</v>
+        <v>亲爱的.+家长，您的小孩有.+漏种，请于.+到.+电话.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松</v>
       </c>
       <c r="C266" t="str">
         <v>reject</v>
@@ -3914,21 +3947,24 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>M8997564</v>
+        <v>N7449087</v>
       </c>
       <c r="B267" t="str">
-        <v>微信任务上线啦！欢迎各位赚客来赚零花钱，微信公众号：zhoumo_la退订回TD</v>
+        <v>尊敬的嘉宾您好，感谢您报名参加我们农特微商年度大会，大会将于.*请提前查询确定抵达的交通方式。真诚期待您的到来！</v>
       </c>
       <c r="C267" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D267" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>M2802919</v>
+        <v>M8997564</v>
       </c>
       <c r="B268" t="str">
-        <v>元旦大抽奖.投资活期理财可获抽奖机会,100%中奖哦~退订回TD</v>
+        <v>微信任务上线啦！欢迎各位赚客来赚零花钱，微信公众号：zhoumo_la退订回TD</v>
       </c>
       <c r="C268" t="str">
         <v>normal</v>
@@ -3936,52 +3972,49 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>N7139403</v>
+        <v>M2802919</v>
       </c>
       <c r="B269" t="str">
-        <v>.{0,10}验证码.{0,10}您正在创建互惠中国账户，需要进行校验。验证码对账户和资金安全非常重要，切勿告知他人！</v>
+        <v>元旦大抽奖.投资活期理财可获抽奖机会,100%中奖哦~退订回TD</v>
       </c>
       <c r="C269" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D269" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>M5362782</v>
+        <v>N7139403</v>
       </c>
       <c r="B270" t="str">
-        <v>.{0,10}晨报.*昨日你的主营小区.*新增买家.*房东.3*赶紧打开兔博士，开始战斗吧！退订回复TD。</v>
+        <v>.{0,10}验证码.{0,10}您正在创建互惠中国账户，需要进行校验。验证码对账户和资金安全非常重要，切勿告知他人！</v>
       </c>
       <c r="C270" t="str">
         <v>reject</v>
       </c>
       <c r="D270" t="str">
-        <v>类别：27</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>N6678451</v>
+        <v>M5362782</v>
       </c>
       <c r="B271" t="str">
-        <v>用户.{0,15}，您已成功注册去买油APP，账号.+密码：.+</v>
+        <v>.{0,10}晨报.*昨日你的主营小区.*新增买家.*房东.3*赶紧打开兔博士，开始战斗吧！退订回复TD。</v>
       </c>
       <c r="C271" t="str">
         <v>reject</v>
       </c>
       <c r="D271" t="str">
-        <v>未加退订</v>
+        <v>类别：27</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>N3966816</v>
+        <v>N6678451</v>
       </c>
       <c r="B272" t="str">
-        <v>尊敬的店长,恭喜您于.*消费一笔.{0,10}元的订单,获得利润.{0,10}元。</v>
+        <v>用户.{0,15}，您已成功注册去买油APP，账号.+密码：.+</v>
       </c>
       <c r="C272" t="str">
         <v>reject</v>
@@ -3995,7 +4028,7 @@
         <v>N3966816</v>
       </c>
       <c r="B273" t="str">
-        <v>亲，您于.*在进行实名认证的绑定，验证码是.{0,15}为了您的账号安全请勿泄漏！</v>
+        <v>尊敬的店长,恭喜您于.*消费一笔.{0,10}元的订单,获得利润.{0,10}元。</v>
       </c>
       <c r="C273" t="str">
         <v>reject</v>
@@ -4006,85 +4039,88 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>M7611222</v>
+        <v>N3966816</v>
       </c>
       <c r="B274" t="str">
-        <v>尊敬的会员：跨年夜营业至零点，越夜越嗨！动物城萌势回归，消费满百得券抽钢琴.*退订回TD</v>
+        <v>亲，您于.*在进行实名认证的绑定，验证码是.{0,15}为了您的账号安全请勿泄漏！</v>
       </c>
       <c r="C274" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D274" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>N4145870</v>
+        <v>M7611222</v>
       </c>
       <c r="B275" t="str">
-        <v>元旦到了，淮南博士医院祝您：健康“胃”口好，心情“肠”愉快。事业“健”步飞，家庭“康”福绕。</v>
+        <v>尊敬的会员：跨年夜营业至零点，越夜越嗨！动物城萌势回归，消费满百得券抽钢琴.*退订回TD</v>
       </c>
       <c r="C275" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D275" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>M4623918</v>
+        <v>N4145870</v>
       </c>
       <c r="B276" t="str">
-        <v>跨年壕送，买两年会员就送1588元高级拉杆箱或1280元原汁机，壕送到1月2日哦http://dwz.cn/4WS6aq，退订回复TD退订回TD</v>
+        <v>元旦到了，淮南博士医院祝您：健康“胃”口好，心情“肠”愉快。事业“健”步飞，家庭“康”福绕。</v>
       </c>
       <c r="C276" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D276" t="str">
-        <v>类别：normal</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>M8093322</v>
+        <v>M4623918</v>
       </c>
       <c r="B277" t="str">
-        <v>辞旧迎新，钱袋金服红包加息产品好礼大派送！活动时间.{0,15}详见www.qiandai-china.com.*退订回TD</v>
+        <v>跨年壕送，买两年会员就送1588元高级拉杆箱或1280元原汁机，壕送到1月2日哦http://dwz.cn/4WS6aq，退订回复TD退订回TD</v>
       </c>
       <c r="C277" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D277" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>M4558853</v>
+        <v>M8093322</v>
       </c>
       <c r="B278" t="str">
-        <v>.*新年快乐.*疯狂抢购.*新品低至.*购物刮奖赢.*等新年好礼。退订回TD</v>
+        <v>辞旧迎新，钱袋金服红包加息产品好礼大派送！活动时间.{0,15}详见www.qiandai-china.com.*退订回TD</v>
       </c>
       <c r="C278" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D278" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>N3966816</v>
+        <v>M4558853</v>
       </c>
       <c r="B279" t="str">
-        <v>亲，恭喜您于.*成功获得了花啦授信，额度为.{0,15}元，快去愉快的购物吧！</v>
+        <v>.*新年快乐.*疯狂抢购.*新品低至.*购物刮奖赢.*等新年好礼。退订回TD</v>
       </c>
       <c r="C279" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D279" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>N8917788</v>
+        <v>N3966816</v>
       </c>
       <c r="B280" t="str">
-        <v>.{0,15}.{0,20}工作人员不会向您索要,请勿向任何人泄露</v>
+        <v>亲，恭喜您于.*成功获得了花啦授信，额度为.{0,15}元，快去愉快的购物吧！</v>
       </c>
       <c r="C280" t="str">
         <v>reject</v>
@@ -4095,10 +4131,10 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>N7566157</v>
+        <v>N8917788</v>
       </c>
       <c r="B281" t="str">
-        <v>.{0,35}工作人员不会向您索要,请勿向任何人泄露";</v>
+        <v>.{0,15}.{0,20}工作人员不会向您索要,请勿向任何人泄露</v>
       </c>
       <c r="C281" t="str">
         <v>reject</v>
@@ -4109,10 +4145,10 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>N2440260</v>
+        <v>N7566157</v>
       </c>
       <c r="B282" t="str">
-        <v>有一个新的项目需要审核。</v>
+        <v>.{0,35}工作人员不会向您索要,请勿向任何人泄露";</v>
       </c>
       <c r="C282" t="str">
         <v>reject</v>
@@ -4123,10 +4159,10 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>N824972_N5779929</v>
+        <v>N2440260</v>
       </c>
       <c r="B283" t="str">
-        <v>.{0,10}尊敬的客户.*我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.*请你尽快还款！</v>
+        <v>有一个新的项目需要审核。</v>
       </c>
       <c r="C283" t="str">
         <v>reject</v>
@@ -4137,21 +4173,24 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>M5129810</v>
+        <v>N824972_N5779929</v>
       </c>
       <c r="B284" t="str">
-        <v>2016最后一天，我想陪你一起过。你爱吃的东西都在这儿了.+别问为什么，我就是忍不住想对你好～退订回TD</v>
+        <v>.{0,10}尊敬的客户.*我们是久力金金融，您的借款今日是还款日，记得按时还款哦！还款金额.*请你尽快还款！</v>
       </c>
       <c r="C284" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D284" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>M8928040</v>
+        <v>M5129810</v>
       </c>
       <c r="B285" t="str">
-        <v>年终抄底，仅限元旦，沁园.+元.+元，星月三号.+元。咨询：18193927932退订回TD</v>
+        <v>2016最后一天，我想陪你一起过。你爱吃的东西都在这儿了.+别问为什么，我就是忍不住想对你好～退订回TD</v>
       </c>
       <c r="C285" t="str">
         <v>normal</v>
@@ -4159,24 +4198,21 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>N4602312</v>
+        <v>M8928040</v>
       </c>
       <c r="B286" t="str">
-        <v>您成功投资项目.*投资金额.*预计回款时间.*到期自动回款至您的存钱罐。</v>
+        <v>年终抄底，仅限元旦，沁园.+元.+元，星月三号.+元。咨询：18193927932退订回TD</v>
       </c>
       <c r="C286" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D286" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>N8369795</v>
+        <v>N4602312</v>
       </c>
       <c r="B287" t="str">
-        <v>您好.*的安全员证书已寄出，申通.*请注意查收。</v>
+        <v>您成功投资项目.*投资金额.*预计回款时间.*到期自动回款至您的存钱罐。</v>
       </c>
       <c r="C287" t="str">
         <v>reject</v>
@@ -4187,10 +4223,10 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>N1437892</v>
+        <v>N8369795</v>
       </c>
       <c r="B288" t="str">
-        <v>您的验证码是：123</v>
+        <v>您好.*的安全员证书已寄出，申通.*请注意查收。</v>
       </c>
       <c r="C288" t="str">
         <v>reject</v>
@@ -4201,10 +4237,10 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>N1083891</v>
+        <v>N1437892</v>
       </c>
       <c r="B289" t="str">
-        <v>您好，您的机器故障已派服务工程师.{0,28}电话指导，请您保持电话畅通，感谢您使用星邦机器。</v>
+        <v>您的验证码是：123</v>
       </c>
       <c r="C289" t="str">
         <v>reject</v>
@@ -4218,7 +4254,7 @@
         <v>N1083891</v>
       </c>
       <c r="B290" t="str">
-        <v>客户报修，.*收货方.*LTD，.{0,28}，.{0,28}，请速处理！</v>
+        <v>您好，您的机器故障已派服务工程师.{0,28}电话指导，请您保持电话畅通，感谢您使用星邦机器。</v>
       </c>
       <c r="C290" t="str">
         <v>reject</v>
@@ -4229,10 +4265,10 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>N4383936</v>
+        <v>N1083891</v>
       </c>
       <c r="B291" t="str">
-        <v>PTP金融风控提现，有新的贷款申请，需您授权审批，请在1分钟内完成，谢谢支持！</v>
+        <v>客户报修，.*收货方.*LTD，.{0,28}，.{0,28}，请速处理！</v>
       </c>
       <c r="C291" t="str">
         <v>reject</v>
@@ -4246,7 +4282,7 @@
         <v>N4383936</v>
       </c>
       <c r="B292" t="str">
-        <v>会员.*刚才.*操作,请登陆平台审查。</v>
+        <v>PTP金融风控提现，有新的贷款申请，需您授权审批，请在1分钟内完成，谢谢支持！</v>
       </c>
       <c r="C292" t="str">
         <v>reject</v>
@@ -4260,7 +4296,7 @@
         <v>N4383936</v>
       </c>
       <c r="B293" t="str">
-        <v>尊敬的#.{2,4}#用户本次咨询已付费完毕，请您打开APP尽快回复患者问题。详询：\d+-\d+。感谢您的辛勤劳动，祝工作顺利！</v>
+        <v>会员.*刚才.*操作,请登陆平台审查。</v>
       </c>
       <c r="C293" t="str">
         <v>reject</v>
@@ -4274,7 +4310,7 @@
         <v>N4383936</v>
       </c>
       <c r="B294" t="str">
-        <v>您在.*上的预约已经得到了商家的确认，请记得准时联系预约的商家哟！</v>
+        <v>尊敬的#.{2,4}#用户本次咨询已付费完毕，请您打开APP尽快回复患者问题。详询：\d+-\d+。感谢您的辛勤劳动，祝工作顺利！</v>
       </c>
       <c r="C294" t="str">
         <v>reject</v>
@@ -4288,7 +4324,7 @@
         <v>N4383936</v>
       </c>
       <c r="B295" t="str">
-        <v>您绑定手机的验证码是\#?\w+\#?。如非本人操作，请忽略本短信</v>
+        <v>您在.*上的预约已经得到了商家的确认，请记得准时联系预约的商家哟！</v>
       </c>
       <c r="C295" t="str">
         <v>reject</v>
@@ -4302,7 +4338,7 @@
         <v>N4383936</v>
       </c>
       <c r="B296" t="str">
-        <v>尊敬的客户.+将至,祝您节日快乐,生意兴隆!如需要了解ERP软件问题,欢迎来电,随时恭候!</v>
+        <v>您绑定手机的验证码是\#?\w+\#?。如非本人操作，请忽略本短信</v>
       </c>
       <c r="C296" t="str">
         <v>reject</v>
@@ -4313,21 +4349,24 @@
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>M6010411</v>
+        <v>N4383936</v>
       </c>
       <c r="B297" t="str">
-        <v>亲爱的.+进行流感疫苗接种，将感染流感及呼吸道疾病的风险降到最低.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松。回TD退订</v>
+        <v>尊敬的客户.+将至,祝您节日快乐,生意兴隆!如需要了解ERP软件问题,欢迎来电,随时恭候!</v>
       </c>
       <c r="C297" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D297" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>M4364918</v>
+        <v>M6010411</v>
       </c>
       <c r="B298" t="str">
-        <v>亲，Honsun.{2,15}发布了新动态http://dwz.cn/\w+回复T退订</v>
+        <v>亲爱的.+进行流感疫苗接种，将感染流感及呼吸道疾病的风险降到最低.+您可咨询门诊或通过应用市场下载小豆苗APP，让宝宝打疫苗更轻松。回TD退订</v>
       </c>
       <c r="C298" t="str">
         <v>normal</v>
@@ -4335,27 +4374,24 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>M8348728</v>
+        <v>M4364918</v>
       </c>
       <c r="B299" t="str">
-        <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
+        <v>亲，Honsun.{2,15}发布了新动态http://dwz.cn/\w+回复T退订</v>
       </c>
       <c r="C299" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D299" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>N4383936</v>
+        <v>M8348728</v>
       </c>
       <c r="B300" t="str">
-        <v>您好！您的\d*元加油卡充值订单由于\（中石油/中石化\）系统问题暂时无法完成，您的充值金额\d*将在\d+-\d+个工作日内退还到您的支付账户，请注意查收，如有疑问请致电客服。</v>
-      </c>
-      <c r="C300" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D300" t="str">
-        <v>未加退订</v>
+        <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
       </c>
     </row>
     <row r="301">
@@ -4363,7 +4399,7 @@
         <v>N4383936</v>
       </c>
       <c r="B301" t="str">
-        <v>.*由于之前系统升级，您所办理的农行分期支付业务无法扣款成功，现公司将于.*重新对您的银行卡进行扣款。请确保卡上有足够的费用进行支付，如无法扣款成功，将.*开始收取滞纳金。如有疑问，请联系客服电话：\d*</v>
+        <v>您好！您的\d*元加油卡充值订单由于\（中石油/中石化\）系统问题暂时无法完成，您的充值金额\d*将在\d+-\d+个工作日内退还到您的支付账户，请注意查收，如有疑问请致电客服。</v>
       </c>
       <c r="C301" t="str">
         <v>reject</v>
@@ -4377,7 +4413,7 @@
         <v>N4383936</v>
       </c>
       <c r="B302" t="str">
-        <v>域名.+出现异常情况！</v>
+        <v>.*由于之前系统升级，您所办理的农行分期支付业务无法扣款成功，现公司将于.*重新对您的银行卡进行扣款。请确保卡上有足够的费用进行支付，如无法扣款成功，将.*开始收取滞纳金。如有疑问，请联系客服电话：\d*</v>
       </c>
       <c r="C302" t="str">
         <v>reject</v>
@@ -4391,7 +4427,7 @@
         <v>N4383936</v>
       </c>
       <c r="B303" t="str">
-        <v>尊敬的.+请登录"优兔APP"查看详情。建议您把"优兔APP"图标放在手机首页，保持在线，不要错过每一条订单信息。</v>
+        <v>域名.+出现异常情况！</v>
       </c>
       <c r="C303" t="str">
         <v>reject</v>
@@ -4405,7 +4441,7 @@
         <v>N4383936</v>
       </c>
       <c r="B304" t="str">
-        <v>尊敬的会员您好,您的.*订单已经匹配，请进入网站及时操作，得邦理财与您一同成长。</v>
+        <v>尊敬的.+请登录"优兔APP"查看详情。建议您把"优兔APP"图标放在手机首页，保持在线，不要错过每一条订单信息。</v>
       </c>
       <c r="C304" t="str">
         <v>reject</v>
@@ -4419,7 +4455,7 @@
         <v>N4383936</v>
       </c>
       <c r="B305" t="str">
-        <v>您获得的是.*兑奖码.*兑奖地址：丰台区榴乡路88号石榴中心斯坦福广场</v>
+        <v>尊敬的会员您好,您的.*订单已经匹配，请进入网站及时操作，得邦理财与您一同成长。</v>
       </c>
       <c r="C305" t="str">
         <v>reject</v>
@@ -4433,7 +4469,7 @@
         <v>N4383936</v>
       </c>
       <c r="B306" t="str">
-        <v>已有学员.*邀约您，请到营销大咖-&gt;个人中心进行查看。</v>
+        <v>您获得的是.*兑奖码.*兑奖地址：丰台区榴乡路88号石榴中心斯坦福广场</v>
       </c>
       <c r="C306" t="str">
         <v>reject</v>
@@ -4447,7 +4483,7 @@
         <v>N4383936</v>
       </c>
       <c r="B307" t="str">
-        <v>统一用户中心账号开通通知.+请注意跟进。</v>
+        <v>已有学员.*邀约您，请到营销大咖-&gt;个人中心进行查看。</v>
       </c>
       <c r="C307" t="str">
         <v>reject</v>
@@ -4458,21 +4494,24 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>M3202601</v>
+        <v>N4383936</v>
       </c>
       <c r="B308" t="str">
-        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹.+最后1天咯！再送.+退订回TD</v>
+        <v>统一用户中心账号开通通知.+请注意跟进。</v>
       </c>
       <c r="C308" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D308" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>M3434071</v>
+        <v>M3202601</v>
       </c>
       <c r="B309" t="str">
-        <v>尊敬的客户您好，为了防止个别用户恶意套现,充值成功未投资进行提现的将扣取20%的手续费，系统已撤回申请，如确定需要提现请重新申请，有其他问题可以联系在线客服！退订回TD</v>
+        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹.+最后1天咯！再送.+退订回TD</v>
       </c>
       <c r="C309" t="str">
         <v>normal</v>
@@ -4480,10 +4519,10 @@
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>M5129810</v>
+        <v>M3434071</v>
       </c>
       <c r="B310" t="str">
-        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹、限时14.9元／4盒！最后1天咯！退订回TD</v>
+        <v>尊敬的客户您好，为了防止个别用户恶意套现,充值成功未投资进行提现的将扣取20%的手续费，系统已撤回申请，如确定需要提现请重新申请，有其他问题可以联系在线客服！退订回TD</v>
       </c>
       <c r="C310" t="str">
         <v>normal</v>
@@ -4491,10 +4530,10 @@
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>M4980299</v>
+        <v>M5129810</v>
       </c>
       <c r="B311" t="str">
-        <v>恭喜您获得.{2,20}现金劵，劵码是：.{2,20}，请在APP商城下单付款时直接提供给客服抵用（不可用于活动商品）。感谢您的支持与厚爱，兄弟翡翠祝您：身体健康！万事如意！退订回复TD</v>
+        <v>因为无添加、所以我纯真呐。蒙牛纯甄酸牛奶，优质奶源、口感纯粹、限时14.9元／4盒！最后1天咯！退订回TD</v>
       </c>
       <c r="C311" t="str">
         <v>normal</v>
@@ -4502,24 +4541,21 @@
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>N2112240</v>
+        <v>M4980299</v>
       </c>
       <c r="B312" t="str">
-        <v>尊敬的客户:.{2,10},您好!您预约的.{2,100}已发货,快递单号:.{2,50},请您保持电话畅通。</v>
+        <v>恭喜您获得.{2,20}现金劵，劵码是：.{2,20}，请在APP商城下单付款时直接提供给客服抵用（不可用于活动商品）。感谢您的支持与厚爱，兄弟翡翠祝您：身体健康！万事如意！退订回复TD</v>
       </c>
       <c r="C312" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D312" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>N4383936</v>
+        <v>N2112240</v>
       </c>
       <c r="B313" t="str">
-        <v>尊敬的.+你好：本次系统于.+收到你关系信件编号为.+的来信，本系统已将反映的问题转至.+部门处理，特此通知</v>
+        <v>尊敬的客户:.{2,10},您好!您预约的.{2,100}已发货,快递单号:.{2,50},请您保持电话畅通。</v>
       </c>
       <c r="C313" t="str">
         <v>reject</v>
@@ -4533,7 +4569,7 @@
         <v>N4383936</v>
       </c>
       <c r="B314" t="str">
-        <v>我的班级我做主,券号.+请妥善保管此短信，用于报名优惠验证！</v>
+        <v>尊敬的.+你好：本次系统于.+收到你关系信件编号为.+的来信，本系统已将反映的问题转至.+部门处理，特此通知</v>
       </c>
       <c r="C314" t="str">
         <v>reject</v>
@@ -4547,7 +4583,7 @@
         <v>N4383936</v>
       </c>
       <c r="B315" t="str">
-        <v>尊贵的会员您好，抱歉的通知您持有的.+由于在平台被购买，须要进行召回，为了表示歉意，我们将赠送您一次表带更换或手表养护服务。召回日期.+详询：4008505011。由此给您造成的不便请您谅解，并感谢您的理解与支持。</v>
+        <v>我的班级我做主,券号.+请妥善保管此短信，用于报名优惠验证！</v>
       </c>
       <c r="C315" t="str">
         <v>reject</v>
@@ -4561,7 +4597,7 @@
         <v>N4383936</v>
       </c>
       <c r="B316" t="str">
-        <v>您的视频定制已经完成。点击查询下载链接\w+</v>
+        <v>尊贵的会员您好，抱歉的通知您持有的.+由于在平台被购买，须要进行召回，为了表示歉意，我们将赠送您一次表带更换或手表养护服务。召回日期.+详询：4008505011。由此给您造成的不便请您谅解，并感谢您的理解与支持。</v>
       </c>
       <c r="C316" t="str">
         <v>reject</v>
@@ -4575,7 +4611,7 @@
         <v>N4383936</v>
       </c>
       <c r="B317" t="str">
-        <v>尊贵的.+验证资金.+元已转入尾号为.+银行信用卡上,现余额为.+请与担保公司联系,祝您生活愉快!</v>
+        <v>您的视频定制已经完成。点击查询下载链接\w+</v>
       </c>
       <c r="C317" t="str">
         <v>reject</v>
@@ -4586,27 +4622,30 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>M6180832</v>
+        <v>N4383936</v>
       </c>
       <c r="B318" t="str">
-        <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
+        <v>尊贵的.+验证资金.+元已转入尾号为.+银行信用卡上,现余额为.+请与担保公司联系,祝您生活愉快!</v>
       </c>
       <c r="C318" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D318" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>N8369795</v>
+        <v>M6180832</v>
       </c>
       <c r="B319" t="str">
-        <v>.{2,6}您好:您的订单号.+被确认,请尽快付费,客服电话.+</v>
+        <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
       </c>
       <c r="C319" t="str">
         <v>reject</v>
       </c>
       <c r="D319" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="320">
@@ -4614,7 +4653,7 @@
         <v>N8369795</v>
       </c>
       <c r="B320" t="str">
-        <v>.{0,8}之前到.{0,15}取件.{0,8}</v>
+        <v>.{2,6}您好:您的订单号.+被确认,请尽快付费,客服电话.+</v>
       </c>
       <c r="C320" t="str">
         <v>reject</v>
@@ -4625,29 +4664,35 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>M7223621</v>
+        <v>N8369795</v>
       </c>
       <c r="B321" t="str">
-        <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
+        <v>.{0,8}之前到.{0,15}取件.{0,8}</v>
       </c>
       <c r="C321" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D321" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>M667356_M1772685</v>
+        <v>M7223621</v>
       </c>
       <c r="B322" t="str">
-        <v>股权激励的最高境界不是让员工得到的更多.*对公司的感情越深。经邦强调，成功的股改不是散财，而是合股合力，把大家的财合在一起！如何落地一套“财聚人聚”股改方案？详细了解回复9或18588604560退订回复T</v>
+        <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
+      </c>
+      <c r="C322" t="str">
+        <v>normal</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>M5129810</v>
+        <v>M667356_M1772685</v>
       </c>
       <c r="B323" t="str">
-        <v>哇，这一口满满的胶原蛋白→回家吃饭鸡翅根，鲜嫩可口、供港品质、吃的安心，第二件1元！再送&lt;神秘优惠券&gt;！退订回TD</v>
+        <v>股权激励的最高境界不是让员工得到的更多.*对公司的感情越深。经邦强调，成功的股改不是散财，而是合股合力，把大家的财合在一起！如何落地一套“财聚人聚”股改方案？详细了解回复9或18588604560退订回复T</v>
       </c>
       <c r="C323" t="str">
         <v>normal</v>
@@ -4655,24 +4700,21 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>N4383936</v>
+        <v>M5129810</v>
       </c>
       <c r="B324" t="str">
-        <v>尊敬的\#\w{8}\#，您好。您所投债权转让标\#\w{5}#\已流标，所投资金已经回退到您的账户，请您查收确认。</v>
+        <v>哇，这一口满满的胶原蛋白→回家吃饭鸡翅根，鲜嫩可口、供港品质、吃的安心，第二件1元！再送&lt;神秘优惠券&gt;！退订回TD</v>
       </c>
       <c r="C324" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D324" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>N1449833</v>
+        <v>N4383936</v>
       </c>
       <c r="B325" t="str">
-        <v>.*驳回了您的@申请，请注意查看。</v>
+        <v>尊敬的\#\w{8}\#，您好。您所投债权转让标\#\w{5}#\已流标，所投资金已经回退到您的账户，请您查收确认。</v>
       </c>
       <c r="C325" t="str">
         <v>reject</v>
@@ -4683,10 +4725,10 @@
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>N4383936</v>
+        <v>N1449833</v>
       </c>
       <c r="B326" t="str">
-        <v>.*您好.*星科启迪之星创业营开营，请准时参加，0536-8211788.*</v>
+        <v>.*驳回了您的@申请，请注意查看。</v>
       </c>
       <c r="C326" t="str">
         <v>reject</v>
@@ -4700,7 +4742,7 @@
         <v>N4383936</v>
       </c>
       <c r="B327" t="str">
-        <v>.+您好，请及时处理.+谢谢！</v>
+        <v>.*您好.*星科启迪之星创业营开营，请准时参加，0536-8211788.*</v>
       </c>
       <c r="C327" t="str">
         <v>reject</v>
@@ -4714,7 +4756,7 @@
         <v>N4383936</v>
       </c>
       <c r="B328" t="str">
-        <v>.*尊敬的客户您好，您的订单号.*如需帮助请联系在线客服，本消息无须回复.*</v>
+        <v>.+您好，请及时处理.+谢谢！</v>
       </c>
       <c r="C328" t="str">
         <v>reject</v>
@@ -4728,7 +4770,7 @@
         <v>N4383936</v>
       </c>
       <c r="B329" t="str">
-        <v>秩幽私人影院提醒您，于.+开始计时，祝您观影愉快</v>
+        <v>.*尊敬的客户您好，您的订单号.*如需帮助请联系在线客服，本消息无须回复.*</v>
       </c>
       <c r="C329" t="str">
         <v>reject</v>
@@ -4742,7 +4784,7 @@
         <v>N4383936</v>
       </c>
       <c r="B330" t="str">
-        <v>尊敬的客户.*我公司将于.*放假.*天,ERP如有问题请提前联系我们处理,假期不便及时处理问题,请见谅!</v>
+        <v>秩幽私人影院提醒您，于.+开始计时，祝您观影愉快</v>
       </c>
       <c r="C330" t="str">
         <v>reject</v>
@@ -4753,35 +4795,38 @@
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>M3202601</v>
+        <v>N4383936</v>
       </c>
       <c r="B331" t="str">
-        <v>0添加，叫我怎么不纯粹？蒙牛纯甄酸牛奶，味道像小时候一样纯真。4盒仅16.9元再送4折券！t.cn/RMoSfUh退订回TD</v>
+        <v>尊敬的客户.*我公司将于.*放假.*天,ERP如有问题请提前联系我们处理,假期不便及时处理问题,请见谅!</v>
       </c>
       <c r="C331" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D331" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>N1199199</v>
+        <v>M3202601</v>
       </c>
       <c r="B332" t="str">
-        <v>.{0,10}尊敬的简易用户，您的验证为.{0,10}此验证码将会在5分钟内过期，谢谢您的支持！</v>
+        <v>0添加，叫我怎么不纯粹？蒙牛纯甄酸牛奶，味道像小时候一样纯真。4盒仅16.9元再送4折券！t.cn/RMoSfUh退订回TD</v>
       </c>
       <c r="C332" t="str">
         <v>reject</v>
       </c>
       <c r="D332" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>N2702621</v>
+        <v>N1199199</v>
       </c>
       <c r="B333" t="str">
-        <v>您的订单WD.+已上车，司机：.{2,10}，电话：\d+。详情\w+</v>
+        <v>.{0,10}尊敬的简易用户，您的验证为.{0,10}此验证码将会在5分钟内过期，谢谢您的支持！</v>
       </c>
       <c r="C333" t="str">
         <v>reject</v>
@@ -4792,10 +4837,10 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>N4383936</v>
+        <v>N2702621</v>
       </c>
       <c r="B334" t="str">
-        <v>.*尊敬的客户，您申办的加油卡已邮寄，卡号为.*邮递单号.*初始密码.*请注意查收,收到卡以后您可以去任一中国石油加油站修改密码，感谢您的支持.*</v>
+        <v>您的订单WD.+已上车，司机：.{2,10}，电话：\d+。详情\w+</v>
       </c>
       <c r="C334" t="str">
         <v>reject</v>
@@ -4809,7 +4854,7 @@
         <v>N4383936</v>
       </c>
       <c r="B335" t="str">
-        <v>您申报的项目未通过审核</v>
+        <v>.*尊敬的客户，您申办的加油卡已邮寄，卡号为.*邮递单号.*初始密码.*请注意查收,收到卡以后您可以去任一中国石油加油站修改密码，感谢您的支持.*</v>
       </c>
       <c r="C335" t="str">
         <v>reject</v>
@@ -4823,7 +4868,7 @@
         <v>N4383936</v>
       </c>
       <c r="B336" t="str">
-        <v>尊敬的用户您好，恭喜您参加.+祈福小游戏获得水灯一盏。现诚邀您参加大鹏中秋水灯祈福夜活动，免费领取水灯。水灯领奖方式.+晚17:30分，大鹏东山寺天王殿凭姓名及联系方式即可领取。</v>
+        <v>您申报的项目未通过审核</v>
       </c>
       <c r="C336" t="str">
         <v>reject</v>
@@ -4834,16 +4879,16 @@
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B337" t="str">
-        <v>中秋送福利啦.+马上拥有自己的网店，客服微信.+退订回复TD</v>
+        <v>尊敬的用户您好，恭喜您参加.+祈福小游戏获得水灯一盏。现诚邀您参加大鹏中秋水灯祈福夜活动，免费领取水灯。水灯领奖方式.+晚17:30分，大鹏东山寺天王殿凭姓名及联系方式即可领取。</v>
       </c>
       <c r="C337" t="str">
         <v>reject</v>
       </c>
       <c r="D337" t="str">
-        <v>类别：15</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="338">
@@ -4851,24 +4896,21 @@
         <v>M1147250</v>
       </c>
       <c r="B338" t="str">
-        <v>尊敬的用户您好，您已成功盲订上汽大通.+马上分享给好友满三人盲订您可以再获\d+元优惠券（个人中心查询）。关注微信“我行MAXUS”享受更多权益。如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+        <v>中秋送福利啦.+马上拥有自己的网店，客服微信.+退订回复TD</v>
       </c>
       <c r="C338" t="str">
         <v>normal</v>
+      </c>
+      <c r="D338" t="str">
+        <v>类别：15</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B339" t="str">
-        <v>尊敬的客户：您好！您通过“天水e金融”申请的预约取现业务未通过审核，详情请咨询网点受理电话.+</v>
-      </c>
-      <c r="C339" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D339" t="str">
-        <v>未加退订</v>
+        <v>尊敬的用户您好，您已成功盲订上汽大通.+马上分享给好友满三人盲订您可以再获\d+元优惠券（个人中心查询）。关注微信“我行MAXUS”享受更多权益。如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
     </row>
     <row r="340">
@@ -4876,7 +4918,7 @@
         <v>N4383936</v>
       </c>
       <c r="B340" t="str">
-        <v>.*您有新的业务办理申请，申请.*手机号.*申请业务.*请您及时处理.*</v>
+        <v>尊敬的客户：您好！您通过“天水e金融”申请的预约取现业务未通过审核，详情请咨询网点受理电话.+</v>
       </c>
       <c r="C340" t="str">
         <v>reject</v>
@@ -4890,7 +4932,7 @@
         <v>N4383936</v>
       </c>
       <c r="B341" t="str">
-        <v>Salloisournewproduct,Recharge.+Visitt.cn/RcOeWpy</v>
+        <v>.*您有新的业务办理申请，申请.*手机号.*申请业务.*请您及时处理.*</v>
       </c>
       <c r="C341" t="str">
         <v>reject</v>
@@ -4904,7 +4946,7 @@
         <v>N4383936</v>
       </c>
       <c r="B342" t="str">
-        <v>您在.+的商城有用户取消了订单，请登录.+查看详情.+www.tcsoo.com</v>
+        <v>Salloisournewproduct,Recharge.+Visitt.cn/RcOeWpy</v>
       </c>
       <c r="C342" t="str">
         <v>reject</v>
@@ -4915,10 +4957,10 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>M8467004</v>
+        <v>N4383936</v>
       </c>
       <c r="B343" t="str">
-        <v>尊敬的用户：您申请的律生活平台账号已注册成功！账号为您的手机号，初始密码为.{2,20}。请勿将初始密码提供给他人导致账号被盗。您有任何问题或疑问都可登入www.law-cloud.com.cn或拨打热线电话4007-167-956，我们将竭力为您服务。感谢您对律生活的信任与支持！</v>
+        <v>您在.+的商城有用户取消了订单，请登录.+查看详情.+www.tcsoo.com</v>
       </c>
       <c r="C343" t="str">
         <v>reject</v>
@@ -4929,10 +4971,10 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>N4383936</v>
+        <v>M8467004</v>
       </c>
       <c r="B344" t="str">
-        <v>您有流程编号为.+需要您登录平台进行审核！</v>
+        <v>尊敬的用户：您申请的律生活平台账号已注册成功！账号为您的手机号，初始密码为.{2,20}。请勿将初始密码提供给他人导致账号被盗。您有任何问题或疑问都可登入www.law-cloud.com.cn或拨打热线电话4007-167-956，我们将竭力为您服务。感谢您对律生活的信任与支持！</v>
       </c>
       <c r="C344" t="str">
         <v>reject</v>
@@ -4946,7 +4988,7 @@
         <v>N4383936</v>
       </c>
       <c r="B345" t="str">
-        <v>您已购票成功.+开车前凭购票证件原件在火车站或代售点取票。</v>
+        <v>您有流程编号为.+需要您登录平台进行审核！</v>
       </c>
       <c r="C345" t="str">
         <v>reject</v>
@@ -4957,13 +4999,16 @@
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B346" t="str">
-        <v>开幕式明天7:20开始，精英组10:30鸣枪，请提前到场热身。另由于明天封路，请注意仅能沿西江路-静兰桥底入场。退订回TD</v>
+        <v>您已购票成功.+开车前凭购票证件原件在火车站或代售点取票。</v>
       </c>
       <c r="C346" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D346" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="347">
@@ -4971,13 +5016,10 @@
         <v>M1147250</v>
       </c>
       <c r="B347" t="str">
-        <v>请于.*前将.*开到.*等候，目的地.*用车人.*联系电话.*</v>
+        <v>开幕式明天7:20开始，精英组10:30鸣枪，请提前到场热身。另由于明天封路，请注意仅能沿西江路-静兰桥底入场。退订回TD</v>
       </c>
       <c r="C347" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D347" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="348">
@@ -4985,24 +5027,21 @@
         <v>M1147250</v>
       </c>
       <c r="B348" t="str">
-        <v>尊敬的老师、学长：求是缘半导体联盟2016年会和首届招聘会.+将于.+召开。敬请您准时参加，顺祝安好。回T退订</v>
+        <v>请于.*前将.*开到.*等候，目的地.*用车人.*联系电话.*</v>
       </c>
       <c r="C348" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D348" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B349" t="str">
-        <v>Failtopurchase,pleasetryagain.</v>
-      </c>
-      <c r="C349" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D349" t="str">
-        <v>未加退订</v>
+        <v>尊敬的老师、学长：求是缘半导体联盟2016年会和首届招聘会.+将于.+召开。敬请您准时参加，顺祝安好。回T退订</v>
       </c>
     </row>
     <row r="350">
@@ -5010,7 +5049,7 @@
         <v>N4383936</v>
       </c>
       <c r="B350" t="str">
-        <v>此验证码只用于登录您的账户，验证码提供给他人将导致账户被盗。验证码：\#\w{4}\#，请勿转发。</v>
+        <v>Failtopurchase,pleasetryagain.</v>
       </c>
       <c r="C350" t="str">
         <v>reject</v>
@@ -5024,7 +5063,7 @@
         <v>N4383936</v>
       </c>
       <c r="B351" t="str">
-        <v>系统.*触发规则.*关键词.*请登录告警系统查看。</v>
+        <v>此验证码只用于登录您的账户，验证码提供给他人将导致账户被盗。验证码：\#\w{4}\#，请勿转发。</v>
       </c>
       <c r="C351" t="str">
         <v>reject</v>
@@ -5038,7 +5077,7 @@
         <v>N4383936</v>
       </c>
       <c r="B352" t="str">
-        <v>用车订单成功，车牌.+司机.+电话.+车辆将开到约定位置。\(如有变更，另行通知\)</v>
+        <v>系统.*触发规则.*关键词.*请登录告警系统查看。</v>
       </c>
       <c r="C352" t="str">
         <v>reject</v>
@@ -5052,10 +5091,13 @@
         <v>N4383936</v>
       </c>
       <c r="B353" t="str">
-        <v>聚合数据送你.*打开微信，搜索“聚合数据”或“juhe_cn”，关注微信号，回复关键字.*即可领取。退订回T</v>
+        <v>用车订单成功，车牌.+司机.+电话.+车辆将开到约定位置。\(如有变更，另行通知\)</v>
       </c>
       <c r="C353" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D353" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="354">
@@ -5063,32 +5105,35 @@
         <v>N4383936</v>
       </c>
       <c r="B354" t="str">
-        <v>您的快递已.*即将发往中转站。</v>
+        <v>聚合数据送你.*打开微信，搜索“聚合数据”或“juhe_cn”，关注微信号，回复关键字.*即可领取。退订回T</v>
       </c>
       <c r="C354" t="str">
         <v>reject</v>
       </c>
       <c r="D354" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>M7223621</v>
+        <v>N4383936</v>
       </c>
       <c r="B355" t="str">
-        <v>您好，您已完成此次处方取药，感谢您的使用，祝您早日康复！退订回TD</v>
+        <v>您的快递已.*即将发往中转站。</v>
       </c>
       <c r="C355" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D355" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>M5129810</v>
+        <v>M7223621</v>
       </c>
       <c r="B356" t="str">
-        <v>哇，这一口满满的胶原蛋白→鸡翅根第二件1元！鲜嫩可口、供港品质、让你吃的安心。t.cn/RM9iaJ8退订回TD</v>
+        <v>您好，您已完成此次处方取药，感谢您的使用，祝您早日康复！退订回TD</v>
       </c>
       <c r="C356" t="str">
         <v>normal</v>
@@ -5096,24 +5141,24 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>N4660285</v>
+        <v>M5129810</v>
       </c>
       <c r="B357" t="str">
-        <v>您的搜客宝免费账户已激活，账号为.*免费搜索。网址为：skb.91jierong.com。如有疑问或需要帮助，请随时联系.*祝您生活愉快.{0,8}</v>
+        <v>哇，这一口满满的胶原蛋白→鸡翅根第二件1元！鲜嫩可口、供港品质、让你吃的安心。t.cn/RM9iaJ8退订回TD</v>
       </c>
       <c r="C357" t="str">
         <v>reject</v>
       </c>
       <c r="D357" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>N2772660</v>
+        <v>N4660285</v>
       </c>
       <c r="B358" t="str">
-        <v>提醒：您的订单已被购买，请您主动联系客服，并添加为好友交易。登陆平台-我是卖家-我的订单管理-点击已支付</v>
+        <v>您的搜客宝免费账户已激活，账号为.*免费搜索。网址为：skb.91jierong.com。如有疑问或需要帮助，请随时联系.*祝您生活愉快.{0,8}</v>
       </c>
       <c r="C358" t="str">
         <v>reject</v>
@@ -5124,10 +5169,10 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>N4383936</v>
+        <v>N2772660</v>
       </c>
       <c r="B359" t="str">
-        <v>您的维修商.+详情请登陆智屏联盟微信公众号个人中心进行查看。</v>
+        <v>提醒：您的订单已被购买，请您主动联系客服，并添加为好友交易。登陆平台-我是卖家-我的订单管理-点击已支付</v>
       </c>
       <c r="C359" t="str">
         <v>reject</v>
@@ -5141,7 +5186,7 @@
         <v>N4383936</v>
       </c>
       <c r="B360" t="str">
-        <v>.*亲爱的学员朋友们大家好：接省交警总队通知.*之前报名的学员，请全部到千里马驾校服务大厅用高拍仪进行“面签”否则将无法办理预约、考试等业务。望各位相互转告，谢谢.*</v>
+        <v>您的维修商.+详情请登陆智屏联盟微信公众号个人中心进行查看。</v>
       </c>
       <c r="C360" t="str">
         <v>reject</v>
@@ -5155,7 +5200,7 @@
         <v>N4383936</v>
       </c>
       <c r="B361" t="str">
-        <v>恭喜您已经成功加入.+您可以访问微信服务号:heyheyim了解更多信息！</v>
+        <v>.*亲爱的学员朋友们大家好：接省交警总队通知.*之前报名的学员，请全部到千里马驾校服务大厅用高拍仪进行“面签”否则将无法办理预约、考试等业务。望各位相互转告，谢谢.*</v>
       </c>
       <c r="C361" t="str">
         <v>reject</v>
@@ -5169,7 +5214,7 @@
         <v>N4383936</v>
       </c>
       <c r="B362" t="str">
-        <v>尊敬的.+您已加入无畏互助大病保障计划，灵山基金会已为您的健康充值.+按钮，查询个人的保障状态。</v>
+        <v>恭喜您已经成功加入.+您可以访问微信服务号:heyheyim了解更多信息！</v>
       </c>
       <c r="C362" t="str">
         <v>reject</v>
@@ -5183,7 +5228,7 @@
         <v>N4383936</v>
       </c>
       <c r="B363" t="str">
-        <v>.*您的手机验证码为：\d*，如非本人操作，请忽略此短信。详情请关注智屏联盟微信公众号或拨打官方热线：4000-275-725。</v>
+        <v>尊敬的.+您已加入无畏互助大病保障计划，灵山基金会已为您的健康充值.+按钮，查询个人的保障状态。</v>
       </c>
       <c r="C363" t="str">
         <v>reject</v>
@@ -5197,7 +5242,7 @@
         <v>N4383936</v>
       </c>
       <c r="B364" t="str">
-        <v>亲爱的.+祝您和家人平安、健康、幸福，端午节快乐无限！一分耕耘一分收获，智富感谢有你！</v>
+        <v>.*您的手机验证码为：\d*，如非本人操作，请忽略此短信。详情请关注智屏联盟微信公众号或拨打官方热线：4000-275-725。</v>
       </c>
       <c r="C364" t="str">
         <v>reject</v>
@@ -5211,7 +5256,7 @@
         <v>N4383936</v>
       </c>
       <c r="B365" t="str">
-        <v>亲,尊贵的.*您购买的商品已发出,记得查收哦~</v>
+        <v>亲爱的.+祝您和家人平安、健康、幸福，端午节快乐无限！一分耕耘一分收获，智富感谢有你！</v>
       </c>
       <c r="C365" t="str">
         <v>reject</v>
@@ -5222,13 +5267,16 @@
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B366" t="str">
-        <v>中时通会员朋友们您好，年底最后一次优惠通知，仅此一次，中时通李小颖18005316593,退订回复T。</v>
+        <v>亲,尊贵的.*您购买的商品已发出,记得查收哦~</v>
       </c>
       <c r="C366" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D366" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="367">
@@ -5236,7 +5284,7 @@
         <v>M1147250</v>
       </c>
       <c r="B367" t="str">
-        <v>您的简历已推荐给大自然地板，若您收到该企业来电，请说明该信息经由93招聘网获知-jm.93zp.com回复TD退订</v>
+        <v>中时通会员朋友们您好，年底最后一次优惠通知，仅此一次，中时通李小颖18005316593,退订回复T。</v>
       </c>
       <c r="C367" t="str">
         <v>normal</v>
@@ -5244,16 +5292,13 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B368" t="str">
-        <v>.*您在闲得网还有昨日任务未确认放款，请务必于.*确认完毕，以免因买家未及时收到返款而产生退货，谢谢.*</v>
+        <v>您的简历已推荐给大自然地板，若您收到该企业来电，请说明该信息经由93招聘网获知-jm.93zp.com回复TD退订</v>
       </c>
       <c r="C368" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D368" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="369">
@@ -5261,7 +5306,7 @@
         <v>N4383936</v>
       </c>
       <c r="B369" t="str">
-        <v>尊敬的客户，您好！恭喜您在转盘抽奖活动中获得.*请查收您的话费充值提示短信。</v>
+        <v>.*您在闲得网还有昨日任务未确认放款，请务必于.*确认完毕，以免因买家未及时收到返款而产生退货，谢谢.*</v>
       </c>
       <c r="C369" t="str">
         <v>reject</v>
@@ -5275,7 +5320,7 @@
         <v>N4383936</v>
       </c>
       <c r="B370" t="str">
-        <v>.*恭喜您已成功报名.*瑜伽节.*请携带个人身份证前往乐山邦泰国际社区营销中心，进行身份认证并领取活动参与券，因活动参与券数量有限，前100位成功认证粉丝将获得参与券，先到先得，发完为止，敬请悉知。</v>
+        <v>尊敬的客户，您好！恭喜您在转盘抽奖活动中获得.*请查收您的话费充值提示短信。</v>
       </c>
       <c r="C370" t="str">
         <v>reject</v>
@@ -5289,7 +5334,7 @@
         <v>N4383936</v>
       </c>
       <c r="B371" t="str">
-        <v>亲爱的.{1,10}您已发起申请提现.+元。如非本人操作，请尽快联系我们</v>
+        <v>.*恭喜您已成功报名.*瑜伽节.*请携带个人身份证前往乐山邦泰国际社区营销中心，进行身份认证并领取活动参与券，因活动参与券数量有限，前100位成功认证粉丝将获得参与券，先到先得，发完为止，敬请悉知。</v>
       </c>
       <c r="C371" t="str">
         <v>reject</v>
@@ -5303,7 +5348,7 @@
         <v>N4383936</v>
       </c>
       <c r="B372" t="str">
-        <v>.+您的订单\（编号.+已经发货.+请保持通知畅通，注意查收。发货时间.{1,15}</v>
+        <v>亲爱的.{1,10}您已发起申请提现.+元。如非本人操作，请尽快联系我们</v>
       </c>
       <c r="C372" t="str">
         <v>reject</v>
@@ -5317,7 +5362,7 @@
         <v>N4383936</v>
       </c>
       <c r="B373" t="str">
-        <v>尊敬.*您的投标.*已完成第.*期还款，请关注您的账户资金变化。</v>
+        <v>.+您的订单\（编号.+已经发货.+请保持通知畅通，注意查收。发货时间.{1,15}</v>
       </c>
       <c r="C373" t="str">
         <v>reject</v>
@@ -5331,7 +5376,7 @@
         <v>N4383936</v>
       </c>
       <c r="B374" t="str">
-        <v>您的订单.+的退款申请正在处理中，我们会尽快处理您的申请，并第一时间反馈退款结果！</v>
+        <v>尊敬.*您的投标.*已完成第.*期还款，请关注您的账户资金变化。</v>
       </c>
       <c r="C374" t="str">
         <v>reject</v>
@@ -5345,7 +5390,7 @@
         <v>N4383936</v>
       </c>
       <c r="B375" t="str">
-        <v>感谢您推荐朋友与伙伴使用新蓝景产品，您的推荐奖励未能验证通过；请核对后重新输入。重要提示：关注新蓝景二维码，获取更多相关信息！</v>
+        <v>您的订单.+的退款申请正在处理中，我们会尽快处理您的申请，并第一时间反馈退款结果！</v>
       </c>
       <c r="C375" t="str">
         <v>reject</v>
@@ -5359,7 +5404,7 @@
         <v>N4383936</v>
       </c>
       <c r="B376" t="str">
-        <v>您好,您本月物业费已出。物业费金额.*请尽快缴纳，如有疑问，请咨询.{0,11}</v>
+        <v>感谢您推荐朋友与伙伴使用新蓝景产品，您的推荐奖励未能验证通过；请核对后重新输入。重要提示：关注新蓝景二维码，获取更多相关信息！</v>
       </c>
       <c r="C376" t="str">
         <v>reject</v>
@@ -5373,18 +5418,27 @@
         <v>N4383936</v>
       </c>
       <c r="B377" t="str">
-        <v>同城货运，嘟嘟快运。http://dwz.cn/.{1,8}欢迎下载嘟嘟快运APP，拉货搬家，安全省心！回T退订</v>
+        <v>您好,您本月物业费已出。物业费金额.*请尽快缴纳，如有疑问，请咨询.{0,11}</v>
       </c>
       <c r="C377" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D377" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B378" t="str">
-        <v>尊敬的.+您好!感谢您参与中国石油10月10日10惠活动，经过我司的紧急配货，各站10惠礼包已到位，您短信领取的礼包卡劵有效期已更改为10月10日-24日，请您及时至10惠加油站领取。详询95504。回复TD退订!</v>
+        <v>同城货运，嘟嘟快运。http://dwz.cn/.{1,8}欢迎下载嘟嘟快运APP，拉货搬家，安全省心！回T退订</v>
+      </c>
+      <c r="C378" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D378" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="379">
@@ -5392,10 +5446,7 @@
         <v>M1147250</v>
       </c>
       <c r="B379" t="str">
-        <v>亲爱的COCOK会员.*根据您的COCOK会员卡使用活跃度，本司现积分回馈赠送您\d*元的消费额度，可直接当现金使用消费，有效期至\d*-\d*-\d*。地址：广州越秀区沿江中路199号天字广场。详情请咨询：020-83302588，回T退订</v>
-      </c>
-      <c r="C379" t="str">
-        <v>normal</v>
+        <v>尊敬的.+您好!感谢您参与中国石油10月10日10惠活动，经过我司的紧急配货，各站10惠礼包已到位，您短信领取的礼包卡劵有效期已更改为10月10日-24日，请您及时至10惠加油站领取。详询95504。回复TD退订!</v>
       </c>
     </row>
     <row r="380">
@@ -5403,7 +5454,7 @@
         <v>M1147250</v>
       </c>
       <c r="B380" t="str">
-        <v>.*太湖泳池派对，畅游无限，畅享美食。现在预约更有神秘大奖http://t.cn/Rt8VWzS回T退订</v>
+        <v>亲爱的COCOK会员.*根据您的COCOK会员卡使用活跃度，本司现积分回馈赠送您\d*元的消费额度，可直接当现金使用消费，有效期至\d*-\d*-\d*。地址：广州越秀区沿江中路199号天字广场。详情请咨询：020-83302588，回T退订</v>
       </c>
       <c r="C380" t="str">
         <v>normal</v>
@@ -5411,46 +5462,52 @@
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>M6240301</v>
+        <v>M1147250</v>
       </c>
       <c r="B381" t="str">
-        <v>春节茶礼限量抢购，市场价998元的正宗武夷山金骏眉礼盒，茶农直销价仅198元，限100份t.cn/RMzrlOW.退订回TD</v>
+        <v>.*太湖泳池派对，畅游无限，畅享美食。现在预约更有神秘大奖http://t.cn/Rt8VWzS回T退订</v>
       </c>
       <c r="C381" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D381" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>M5168581</v>
+        <v>M6240301</v>
       </c>
       <c r="B382" t="str">
-        <v>联帮劳务网是建筑劳务行业综合资源库，找工人、找活干、找材料设备，请微信搜索“联帮劳务网”或输入www.lblww.com注册。退订回TD</v>
+        <v>春节茶礼限量抢购，市场价998元的正宗武夷山金骏眉礼盒，茶农直销价仅198元，限100份t.cn/RMzrlOW.退订回TD</v>
       </c>
       <c r="C382" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D382" t="str">
+        <v>类别 122</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>N8988951</v>
+        <v>M5168581</v>
       </c>
       <c r="B383" t="str">
-        <v>您的快速登陆验证码为.{0,10}</v>
+        <v>联帮劳务网是建筑劳务行业综合资源库，找工人、找活干、找材料设备，请微信搜索“联帮劳务网”或输入www.lblww.com注册。退订回TD</v>
       </c>
       <c r="C383" t="str">
         <v>reject</v>
       </c>
       <c r="D383" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>N9478151</v>
+        <v>N8988951</v>
       </c>
       <c r="B384" t="str">
-        <v>12为您的验证码，30分钟内有效！</v>
+        <v>您的快速登陆验证码为.{0,10}</v>
       </c>
       <c r="C384" t="str">
         <v>reject</v>
@@ -5461,10 +5518,10 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>N6873724</v>
+        <v>N9478151</v>
       </c>
       <c r="B385" t="str">
-        <v>用户您好，您的白条分期订单本期已还款成功。关注信用钱包白条商城，更多优惠等着您t.cn/\w+</v>
+        <v>12为您的验证码，30分钟内有效！</v>
       </c>
       <c r="C385" t="str">
         <v>reject</v>
@@ -5475,10 +5532,10 @@
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>N2852505</v>
+        <v>N6873724</v>
       </c>
       <c r="B386" t="str">
-        <v>尊敬的客户您好，您正在发起消费信用借款申请，您的验证码为.{0,8}，如非本人操作请联系客服人员。</v>
+        <v>用户您好，您的白条分期订单本期已还款成功。关注信用钱包白条商城，更多优惠等着您t.cn/\w+</v>
       </c>
       <c r="C386" t="str">
         <v>reject</v>
@@ -5489,10 +5546,10 @@
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>N2341491</v>
+        <v>N2852505</v>
       </c>
       <c r="B387" t="str">
-        <v>尊敬的{12}:1月5日北京饭店微商服务者大会（白天+晚宴）,入场验证:{12},妥善保管,请勿泄露.</v>
+        <v>尊敬的客户您好，您正在发起消费信用借款申请，您的验证码为.{0,8}，如非本人操作请联系客服人员。</v>
       </c>
       <c r="C387" t="str">
         <v>reject</v>
@@ -5503,10 +5560,10 @@
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>N2852505</v>
+        <v>N2341491</v>
       </c>
       <c r="B388" t="str">
-        <v>尊敬的.*您确认申请后该款项将.*钟内未任何操作将视为您放弃本次申请.</v>
+        <v>尊敬的{12}:1月5日北京饭店微商服务者大会（白天+晚宴）,入场验证:{12},妥善保管,请勿泄露.</v>
       </c>
       <c r="C388" t="str">
         <v>reject</v>
@@ -5517,10 +5574,10 @@
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>N2745707</v>
+        <v>N2852505</v>
       </c>
       <c r="B389" t="str">
-        <v>恭喜您贷款审核通过,贷款金额:.{2,10}请前往微微贷官网查询.</v>
+        <v>尊敬的.*您确认申请后该款项将.*钟内未任何操作将视为您放弃本次申请.</v>
       </c>
       <c r="C389" t="str">
         <v>reject</v>
@@ -5531,10 +5588,10 @@
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>N4383936</v>
+        <v>N2745707</v>
       </c>
       <c r="B390" t="str">
-        <v>尊敬的业主.+香港名城已开通开通智慧社区服务平台，请广大业主踊跃下载智慧社区随居APP，轻松一点、线上缴费。详情咨询物业客服电话.+</v>
+        <v>恭喜您贷款审核通过,贷款金额:.{2,10}请前往微微贷官网查询.</v>
       </c>
       <c r="C390" t="str">
         <v>reject</v>
@@ -5548,7 +5605,7 @@
         <v>N4383936</v>
       </c>
       <c r="B391" t="str">
-        <v>.*您的订单已提交成功.*我们将以最快的速度和您取得联系.*</v>
+        <v>尊敬的业主.+香港名城已开通开通智慧社区服务平台，请广大业主踊跃下载智慧社区随居APP，轻松一点、线上缴费。详情咨询物业客服电话.+</v>
       </c>
       <c r="C391" t="str">
         <v>reject</v>
@@ -5562,7 +5619,7 @@
         <v>N4383936</v>
       </c>
       <c r="B392" t="str">
-        <v>尊敬的.+您已欠物业费及生活垃圾费共计.+元，请及时在随居APP上或到物业办公室缴纳费用，谢谢！如有任何疑问请致电.+</v>
+        <v>.*您的订单已提交成功.*我们将以最快的速度和您取得联系.*</v>
       </c>
       <c r="C392" t="str">
         <v>reject</v>
@@ -5576,7 +5633,7 @@
         <v>N4383936</v>
       </c>
       <c r="B393" t="str">
-        <v>亲爱的驴迹会员.+您购买的.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+授权码为.+截止日期为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
+        <v>尊敬的.+您已欠物业费及生活垃圾费共计.+元，请及时在随居APP上或到物业办公室缴纳费用，谢谢！如有任何疑问请致电.+</v>
       </c>
       <c r="C393" t="str">
         <v>reject</v>
@@ -5590,7 +5647,7 @@
         <v>N4383936</v>
       </c>
       <c r="B394" t="str">
-        <v>.*您已成功购买.*订单尾号.*请持兑换码.*到商家完成验证消费.*</v>
+        <v>亲爱的驴迹会员.+您购买的.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+授权码为.+截止日期为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
       </c>
       <c r="C394" t="str">
         <v>reject</v>
@@ -5604,7 +5661,7 @@
         <v>N4383936</v>
       </c>
       <c r="B395" t="str">
-        <v>亲爱的.+用户，您的订单号为.+入住时间.+离店时间.+该订单号未成功预定，预付款项将于7个工作日内原路退还。</v>
+        <v>.*您已成功购买.*订单尾号.*请持兑换码.*到商家完成验证消费.*</v>
       </c>
       <c r="C395" t="str">
         <v>reject</v>
@@ -5618,7 +5675,7 @@
         <v>N4383936</v>
       </c>
       <c r="B396" t="str">
-        <v>新达成交易的运单是：\w+，车牌号：.+，车长：.+货物类型：.+重量：.+体积：.+</v>
+        <v>亲爱的.+用户，您的订单号为.+入住时间.+离店时间.+该订单号未成功预定，预付款项将于7个工作日内原路退还。</v>
       </c>
       <c r="C396" t="str">
         <v>reject</v>
@@ -5629,13 +5686,16 @@
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B397" t="str">
-        <v>聚合数据送你.*红包啦，打开微信，搜索“试金石”，关注微信号，回复关键字“test”即可领取。退订回T</v>
+        <v>新达成交易的运单是：\w+，车牌号：.+，车长：.+货物类型：.+重量：.+体积：.+</v>
       </c>
       <c r="C397" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D397" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="398">
@@ -5643,7 +5703,7 @@
         <v>M1147250</v>
       </c>
       <c r="B398" t="str">
-        <v>恭喜您邀请的好友中有三位完成了盲订支付!\d*元优惠券已经放在您的账户中。登录我行.*平台，个人中心查看，我的代金券查询。如有疑问拨打400-081-2011。回复T退订。</v>
+        <v>聚合数据送你.*红包啦，打开微信，搜索“试金石”，关注微信号，回复关键字“test”即可领取。退订回T</v>
       </c>
       <c r="C398" t="str">
         <v>normal</v>
@@ -5654,7 +5714,7 @@
         <v>M1147250</v>
       </c>
       <c r="B399" t="str">
-        <v>淄博市总工会给大家送福利啦.+机不可失失不再来快拿起手机登录爱工惠APP查看吧。回T退订</v>
+        <v>恭喜您邀请的好友中有三位完成了盲订支付!\d*元优惠券已经放在您的账户中。登录我行.*平台，个人中心查看，我的代金券查询。如有疑问拨打400-081-2011。回复T退订。</v>
       </c>
       <c r="C399" t="str">
         <v>normal</v>
@@ -5665,7 +5725,7 @@
         <v>M1147250</v>
       </c>
       <c r="B400" t="str">
-        <v>尊敬的用户您好！您的上汽大通T60首发购车抵用券还未支付，限量抢购，即将结束。马上完成支付，成为划时代皮卡上汽大通T60的车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+        <v>淄博市总工会给大家送福利啦.+机不可失失不再来快拿起手机登录爱工惠APP查看吧。回T退订</v>
       </c>
       <c r="C400" t="str">
         <v>normal</v>
@@ -5676,7 +5736,7 @@
         <v>M1147250</v>
       </c>
       <c r="B401" t="str">
-        <v>.*我们青春无畏，同赴健康之约。灵山慈善基金会邀请您加入无畏互助大病保障计划，并已为您的健康充值.*点击“我的互助”，用手机号登录即可查询账户状态。回T退订。</v>
+        <v>尊敬的用户您好！您的上汽大通T60首发购车抵用券还未支付，限量抢购，即将结束。马上完成支付，成为划时代皮卡上汽大通T60的车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
       <c r="C401" t="str">
         <v>normal</v>
@@ -5687,10 +5747,7 @@
         <v>M1147250</v>
       </c>
       <c r="B402" t="str">
-        <v>您好！您盲订的.+还未支付，限时抢购，即将结束。马上完成支付，成为全球首款用户定义SUV车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
-      </c>
-      <c r="C402" t="str">
-        <v>normal</v>
+        <v>.*我们青春无畏，同赴健康之约。灵山慈善基金会邀请您加入无畏互助大病保障计划，并已为您的健康充值.*点击“我的互助”，用手机号登录即可查询账户状态。回T退订。</v>
       </c>
     </row>
     <row r="403">
@@ -5698,7 +5755,7 @@
         <v>M1147250</v>
       </c>
       <c r="B403" t="str">
-        <v>11月10日晚10点，红领巾“现货专区”全场抄底特价狂欢！详情请查看微信公众号“红领巾小助手”，回复T退订</v>
+        <v>您好！您盲订的.+还未支付，限时抢购，即将结束。马上完成支付，成为全球首款用户定义SUV车主吧！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
       <c r="C403" t="str">
         <v>normal</v>
@@ -5706,24 +5763,21 @@
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>N6873724</v>
+        <v>M1147250</v>
       </c>
       <c r="B404" t="str">
-        <v>用户您好，您已提现成功，将会在.{2,8}个工作日内收到借款。到信用钱包APPt.cn/Rf882N8激活白条，分期无忧购</v>
+        <v>11月10日晚10点，红领巾“现货专区”全场抄底特价狂欢！详情请查看微信公众号“红领巾小助手”，回复T退订</v>
       </c>
       <c r="C404" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D404" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>N4383936</v>
+        <v>N6873724</v>
       </c>
       <c r="B405" t="str">
-        <v>您好，您有新订单，详情：.+</v>
+        <v>用户您好，您已提现成功，将会在.{2,8}个工作日内收到借款。到信用钱包APPt.cn/Rf882N8激活白条，分期无忧购</v>
       </c>
       <c r="C405" t="str">
         <v>reject</v>
@@ -5737,7 +5791,7 @@
         <v>N4383936</v>
       </c>
       <c r="B406" t="str">
-        <v>诚邀您参加.+详情请致电.+</v>
+        <v>您好，您有新订单，详情：.+</v>
       </c>
       <c r="C406" t="str">
         <v>reject</v>
@@ -5751,7 +5805,7 @@
         <v>N4383936</v>
       </c>
       <c r="B407" t="str">
-        <v>您本次操作的验证码是\d+</v>
+        <v>诚邀您参加.+详情请致电.+</v>
       </c>
       <c r="C407" t="str">
         <v>reject</v>
@@ -5765,10 +5819,13 @@
         <v>N4383936</v>
       </c>
       <c r="B408" t="str">
-        <v>您好！感谢您领取大全中秋月饼，如未收到月饼，也将于近期送到！请点击:http://t.cn/Rc5rSmt予以点评，谢谢您的支持！回T退订</v>
+        <v>您本次操作的验证码是\d+</v>
       </c>
       <c r="C408" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D408" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="409">
@@ -5776,13 +5833,10 @@
         <v>N4383936</v>
       </c>
       <c r="B409" t="str">
-        <v>您的进货订单已经发货，快递单号.+，请您注意查收！祝您在众成支商早日实现人生梦想！</v>
+        <v>您好！感谢您领取大全中秋月饼，如未收到月饼，也将于近期送到！请点击:http://t.cn/Rc5rSmt予以点评，谢谢您的支持！回T退订</v>
       </c>
       <c r="C409" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D409" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="410">
@@ -5790,7 +5844,7 @@
         <v>N4383936</v>
       </c>
       <c r="B410" t="str">
-        <v>您的提现申请已经审核通过，已转账\d*\.?\d*元到您绑定的提现银行卡，请注意查收，到账时间由各银行的操作规定，一般为48小时内。</v>
+        <v>您的进货订单已经发货，快递单号.+，请您注意查收！祝您在众成支商早日实现人生梦想！</v>
       </c>
       <c r="C410" t="str">
         <v>reject</v>
@@ -5801,35 +5855,38 @@
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>M6662737</v>
+        <v>N4383936</v>
       </c>
       <c r="B411" t="str">
-        <v>尊敬的会员客户，岁末将近，送礼送健康！特惠活动.+活动详情-http://37.qg37.com.+回复TD退订</v>
+        <v>您的提现申请已经审核通过，已转账\d*\.?\d*元到您绑定的提现银行卡，请注意查收，到账时间由各银行的操作规定，一般为48小时内。</v>
       </c>
       <c r="C411" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D411" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>N3559833</v>
+        <v>M6662737</v>
       </c>
       <c r="B412" t="str">
-        <v>尊敬的客户，今天是您的理财收益日。您通过我公司融汇通理财产品获得的收益款.{2,8}元，已为您准备好，请到万硕资本营业厅领取。祝您生活愉快！</v>
+        <v>尊敬的会员客户，岁末将近，送礼送健康！特惠活动.+活动详情-http://37.qg37.com.+回复TD退订</v>
       </c>
       <c r="C412" t="str">
         <v>reject</v>
       </c>
       <c r="D412" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>N4383936</v>
+        <v>N3559833</v>
       </c>
       <c r="B413" t="str">
-        <v>.{1,8}，您好，提醒一下您.+元。因临近国庆假期，防止转账延迟，影响信用记录，请尽量于9月30日周五下班之前处理一下，祝您生活愉快。</v>
+        <v>尊敬的客户，今天是您的理财收益日。您通过我公司融汇通理财产品获得的收益款.{2,8}元，已为您准备好，请到万硕资本营业厅领取。祝您生活愉快！</v>
       </c>
       <c r="C413" t="str">
         <v>reject</v>
@@ -5843,7 +5900,7 @@
         <v>N4383936</v>
       </c>
       <c r="B414" t="str">
-        <v>亲爱的会员，您已成功加入圆圈圈，您的用户名密码.+请及时更改初始密码\），如有问题请及时通过在线客服或拨打客服热线400-0121-079与我们联系，愿圆圈圈成为您永远的朋友。</v>
+        <v>.{1,8}，您好，提醒一下您.+元。因临近国庆假期，防止转账延迟，影响信用记录，请尽量于9月30日周五下班之前处理一下，祝您生活愉快。</v>
       </c>
       <c r="C414" t="str">
         <v>reject</v>
@@ -5857,7 +5914,7 @@
         <v>N4383936</v>
       </c>
       <c r="B415" t="str">
-        <v>亲爱的驴迹会员.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
+        <v>亲爱的会员，您已成功加入圆圈圈，您的用户名密码.+请及时更改初始密码\），如有问题请及时通过在线客服或拨打客服热线400-0121-079与我们联系，愿圆圈圈成为您永远的朋友。</v>
       </c>
       <c r="C415" t="str">
         <v>reject</v>
@@ -5871,7 +5928,7 @@
         <v>N4383936</v>
       </c>
       <c r="B416" t="str">
-        <v>亲爱的用户您好，您的爱车.+订购的每日一洗包月套餐服务即将到期,如要暂停服务或有任何疑惑请拨打热线：400-801-5560，祝您生活愉快~~</v>
+        <v>亲爱的驴迹会员.+手机导游服务未绑定帐号，您可以在驴迹导游APP/手机网页内使用。地址为.+一个授权码只能使用1次，请妥善保管。驴迹导游，您随身的专业导游。客服电话：020-29878842。</v>
       </c>
       <c r="C416" t="str">
         <v>reject</v>
@@ -5885,7 +5942,7 @@
         <v>N4383936</v>
       </c>
       <c r="B417" t="str">
-        <v>您的优惠券本月底即将过期，现已将您的\d+张优惠券延长了一个月使用期限</v>
+        <v>亲爱的用户您好，您的爱车.+订购的每日一洗包月套餐服务即将到期,如要暂停服务或有任何疑惑请拨打热线：400-801-5560，祝您生活愉快~~</v>
       </c>
       <c r="C417" t="str">
         <v>reject</v>
@@ -5896,13 +5953,16 @@
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B418" t="str">
-        <v>尊敬的.+查看了.+职位，并已申请该职位，在线等待您回应-查看简历:http://.+回复TD退订</v>
+        <v>您的优惠券本月底即将过期，现已将您的\d+张优惠券延长了一个月使用期限</v>
       </c>
       <c r="C418" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D418" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="419">
@@ -5910,7 +5970,7 @@
         <v>M1147250</v>
       </c>
       <c r="B419" t="str">
-        <v>您的咨询码为\d*，湖南大型互联网企业与长沙理工大学合作，就业有保障。最后少量名额，咨询黄老师微信\d*退订回复N</v>
+        <v>尊敬的.+查看了.+职位，并已申请该职位，在线等待您回应-查看简历:http://.+回复TD退订</v>
       </c>
       <c r="C419" t="str">
         <v>normal</v>
@@ -5921,13 +5981,7 @@
         <v>M1147250</v>
       </c>
       <c r="B420" t="str">
-        <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
-      </c>
-      <c r="C420" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D420" t="str">
-        <v>类别：normal</v>
+        <v>您的咨询码为\d*，湖南大型互联网企业与长沙理工大学合作，就业有保障。最后少量名额，咨询黄老师微信\d*退订回复N</v>
       </c>
     </row>
     <row r="421">
@@ -5935,10 +5989,7 @@
         <v>M1147250</v>
       </c>
       <c r="B421" t="str">
-        <v>惊爆5折，“橙”心送礼.+进口澳橙仅售.+元/斤，进口南非橙只要.+元/斤哦。还等什么，速度来抢吧。回T退订</v>
-      </c>
-      <c r="C421" t="str">
-        <v>normal</v>
+        <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
       </c>
     </row>
     <row r="422">
@@ -5946,21 +5997,18 @@
         <v>M1147250</v>
       </c>
       <c r="B422" t="str">
-        <v>尊敬的来宾您好！由成都辰茗科技和重庆誉存大数据科技有限公司主办，成都市大数据管理局、成都高新区创新创业服务中心领导和组织的“2016金融大数据高峰论坛”，将于2016年10月21日（周五）13:00--17:45，在成都市武侯区天府五街200号菁蓉国际广场7号楼举行。诚挚期待您的莅临！回T退订</v>
+        <v>惊爆5折，“橙”心送礼.+进口澳橙仅售.+元/斤，进口南非橙只要.+元/斤哦。还等什么，速度来抢吧。回T退订</v>
+      </c>
+      <c r="C422" t="str">
+        <v>normal</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B423" t="str">
-        <v>你订购的.*已成功付款，订单号为.*你可登录个人中心查看详情。</v>
-      </c>
-      <c r="C423" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D423" t="str">
-        <v>未加退订</v>
+        <v>尊敬的来宾您好！由成都辰茗科技和重庆誉存大数据科技有限公司主办，成都市大数据管理局、成都高新区创新创业服务中心领导和组织的“2016金融大数据高峰论坛”，将于2016年10月21日（周五）13:00--17:45，在成都市武侯区天府五街200号菁蓉国际广场7号楼举行。诚挚期待您的莅临！回T退订</v>
       </c>
     </row>
     <row r="424">
@@ -5968,7 +6016,7 @@
         <v>N4383936</v>
       </c>
       <c r="B424" t="str">
-        <v>您是否同意把求职信发布到快点\d*，不同意请点击.+</v>
+        <v>你订购的.*已成功付款，订单号为.*你可登录个人中心查看详情。</v>
       </c>
       <c r="C424" t="str">
         <v>reject</v>
@@ -5982,7 +6030,7 @@
         <v>N4383936</v>
       </c>
       <c r="B425" t="str">
-        <v>豆乎小秘书提醒你：请你上传照片反馈产品使用感受，以便医肤师及时跟进。</v>
+        <v>您是否同意把求职信发布到快点\d*，不同意请点击.+</v>
       </c>
       <c r="C425" t="str">
         <v>reject</v>
@@ -5996,7 +6044,7 @@
         <v>N4383936</v>
       </c>
       <c r="B426" t="str">
-        <v>.+请持身份证至.+办理，详询.+</v>
+        <v>豆乎小秘书提醒你：请你上传照片反馈产品使用感受，以便医肤师及时跟进。</v>
       </c>
       <c r="C426" t="str">
         <v>reject</v>
@@ -6010,7 +6058,7 @@
         <v>N4383936</v>
       </c>
       <c r="B427" t="str">
-        <v>您预约了.+时间于.+请耐心等待商家联系！商家联系电话.+</v>
+        <v>.+请持身份证至.+办理，详询.+</v>
       </c>
       <c r="C427" t="str">
         <v>reject</v>
@@ -6024,7 +6072,7 @@
         <v>N4383936</v>
       </c>
       <c r="B428" t="str">
-        <v>.*您的公众号消息月请求数已使用.*推荐您提升服务性能.*</v>
+        <v>您预约了.+时间于.+请耐心等待商家联系！商家联系电话.+</v>
       </c>
       <c r="C428" t="str">
         <v>reject</v>
@@ -6038,7 +6086,7 @@
         <v>N4383936</v>
       </c>
       <c r="B429" t="str">
-        <v>您有一个新的.+订单，订单号.+请尽快确认是否可以接单。15分钟未确认接单，此单将重新分配给其他工商顾问。确认接单后请10分钟内联系客户。</v>
+        <v>.*您的公众号消息月请求数已使用.*推荐您提升服务性能.*</v>
       </c>
       <c r="C429" t="str">
         <v>reject</v>
@@ -6052,7 +6100,7 @@
         <v>N4383936</v>
       </c>
       <c r="B430" t="str">
-        <v>尊敬的用户.+请及时查收。如有疑问请拨打官方客户电话进行咨询:400-6611-781，感谢您使用钱来钱往消费增值平台，祝您生活愉快！</v>
+        <v>您有一个新的.+订单，订单号.+请尽快确认是否可以接单。15分钟未确认接单，此单将重新分配给其他工商顾问。确认接单后请10分钟内联系客户。</v>
       </c>
       <c r="C430" t="str">
         <v>reject</v>
@@ -6066,7 +6114,7 @@
         <v>N4383936</v>
       </c>
       <c r="B431" t="str">
-        <v>亲爱的.{2,4}，新院地址为.{0,14}</v>
+        <v>尊敬的用户.+请及时查收。如有疑问请拨打官方客户电话进行咨询:400-6611-781，感谢您使用钱来钱往消费增值平台，祝您生活愉快！</v>
       </c>
       <c r="C431" t="str">
         <v>reject</v>
@@ -6080,7 +6128,7 @@
         <v>N4383936</v>
       </c>
       <c r="B432" t="str">
-        <v>尊敬的客户.+您的工单已派到.+收到产品后及时与施工店预约安装时间，有疑问请联系，4006558596，祝您生活愉快！</v>
+        <v>亲爱的.{2,4}，新院地址为.{0,14}</v>
       </c>
       <c r="C432" t="str">
         <v>reject</v>
@@ -6094,7 +6142,7 @@
         <v>N4383936</v>
       </c>
       <c r="B433" t="str">
-        <v>恭喜您.*个价值.*的资本亚元被.*挖走。资本亚元余额.*亚元账户余额.*</v>
+        <v>尊敬的客户.+您的工单已派到.+收到产品后及时与施工店预约安装时间，有疑问请联系，4006558596，祝您生活愉快！</v>
       </c>
       <c r="C433" t="str">
         <v>reject</v>
@@ -6108,7 +6156,7 @@
         <v>N4383936</v>
       </c>
       <c r="B434" t="str">
-        <v>用户.+刚刚在本站注册，号码是.+。请及时提供新手指南，做好服务。</v>
+        <v>恭喜您.*个价值.*的资本亚元被.*挖走。资本亚元余额.*亚元账户余额.*</v>
       </c>
       <c r="C434" t="str">
         <v>reject</v>
@@ -6122,7 +6170,7 @@
         <v>N4383936</v>
       </c>
       <c r="B435" t="str">
-        <v>友情提醒:古北时尚会员你好，你于.+参加了古北时尚的自拍晒照赢大奖活动，并获得比赛名次.+服务台领取奖品。具体奖品及奖项请查看古北时尚微信公众号历史信息内.+发布的投票结果揭晓</v>
+        <v>用户.+刚刚在本站注册，号码是.+。请及时提供新手指南，做好服务。</v>
       </c>
       <c r="C435" t="str">
         <v>reject</v>
@@ -6136,7 +6184,7 @@
         <v>N4383936</v>
       </c>
       <c r="B436" t="str">
-        <v>尊敬的客户，由于运营商升级，您于.+的充值订单到账有所延误，对此我们表示歉意并将附赠小礼物，感谢您对本平台的支持！欢迎关注微信公众号：掌上流量通，祝您生活愉快！</v>
+        <v>友情提醒:古北时尚会员你好，你于.+参加了古北时尚的自拍晒照赢大奖活动，并获得比赛名次.+服务台领取奖品。具体奖品及奖项请查看古北时尚微信公众号历史信息内.+发布的投票结果揭晓</v>
       </c>
       <c r="C436" t="str">
         <v>reject</v>
@@ -6150,7 +6198,7 @@
         <v>N4383936</v>
       </c>
       <c r="B437" t="str">
-        <v>手机动态登录密码.{0,10}分钟后失效，请输入动态码认证后登录译鱼。请勿向任何人提供验证码，谨防诈骗。（如非本人操作请忽略）</v>
+        <v>尊敬的客户，由于运营商升级，您于.+的充值订单到账有所延误，对此我们表示歉意并将附赠小礼物，感谢您对本平台的支持！欢迎关注微信公众号：掌上流量通，祝您生活愉快！</v>
       </c>
       <c r="C437" t="str">
         <v>reject</v>
@@ -6161,10 +6209,10 @@
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B438" t="str">
-        <v>.*数量有限售完即止</v>
+        <v>手机动态登录密码.{0,10}分钟后失效，请输入动态码认证后登录译鱼。请勿向任何人提供验证码，谨防诈骗。（如非本人操作请忽略）</v>
       </c>
       <c r="C438" t="str">
         <v>reject</v>
@@ -6178,10 +6226,13 @@
         <v>M1147250</v>
       </c>
       <c r="B439" t="str">
-        <v>尊敬的.*省内最大城际拼车发布平台与万千拼友愿与您一起共享出行，搜索公众号.*即刻出发！回T退订</v>
+        <v>.*数量有限售完即止</v>
       </c>
       <c r="C439" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D439" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="440">
@@ -6189,7 +6240,7 @@
         <v>M1147250</v>
       </c>
       <c r="B440" t="str">
-        <v>.+您好.+您有意合作可以直接登录客户端查找客户的相关信息进行合作，祝你们合作愉快！您的业务经理#.+回T退订</v>
+        <v>尊敬的.*省内最大城际拼车发布平台与万千拼友愿与您一起共享出行，搜索公众号.*即刻出发！回T退订</v>
       </c>
       <c r="C440" t="str">
         <v>normal</v>
@@ -6200,10 +6251,7 @@
         <v>M1147250</v>
       </c>
       <c r="B441" t="str">
-        <v>尊敬的团队负责人，_x0008_您好。报名升级已升级，请您登录官网查看公告，进行账号注册并进行报名信息关联。不便之处敬请谅解。回复TD退订</v>
-      </c>
-      <c r="C441" t="str">
-        <v>normal</v>
+        <v>.+您好.+您有意合作可以直接登录客户端查找客户的相关信息进行合作，祝你们合作愉快！您的业务经理#.+回T退订</v>
       </c>
     </row>
     <row r="442">
@@ -6211,7 +6259,7 @@
         <v>M1147250</v>
       </c>
       <c r="B442" t="str">
-        <v>微信助力活动，搜索关注《青岛春妍坤雪》微信公众号，点击菜单.+参与微信助力活动！！！您的活动专属码为\d+，您可凭此码到店领取礼品一份！－回复T退订</v>
+        <v>尊敬的团队负责人，_x0008_您好。报名升级已升级，请您登录官网查看公告，进行账号注册并进行报名信息关联。不便之处敬请谅解。回复TD退订</v>
       </c>
       <c r="C442" t="str">
         <v>normal</v>
@@ -6219,16 +6267,13 @@
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B443" t="str">
-        <v>您已成功支付订单.+温馨提示：买手即将为您抢购，请关注后续订单消息。请打开天天跟我买，在.+关注后续订单消息。</v>
+        <v>微信助力活动，搜索关注《青岛春妍坤雪》微信公众号，点击菜单.+参与微信助力活动！！！您的活动专属码为\d+，您可凭此码到店领取礼品一份！－回复T退订</v>
       </c>
       <c r="C443" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D443" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="444">
@@ -6236,7 +6281,7 @@
         <v>N4383936</v>
       </c>
       <c r="B444" t="str">
-        <v>.+短信报警:Trigger:Processorloadistoohighonoesd-10-pdd-sh.prod.yiran.comHostName:oesd-10-pdd-sh.prod.yiran.comTime:10:28:51Triggerstatus:PROBLEMTriggerseverity:HighValue:system.cpu.load.+</v>
+        <v>您已成功支付订单.+温馨提示：买手即将为您抢购，请关注后续订单消息。请打开天天跟我买，在.+关注后续订单消息。</v>
       </c>
       <c r="C444" t="str">
         <v>reject</v>
@@ -6250,7 +6295,7 @@
         <v>N4383936</v>
       </c>
       <c r="B445" t="str">
-        <v>您的货物.+已到达，请持身份证到.+提取.+</v>
+        <v>.+短信报警:Trigger:Processorloadistoohighonoesd-10-pdd-sh.prod.yiran.comHostName:oesd-10-pdd-sh.prod.yiran.comTime:10:28:51Triggerstatus:PROBLEMTriggerseverity:HighValue:system.cpu.load.+</v>
       </c>
       <c r="C445" t="str">
         <v>reject</v>
@@ -6264,7 +6309,7 @@
         <v>N4383936</v>
       </c>
       <c r="B446" t="str">
-        <v>充值成功，您的号码：.{2,40}，余额为：.{0,20}</v>
+        <v>您的货物.+已到达，请持身份证到.+提取.+</v>
       </c>
       <c r="C446" t="str">
         <v>reject</v>
@@ -6278,7 +6323,7 @@
         <v>N4383936</v>
       </c>
       <c r="B447" t="str">
-        <v>.{0,8}您好，您参加的.+活动已报名交款成功；请准时参加，并留意活动开始前领队的电话或短信通知。查看活动进度请关注公众号龙迹户外</v>
+        <v>充值成功，您的号码：.{2,40}，余额为：.{0,20}</v>
       </c>
       <c r="C447" t="str">
         <v>reject</v>
@@ -6292,7 +6337,7 @@
         <v>N4383936</v>
       </c>
       <c r="B448" t="str">
-        <v>欢迎使用科大智能充电桩，您的手机验证码是\d+。本条信息无需回复</v>
+        <v>.{0,8}您好，您参加的.+活动已报名交款成功；请准时参加，并留意活动开始前领队的电话或短信通知。查看活动进度请关注公众号龙迹户外</v>
       </c>
       <c r="C448" t="str">
         <v>reject</v>
@@ -6306,7 +6351,7 @@
         <v>N4383936</v>
       </c>
       <c r="B449" t="str">
-        <v>.+您好，欢迎注册第十届全国医学类实验教学研讨会暨，国家级实验教学示范中心联席会医学组第十二次会议。验证码为\d+。有效期\d+分钟，请尽快验证</v>
+        <v>欢迎使用科大智能充电桩，您的手机验证码是\d+。本条信息无需回复</v>
       </c>
       <c r="C449" t="str">
         <v>reject</v>
@@ -6320,7 +6365,7 @@
         <v>N4383936</v>
       </c>
       <c r="B450" t="str">
-        <v>尊敬的#.+先生/女士，您申请的.+元贷款成功通过实名认证，系统会在24小时内，放款到您指定银行卡，请注意查收，谢谢！</v>
+        <v>.+您好，欢迎注册第十届全国医学类实验教学研讨会暨，国家级实验教学示范中心联席会医学组第十二次会议。验证码为\d+。有效期\d+分钟，请尽快验证</v>
       </c>
       <c r="C450" t="str">
         <v>reject</v>
@@ -6334,7 +6379,7 @@
         <v>N4383936</v>
       </c>
       <c r="B451" t="str">
-        <v>注册成功！感谢加入babygaga大家庭，请牢记登录密码.*会员系统正在建设中，将带给您不一样的体验，请持续关注！</v>
+        <v>尊敬的#.+先生/女士，您申请的.+元贷款成功通过实名认证，系统会在24小时内，放款到您指定银行卡，请注意查收，谢谢！</v>
       </c>
       <c r="C451" t="str">
         <v>reject</v>
@@ -6348,7 +6393,7 @@
         <v>N4383936</v>
       </c>
       <c r="B452" t="str">
-        <v>核名已通过，通过的名称为.+下一步为企业设立阶段，工商顾问已将所需要的资料上传到携创网。如需帮助，请.+</v>
+        <v>注册成功！感谢加入babygaga大家庭，请牢记登录密码.*会员系统正在建设中，将带给您不一样的体验，请持续关注！</v>
       </c>
       <c r="C452" t="str">
         <v>reject</v>
@@ -6362,7 +6407,7 @@
         <v>N4383936</v>
       </c>
       <c r="B453" t="str">
-        <v>您今天还未打卡哦，还有.+分钟您就迟到啦！</v>
+        <v>核名已通过，通过的名称为.+下一步为企业设立阶段，工商顾问已将所需要的资料上传到携创网。如需帮助，请.+</v>
       </c>
       <c r="C453" t="str">
         <v>reject</v>
@@ -6376,7 +6421,7 @@
         <v>N4383936</v>
       </c>
       <c r="B454" t="str">
-        <v>.+您好，您的借款标.+马上就要到期，当期金额.+元，请保证账户资金，以备准时还款！</v>
+        <v>您今天还未打卡哦，还有.+分钟您就迟到啦！</v>
       </c>
       <c r="C454" t="str">
         <v>reject</v>
@@ -6390,7 +6435,7 @@
         <v>N4383936</v>
       </c>
       <c r="B455" t="str">
-        <v>卡券.+剩余张数.+请及时更新.+</v>
+        <v>.+您好，您的借款标.+马上就要到期，当期金额.+元，请保证账户资金，以备准时还款！</v>
       </c>
       <c r="C455" t="str">
         <v>reject</v>
@@ -6404,7 +6449,7 @@
         <v>N4383936</v>
       </c>
       <c r="B456" t="str">
-        <v>温馨提示您:针对于这个病情我已经和您做过详尽的沟通，您和家人好好考虑一下，如果有什么不清楚的问题或者确定好时间来院随时来电咨询！无论是咨询还是预约我们中医痿症专家组都会给您提供最周到的就医服务！地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）官方免费电话:010-51615853,官方公众微信号：dsmzlwz。不清楚您随时来电咨询。</v>
+        <v>卡券.+剩余张数.+请及时更新.+</v>
       </c>
       <c r="C456" t="str">
         <v>reject</v>
@@ -6418,7 +6463,7 @@
         <v>N4383936</v>
       </c>
       <c r="B457" t="str">
-        <v>您的验证码是\w+，请在页面提交验证码完成绑定，如非本人操作，请忽略本短信。</v>
+        <v>温馨提示您:针对于这个病情我已经和您做过详尽的沟通，您和家人好好考虑一下，如果有什么不清楚的问题或者确定好时间来院随时来电咨询！无论是咨询还是预约我们中医痿症专家组都会给您提供最周到的就医服务！地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）官方免费电话:010-51615853,官方公众微信号：dsmzlwz。不清楚您随时来电咨询。</v>
       </c>
       <c r="C457" t="str">
         <v>reject</v>
@@ -6432,7 +6477,7 @@
         <v>N4383936</v>
       </c>
       <c r="B458" t="str">
-        <v>E县联服务号于.{0,15}时发起了提现金额为.{0,8}元提现,请注意;</v>
+        <v>您的验证码是\w+，请在页面提交验证码完成绑定，如非本人操作，请忽略本短信。</v>
       </c>
       <c r="C458" t="str">
         <v>reject</v>
@@ -6446,7 +6491,7 @@
         <v>N4383936</v>
       </c>
       <c r="B459" t="str">
-        <v>通知.+早上好，你已成功提交工单，谢谢</v>
+        <v>E县联服务号于.{0,15}时发起了提现金额为.{0,8}元提现,请注意;</v>
       </c>
       <c r="C459" t="str">
         <v>reject</v>
@@ -6457,13 +6502,16 @@
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B460" t="str">
-        <v>沧州娱乐送你2-200元红包啦，打开微信，搜索“沧州娱乐”或“cangzhouyule”，关注微信号，回复关键字“话费”即可领取。您领取成功！记得短信群发给好友！退订回T!</v>
+        <v>通知.+早上好，你已成功提交工单，谢谢</v>
       </c>
       <c r="C460" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D460" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="461">
@@ -6471,27 +6519,24 @@
         <v>M1147250</v>
       </c>
       <c r="B461" t="str">
-        <v>尊敬的COCOK会员，我公司根据您的会员卡积分情况，回馈赠送您#code#元的消费现金额度，欢迎到店直接使用或查询.*详情咨询\d+-\d+，回T退订</v>
+        <v>沧州娱乐送你2-200元红包啦，打开微信，搜索“沧州娱乐”或“cangzhouyule”，关注微信号，回复关键字“话费”即可领取。您领取成功！记得短信群发给好友！退订回T!</v>
       </c>
       <c r="C461" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D461" t="str">
-        <v>类别 21</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
-        <v>N4383936</v>
+        <v>M1147250</v>
       </c>
       <c r="B462" t="str">
-        <v>.{0,28}您好，您已于.{0,28}日注册开通.{0,28}2017广东省少儿才艺.{0,28}官网账号。帐号.{0,28}初始登录密码.{0,28}</v>
+        <v>尊敬的COCOK会员，我公司根据您的会员卡积分情况，回馈赠送您#code#元的消费现金额度，欢迎到店直接使用或查询.*详情咨询\d+-\d+，回T退订</v>
       </c>
       <c r="C462" t="str">
         <v>reject</v>
       </c>
       <c r="D462" t="str">
-        <v>未加退订</v>
+        <v>类别 21</v>
       </c>
     </row>
     <row r="463">
@@ -6499,7 +6544,7 @@
         <v>N4383936</v>
       </c>
       <c r="B463" t="str">
-        <v>.+您好！您已通过我们审计部审核，您的中浦嘉华白金卡3天内寄出，额度为50万。请注意查收并开通，感谢您对本公司的大力支持。</v>
+        <v>.{0,28}您好，您已于.{0,28}日注册开通.{0,28}2017广东省少儿才艺.{0,28}官网账号。帐号.{0,28}初始登录密码.{0,28}</v>
       </c>
       <c r="C463" t="str">
         <v>reject</v>
@@ -6513,7 +6558,7 @@
         <v>N4383936</v>
       </c>
       <c r="B464" t="str">
-        <v>用户.+已填写订单.+的退货快递信息，请查收后确认退货</v>
+        <v>.+您好！您已通过我们审计部审核，您的中浦嘉华白金卡3天内寄出，额度为50万。请注意查收并开通，感谢您对本公司的大力支持。</v>
       </c>
       <c r="C464" t="str">
         <v>reject</v>
@@ -6527,7 +6572,7 @@
         <v>N4383936</v>
       </c>
       <c r="B465" t="str">
-        <v>恭喜您推荐的.+的客户已支付成功，可进入系统后台查看详细信息。</v>
+        <v>用户.+已填写订单.+的退货快递信息，请查收后确认退货</v>
       </c>
       <c r="C465" t="str">
         <v>reject</v>
@@ -6541,7 +6586,7 @@
         <v>N4383936</v>
       </c>
       <c r="B466" t="str">
-        <v>小二同城，房东租房神器！快速出租房屋请登录：www.12tc.com，房东直租网，保真信息网。免费发布信息，租户直接和您联系，我们不掺和。</v>
+        <v>恭喜您推荐的.+的客户已支付成功，可进入系统后台查看详细信息。</v>
       </c>
       <c r="C466" t="str">
         <v>reject</v>
@@ -6555,7 +6600,7 @@
         <v>N4383936</v>
       </c>
       <c r="B467" t="str">
-        <v>尊敬的.*并绑定手机,以防止他人盗用！请及时联系我们客服电话进行咨询和确认。华东:0571-64219767,华南:0571-64213188</v>
+        <v>小二同城，房东租房神器！快速出租房屋请登录：www.12tc.com，房东直租网，保真信息网。免费发布信息，租户直接和您联系，我们不掺和。</v>
       </c>
       <c r="C467" t="str">
         <v>reject</v>
@@ -6569,7 +6614,7 @@
         <v>N4383936</v>
       </c>
       <c r="B468" t="str">
-        <v>.+提醒您，救援车辆正在前往您的地点，请耐心等待,救援司机电话.+</v>
+        <v>尊敬的.*并绑定手机,以防止他人盗用！请及时联系我们客服电话进行咨询和确认。华东:0571-64219767,华南:0571-64213188</v>
       </c>
       <c r="C468" t="str">
         <v>reject</v>
@@ -6583,10 +6628,13 @@
         <v>N4383936</v>
       </c>
       <c r="B469" t="str">
-        <v>尊敬的用户，您在平安好车主中得1G流量已到账，请注意查收.{0,10}退订回T</v>
+        <v>.+提醒您，救援车辆正在前往您的地点，请耐心等待,救援司机电话.+</v>
       </c>
       <c r="C469" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D469" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="470">
@@ -6594,13 +6642,10 @@
         <v>N4383936</v>
       </c>
       <c r="B470" t="str">
-        <v>尊敬的.{2,4}，你在熟人养车平台的服务.+感谢你的光临！</v>
+        <v>尊敬的用户，您在平安好车主中得1G流量已到账，请注意查收.{0,10}退订回T</v>
       </c>
       <c r="C470" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D470" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="471">
@@ -6608,7 +6653,7 @@
         <v>N4383936</v>
       </c>
       <c r="B471" t="str">
-        <v>.+需要审核通过，您可通过平台查看。知游热线：13995644371</v>
+        <v>尊敬的.{2,4}，你在熟人养车平台的服务.+感谢你的光临！</v>
       </c>
       <c r="C471" t="str">
         <v>reject</v>
@@ -6622,7 +6667,7 @@
         <v>N4383936</v>
       </c>
       <c r="B472" t="str">
-        <v>您好!尊敬的热用户新年好：阳光热力祝您开业大吉！请贵用户在开启机器生产前，务必严格按照送气操作规程的规定操作：先开疏水，再微开供气阀门供气暖管，待管网中的积水全部排出后，再逐渐增大供汽阀门的开度，用汽生产。以免发生水冲击，造成人身伤害和财产损失。谢谢合作。</v>
+        <v>.+需要审核通过，您可通过平台查看。知游热线：13995644371</v>
       </c>
       <c r="C472" t="str">
         <v>reject</v>
@@ -6636,7 +6681,7 @@
         <v>N4383936</v>
       </c>
       <c r="B473" t="str">
-        <v>您有新的订单，请关注！</v>
+        <v>您好!尊敬的热用户新年好：阳光热力祝您开业大吉！请贵用户在开启机器生产前，务必严格按照送气操作规程的规定操作：先开疏水，再微开供气阀门供气暖管，待管网中的积水全部排出后，再逐渐增大供汽阀门的开度，用汽生产。以免发生水冲击，造成人身伤害和财产损失。谢谢合作。</v>
       </c>
       <c r="C473" t="str">
         <v>reject</v>
@@ -6650,7 +6695,7 @@
         <v>N4383936</v>
       </c>
       <c r="B474" t="str">
-        <v>您的验证码是.{0,8}。如非本人操作，请忽略本短信</v>
+        <v>您有新的订单，请关注！</v>
       </c>
       <c r="C474" t="str">
         <v>reject</v>
@@ -6661,13 +6706,16 @@
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B475" t="str">
-        <v>真给力！您的好友中已经盲订成功\d+人！快分享给其他好友，达到三人盲订成功，即可再获得\d+\.?\d*元优惠券！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
+        <v>您的验证码是.{0,8}。如非本人操作，请忽略本短信</v>
       </c>
       <c r="C475" t="str">
-        <v>normal</v>
+        <v>reject</v>
+      </c>
+      <c r="D475" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="476">
@@ -6675,7 +6723,7 @@
         <v>M1147250</v>
       </c>
       <c r="B476" t="str">
-        <v>车源宝排名播报。收到请到快抢车公司群打1。回复T退订</v>
+        <v>真给力！您的好友中已经盲订成功\d+人！快分享给其他好友，达到三人盲订成功，即可再获得\d+\.?\d*元优惠券！如有疑问请拨打400-081-2011咨询。回复T退订。</v>
       </c>
       <c r="C476" t="str">
         <v>normal</v>
@@ -6686,7 +6734,7 @@
         <v>M1147250</v>
       </c>
       <c r="B477" t="str">
-        <v>.{2,5}您好，现在通知您.+工作人员.+回复TD退订</v>
+        <v>车源宝排名播报。收到请到快抢车公司群打1。回复T退订</v>
       </c>
       <c r="C477" t="str">
         <v>normal</v>
@@ -6694,24 +6742,21 @@
     </row>
     <row r="478">
       <c r="A478" t="str">
-        <v>N487096_N4293657</v>
+        <v>M1147250</v>
       </c>
       <c r="B478" t="str">
-        <v>您的手机验证码为：123456</v>
+        <v>.{2,5}您好，现在通知您.+工作人员.+回复TD退订</v>
       </c>
       <c r="C478" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D478" t="str">
-        <v>未加退订</v>
+        <v>normal</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>N6982558</v>
+        <v>N487096_N4293657</v>
       </c>
       <c r="B479" t="str">
-        <v>尊敬的.{0,15}用户，您的账户.*最后登入日期.*感谢您的支持和厚爱。忘记密码手机重置或咨询电话.*</v>
+        <v>您的手机验证码为：123456</v>
       </c>
       <c r="C479" t="str">
         <v>reject</v>
@@ -6722,30 +6767,30 @@
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>M7024442</v>
+        <v>N6982558</v>
       </c>
       <c r="B480" t="str">
-        <v>短信测试！http://sep9.cn/hlmet5退订回TD</v>
+        <v>尊敬的.{0,15}用户，您的账户.*最后登入日期.*感谢您的支持和厚爱。忘记密码手机重置或咨询电话.*</v>
       </c>
       <c r="C480" t="str">
-        <v>normal</v>
+        <v>reject</v>
       </c>
       <c r="D480" t="str">
-        <v>类别：43</v>
+        <v>未加退订</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>N4383936</v>
+        <v>M7024442</v>
       </c>
       <c r="B481" t="str">
-        <v>欢迎进入.+您注册绑定的手机验证码是\w+，请尽快验证！</v>
+        <v>短信测试！http://sep9.cn/hlmet5退订回TD</v>
       </c>
       <c r="C481" t="str">
         <v>reject</v>
       </c>
       <c r="D481" t="str">
-        <v>未加退订</v>
+        <v>类别 122</v>
       </c>
     </row>
     <row r="482">
@@ -6753,7 +6798,7 @@
         <v>N4383936</v>
       </c>
       <c r="B482" t="str">
-        <v>温馨提示:无论您在北京的那个方向乘坐哪一路地铁，最后转乘地铁2号线，在积水潭下车，从A出口出来向东走200米见德胜门楼后左拐往北60米见孔子学院总部对面路东即到。地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）,官方公众微信号：dsmzlwz，专家咨询热线:010-51615853。不清楚您随时来电咨询。</v>
+        <v>欢迎进入.+您注册绑定的手机验证码是\w+，请尽快验证！</v>
       </c>
       <c r="C482" t="str">
         <v>reject</v>
@@ -6767,7 +6812,7 @@
         <v>N4383936</v>
       </c>
       <c r="B483" t="str">
-        <v>后台有新的业务申请，请尽快处理！</v>
+        <v>温馨提示:无论您在北京的那个方向乘坐哪一路地铁，最后转乘地铁2号线，在积水潭下车，从A出口出来向东走200米见德胜门楼后左拐往北60米见孔子学院总部对面路东即到。地址：北京市西城区德胜门外大街200号（德胜门箭楼的东北角）,官方公众微信号：dsmzlwz，专家咨询热线:010-51615853。不清楚您随时来电咨询。</v>
       </c>
       <c r="C483" t="str">
         <v>reject</v>
@@ -6781,7 +6826,7 @@
         <v>N4383936</v>
       </c>
       <c r="B484" t="str">
-        <v>亲爱的.{0,20}同学，您的验证码是.{0,10}如非本人操作，请忽略本短信</v>
+        <v>后台有新的业务申请，请尽快处理！</v>
       </c>
       <c r="C484" t="str">
         <v>reject</v>
@@ -6795,7 +6840,7 @@
         <v>N4383936</v>
       </c>
       <c r="B485" t="str">
-        <v>祝贺.+完成2017河北10公里超级联赛石家庄站的比赛，参赛号.+净成绩.+此成绩仅供参考，解释权归组委会所有。详细成绩和完赛证书请关注官网www.hb-10k.com查询或下载。</v>
+        <v>亲爱的.{0,20}同学，您的验证码是.{0,10}如非本人操作，请忽略本短信</v>
       </c>
       <c r="C485" t="str">
         <v>reject</v>
@@ -6809,7 +6854,7 @@
         <v>N4383936</v>
       </c>
       <c r="B486" t="str">
-        <v>亲爱的.+您已获得知网查重优惠券，请到http://www.cnki.cx.+查询，可抵现金使用！</v>
+        <v>祝贺.+完成2017河北10公里超级联赛石家庄站的比赛，参赛号.+净成绩.+此成绩仅供参考，解释权归组委会所有。详细成绩和完赛证书请关注官网www.hb-10k.com查询或下载。</v>
       </c>
       <c r="C486" t="str">
         <v>reject</v>
@@ -6823,7 +6868,7 @@
         <v>N4383936</v>
       </c>
       <c r="B487" t="str">
-        <v>亲爱的.+您的订单.+已发货，请查询订单，及时跟进快递小哥哟～</v>
+        <v>亲爱的.+您已获得知网查重优惠券，请到http://www.cnki.cx.+查询，可抵现金使用！</v>
       </c>
       <c r="C487" t="str">
         <v>reject</v>
@@ -6837,7 +6882,7 @@
         <v>N4383936</v>
       </c>
       <c r="B488" t="str">
-        <v>.{0,15}手机验证码，请完成验证.+如非本人操作，请忽略本短信</v>
+        <v>亲爱的.+您的订单.+已发货，请查询订单，及时跟进快递小哥哟～</v>
       </c>
       <c r="C488" t="str">
         <v>reject</v>
@@ -6848,24 +6893,24 @@
     </row>
     <row r="489">
       <c r="A489" t="str">
-        <v>M1147250</v>
+        <v>N4383936</v>
       </c>
       <c r="B489" t="str">
-        <v>亲爱的.+恭喜您已成功预定.+参加席位活动时间.+特别提醒：本活动仅限学生、郑州平面协会会员和特约嘉宾参加，到场需带学生证及相关证件。请妥善保管此条信息，如有疑问，请致电0371-60926058回复T退订此短信发布平台</v>
+        <v>.{0,15}手机验证码，请完成验证.+如非本人操作，请忽略本短信</v>
+      </c>
+      <c r="C489" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D489" t="str">
+        <v>未加退订</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>N8369795</v>
+        <v>M1147250</v>
       </c>
       <c r="B490" t="str">
-        <v>验证码是.{0,15}为了安全，请不要告诉他人！为了更好的为你服务，请加助教老师微信.{0,25}</v>
-      </c>
-      <c r="C490" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D490" t="str">
-        <v>未加退订</v>
+        <v>亲爱的.+恭喜您已成功预定.+参加席位活动时间.+特别提醒：本活动仅限学生、郑州平面协会会员和特约嘉宾参加，到场需带学生证及相关证件。请妥善保管此条信息，如有疑问，请致电0371-60926058回复T退订此短信发布平台</v>
       </c>
     </row>
     <row r="491">
@@ -6873,7 +6918,7 @@
         <v>N8369795</v>
       </c>
       <c r="B491" t="str">
-        <v>尊敬的学员.{0,12}新版课程已全新上传，上课：http://t.cn.{0,15}助教老师微信.{0,25}</v>
+        <v>验证码是.{0,15}为了安全，请不要告诉他人！为了更好的为你服务，请加助教老师微信.{0,25}</v>
       </c>
       <c r="C491" t="str">
         <v>reject</v>
@@ -6884,10 +6929,10 @@
     </row>
     <row r="492">
       <c r="A492" t="str">
-        <v>N4383936</v>
+        <v>N8369795</v>
       </c>
       <c r="B492" t="str">
-        <v>感谢您购买.+您的短信校正码为\d+，请保存好此条订单短信，如有疑问，请致电：400-176-1520。</v>
+        <v>尊敬的学员.{0,12}新版课程已全新上传，上课：http://t.cn.{0,15}助教老师微信.{0,25}</v>
       </c>
       <c r="C492" t="str">
         <v>reject</v>
@@ -6901,7 +6946,7 @@
         <v>N4383936</v>
       </c>
       <c r="B493" t="str">
-        <v>尊敬的.+会员，您已成功退款.+元，感谢您的支持和信任！您的账户现有余额.+元。</v>
+        <v>感谢您购买.+您的短信校正码为\d+，请保存好此条订单短信，如有疑问，请致电：400-176-1520。</v>
       </c>
       <c r="C493" t="str">
         <v>reject</v>
@@ -6915,7 +6960,7 @@
         <v>N4383936</v>
       </c>
       <c r="B494" t="str">
-        <v>您好！您的留言我们已收到，两个工作日内核实信息后，由本院工作人员回电进行详细沟通，祝您健康！如有其它问题，也可拨打010-53827770进行咨询！</v>
+        <v>尊敬的.+会员，您已成功退款.+元，感谢您的支持和信任！您的账户现有余额.+元。</v>
       </c>
       <c r="C494" t="str">
         <v>reject</v>
@@ -6929,7 +6974,7 @@
         <v>N4383936</v>
       </c>
       <c r="B495" t="str">
-        <v>尊敬的用户，您投资的.+标的已回款,本期收得本金.+元，收得利息.+元，感谢您的支持与信任！</v>
+        <v>您好！您的留言我们已收到，两个工作日内核实信息后，由本院工作人员回电进行详细沟通，祝您健康！如有其它问题，也可拨打010-53827770进行咨询！</v>
       </c>
       <c r="C495" t="str">
         <v>reject</v>
@@ -6943,7 +6988,7 @@
         <v>N4383936</v>
       </c>
       <c r="B496" t="str">
-        <v>您正在申请认证希嘉大学开发者，需要进行校验，验证码\d+。请勿泄露您的验证码。</v>
+        <v>尊敬的用户，您投资的.+标的已回款,本期收得本金.+元，收得利息.+元，感谢您的支持与信任！</v>
       </c>
       <c r="C496" t="str">
         <v>reject</v>
@@ -6957,7 +7002,7 @@
         <v>N4383936</v>
       </c>
       <c r="B497" t="str">
-        <v>亲爱的.+您已获得知网查重优惠券，请到.+查询，可抵现金使用！</v>
+        <v>您正在申请认证希嘉大学开发者，需要进行校验，验证码\d+。请勿泄露您的验证码。</v>
       </c>
       <c r="C497" t="str">
         <v>reject</v>
@@ -6971,7 +7016,7 @@
         <v>N4383936</v>
       </c>
       <c r="B498" t="str">
-        <v>您的注册验证码为\w+，该验证码5分钟内有效。如非本人操作，请忽略此短信。</v>
+        <v>亲爱的.+您已获得知网查重优惠券，请到.+查询，可抵现金使用！</v>
       </c>
       <c r="C498" t="str">
         <v>reject</v>
@@ -6985,7 +7030,7 @@
         <v>N4383936</v>
       </c>
       <c r="B499" t="str">
-        <v>感谢使用.+提示.+</v>
+        <v>您的注册验证码为\w+，该验证码5分钟内有效。如非本人操作，请忽略此短信。</v>
       </c>
       <c r="C499" t="str">
         <v>reject</v>
@@ -6999,18 +7044,32 @@
         <v>N4383936</v>
       </c>
       <c r="B500" t="str">
+        <v>感谢使用.+提示.+</v>
+      </c>
+      <c r="C500" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D500" t="str">
+        <v>未加退订</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>N4383936</v>
+      </c>
+      <c r="B501" t="str">
         <v>感谢您选择使用'云立付'，您的资料已审核通过，如使用过程中如有疑问请致电400-188-6496，我们将竭诚为您服务！</v>
       </c>
-      <c r="C500" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D500" t="str">
+      <c r="C501" t="str">
+        <v>reject</v>
+      </c>
+      <c r="D501" t="str">
         <v>未加退订</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D500"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D501"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sms_result.xlsx
+++ b/sms_result.xlsx
@@ -413,6 +413,9 @@
       <c r="B2" t="str">
         <v>尊敬的移动老用户！根据你的消费情况，我司免费赠送你一部智能手机，无需换号，办理地址：新度桥头远大电讯连锁卖场，详询入店咨询0594-7969998。退订回TD</v>
       </c>
+      <c r="C2" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -605,12 +608,6 @@
       <c r="B17" t="str">
         <v>亲爱的业主，我们是一家创业型企业，缘起北京，坐定长沙，定位:至简金品——小资范，国际风…我们有长远的战略规划，有很多的不一样!如果您感兴趣请点击https://h5.wps.cn/p/85c286f3.html，退订回TD</v>
       </c>
-      <c r="C17" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D17" t="str">
-        <v>类别 122</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -703,6 +700,9 @@
       <c r="B24" t="str">
         <v>10月31日前但凡在本公司选购家具、窗帘、墙纸、灯饰等软装产品的佳兆业城市广场的业主即可享受边套户型小房间改造加封阳台最低6000元特惠价！详情请移步佳兆业广场西侧一帘阳光家装体验馆店内咨询或拨打免费咨询热线：400-680-7372。退订回TD</v>
       </c>
+      <c r="C24" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1589,6 +1589,12 @@
       <c r="B89" t="str">
         <v>公众号：hthch888限云南省内，对家有一定要求的朋友关注！高端家具全屋定制，软装设计空间搭配，家居知识一应俱全！退订回TD</v>
       </c>
+      <c r="C89" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D89" t="str">
+        <v>类别：normal</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1781,6 +1787,9 @@
       <c r="B104" t="str">
         <v>如何成为上市公司创始人或股东，如何三年打造一家主板上市公司，如何让企业轻松的融到更多的资金，2017年让公司不仅赚钱，还能变成一家值钱的企业？1月9—11号深圳《产业资本孵化流水线》让您有获得资本时代的红利，报名13922891115退订回TD</v>
       </c>
+      <c r="C104" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -2068,6 +2077,12 @@
       <c r="B126" t="str">
         <v>尊敬的投资人，您好！平台优质项目.*还款方式：按期收息，到期还本。更多标的详情，敬请登录网站查看。溢诚感恩一路有你！400-997-6868。退订回TD</v>
       </c>
+      <c r="C126" t="str">
+        <v>normal</v>
+      </c>
+      <c r="D126" t="str">
+        <v>类别：40</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -2573,9 +2588,6 @@
       <c r="B164" t="str">
         <v>上海新科医院重要通知！由第二届京沪精神名医上海新科医院彭军教授、上海长征医院吴萍嘉教授、北京大学第六医院田运华教授在我院联合出诊，望预约成功的化治疗患者及家属安排好就诊时间，为避免窗口挂号造成拥堵，不能有效安排会诊时间，可在线预约，开放预约挂号时间：2016.12.18-12.25日，点击链接在线预约：http://m.xinkejingshen.com；详情致电：0215－2721599,退订回TD</v>
       </c>
-      <c r="C164" t="str">
-        <v>normal</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -2782,9 +2794,6 @@
       <c r="B180" t="str">
         <v>上海回力鞋业，三塘专卖店，年货大备战，年底大清仓。全场出厂价6.8折，前一百名送拖鞋一双，或袜子一双，先到先得，活动时间12月21日至12月31日。退订回复TD</v>
       </c>
-      <c r="C180" t="str">
-        <v>normal</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -4405,12 +4414,6 @@
       <c r="B300" t="str">
         <v>由国际稀浆罩面协会ISSA主办的第八届国际路面养护技术论坛暨第十届中国沥青国际峰会即将在3月6日上海盛大开幕，报名请咨询13917871375，高经理,或点击http://pmtc.asia/cn了解详情。退订回TD</v>
       </c>
-      <c r="C300" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D300" t="str">
-        <v>类别 122</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -4542,6 +4545,9 @@
       <c r="B310" t="str">
         <v>尊敬的客户您好，为了防止个别用户恶意套现,充值成功未投资进行提现的将扣取20%的手续费，系统已撤回申请，如确定需要提现请重新申请，有其他问题可以联系在线客服！退订回TD</v>
       </c>
+      <c r="C310" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
@@ -4656,12 +4662,6 @@
       <c r="B319" t="str">
         <v>恭喜你，4G手机等你来领！戳t.cn/RMbKLpm或地址：杜阮镇中心市场46号3328555，TD退订</v>
       </c>
-      <c r="C319" t="str">
-        <v>reject</v>
-      </c>
-      <c r="D319" t="str">
-        <v>类别 122</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -4698,6 +4698,9 @@
       <c r="B322" t="str">
         <v>.{0,10}尊敬的.*印尼京东CEO许龙华正在直播，邀请您参与！参与方式.*RIQl1Fk.*退订回复TD</v>
       </c>
+      <c r="C322" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -4706,6 +4709,9 @@
       <c r="B323" t="str">
         <v>股权激励的最高境界不是让员工得到的更多.*对公司的感情越深。经邦强调，成功的股改不是散财，而是合股合力，把大家的财合在一起！如何落地一套“财聚人聚”股改方案？详细了解回复9或18588604560退订回复T</v>
       </c>
+      <c r="C323" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -5052,9 +5058,6 @@
       <c r="B349" t="str">
         <v>尊敬的老师、学长：求是缘半导体联盟2016年会和首届招聘会.+将于.+召开。敬请您准时参加，顺祝安好。回T退订</v>
       </c>
-      <c r="C349" t="str">
-        <v>normal</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
@@ -5471,6 +5474,9 @@
       <c r="B380" t="str">
         <v>亲爱的COCOK会员.*根据您的COCOK会员卡使用活跃度，本司现积分回馈赠送您\d*元的消费额度，可直接当现金使用消费，有效期至\d*-\d*-\d*。地址：广州越秀区沿江中路199号天字广场。详情请咨询：020-83302588，回T退订</v>
       </c>
+      <c r="C380" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
@@ -5758,6 +5764,9 @@
       <c r="B402" t="str">
         <v>.*我们青春无畏，同赴健康之约。灵山慈善基金会邀请您加入无畏互助大病保障计划，并已为您的健康充值.*点击“我的互助”，用手机号登录即可查询账户状态。回T退订。</v>
       </c>
+      <c r="C402" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
@@ -6000,12 +6009,6 @@
       <c r="B421" t="str">
         <v>邀您国庆一起看电影，即日起至.+您只要在觅见发起约会，即可获得10元奖励！如不想接收此类短信，请回复T退订</v>
       </c>
-      <c r="C421" t="str">
-        <v>normal</v>
-      </c>
-      <c r="D421" t="str">
-        <v>类别：normal</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
@@ -6025,9 +6028,6 @@
       <c r="B423" t="str">
         <v>尊敬的来宾您好！由成都辰茗科技和重庆誉存大数据科技有限公司主办，成都市大数据管理局、成都高新区创新创业服务中心领导和组织的“2016金融大数据高峰论坛”，将于2016年10月21日（周五）13:00--17:45，在成都市武侯区天府五街200号菁蓉国际广场7号楼举行。诚挚期待您的莅临！回T退订</v>
       </c>
-      <c r="C423" t="str">
-        <v>normal</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
@@ -6271,6 +6271,9 @@
       <c r="B441" t="str">
         <v>.+您好.+您有意合作可以直接登录客户端查找客户的相关信息进行合作，祝你们合作愉快！您的业务经理#.+回T退订</v>
       </c>
+      <c r="C441" t="str">
+        <v>normal</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
@@ -6929,9 +6932,6 @@
       </c>
       <c r="B490" t="str">
         <v>亲爱的.+恭喜您已成功预定.+参加席位活动时间.+特别提醒：本活动仅限学生、郑州平面协会会员和特约嘉宾参加，到场需带学生证及相关证件。请妥善保管此条信息，如有疑问，请致电0371-60926058回复T退订此短信发布平台</v>
-      </c>
-      <c r="C490" t="str">
-        <v>normal</v>
       </c>
     </row>
     <row r="491">
